--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -534,13 +534,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.001242185843167626</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C2">
-        <v>0.01106734249541348</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D2">
-        <v>0.003373407802990328</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E2">
         <v>0.012</v>
@@ -568,13 +568,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001510621403172542</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C4">
-        <v>-0.01345898807474699</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D4">
-        <v>-0.004102399054743359</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E4">
         <v>0.988</v>
@@ -585,13 +585,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.002679623289130203</v>
+        <v>0.0005435658355624616</v>
       </c>
       <c r="C5">
-        <v>0.02387429293499715</v>
+        <v>0.004842938199677715</v>
       </c>
       <c r="D5">
-        <v>0.007277060966638799</v>
+        <v>0.001476163362520243</v>
       </c>
       <c r="E5">
         <v>0.001</v>
@@ -602,13 +602,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.001242185843167626</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C6">
-        <v>0.01106734249541348</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D6">
-        <v>0.003373407802990328</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E6">
         <v>0.012</v>
@@ -636,13 +636,13 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>-0.001510621403172542</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C8">
-        <v>-0.01345898807474699</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D8">
-        <v>-0.004102399054743359</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E8">
         <v>0.988</v>
@@ -653,13 +653,13 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>-0.002295599658430749</v>
+        <v>-0.0005053940203703005</v>
       </c>
       <c r="C9">
-        <v>-0.02045280727674408</v>
+        <v>-0.004502843716451291</v>
       </c>
       <c r="D9">
-        <v>-0.00623416684619808</v>
+        <v>-0.001372500050036199</v>
       </c>
       <c r="E9">
         <v>0.999</v>
@@ -670,13 +670,13 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>0.001242185843167626</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C10">
-        <v>0.01106734249541348</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D10">
-        <v>0.003373407802990328</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E10">
         <v>0.012</v>
@@ -704,13 +704,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>-0.001510621403172542</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C12">
-        <v>-0.01345898807474699</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D12">
-        <v>-0.004102399054743359</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E12">
         <v>0.988</v>
@@ -721,13 +721,13 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>0.001247325382918742</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C13">
-        <v>0.01111313358779089</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D13">
-        <v>0.003387365266437169</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E13">
         <v>0.012</v>
@@ -755,13 +755,13 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>-0.00151893001562453</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C15">
-        <v>-0.01353301424415923</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D15">
-        <v>-0.004124962778385618</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E15">
         <v>0.988</v>
@@ -772,13 +772,13 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0.002693386571896076</v>
+        <v>0.0005435658355624616</v>
       </c>
       <c r="C16">
-        <v>0.02399691787479095</v>
+        <v>0.004842938199677715</v>
       </c>
       <c r="D16">
-        <v>0.007314437954738066</v>
+        <v>0.001476163362520243</v>
       </c>
       <c r="E16">
         <v>0.001</v>
@@ -789,13 +789,13 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0.001247325382918742</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C17">
-        <v>0.01111313358779089</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D17">
-        <v>0.003387365266437169</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E17">
         <v>0.012</v>
@@ -823,13 +823,13 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>-0.00151893001562453</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C19">
-        <v>-0.01353301424415923</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D19">
-        <v>-0.004124962778385618</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E19">
         <v>0.988</v>
@@ -840,13 +840,13 @@
         <v>6</v>
       </c>
       <c r="B20">
-        <v>-0.00230595818187736</v>
+        <v>-0.0005053940203703005</v>
       </c>
       <c r="C20">
-        <v>-0.02054509727293182</v>
+        <v>-0.004502843716451291</v>
       </c>
       <c r="D20">
-        <v>-0.006262297519248697</v>
+        <v>-0.001372500050036199</v>
       </c>
       <c r="E20">
         <v>0.999</v>
@@ -857,13 +857,13 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>0.001247325382918742</v>
+        <v>0.0003831018761993852</v>
       </c>
       <c r="C21">
-        <v>0.01111313358779089</v>
+        <v>0.003413273221438522</v>
       </c>
       <c r="D21">
-        <v>0.003387365266437169</v>
+        <v>0.00104039090899287</v>
       </c>
       <c r="E21">
         <v>0.012</v>
@@ -891,13 +891,13 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>-0.00151893001562453</v>
+        <v>-0.0003587575337455078</v>
       </c>
       <c r="C23">
-        <v>-0.01353301424415923</v>
+        <v>-0.003196375583098315</v>
       </c>
       <c r="D23">
-        <v>-0.004124962778385618</v>
+        <v>-0.000974278905507819</v>
       </c>
       <c r="E23">
         <v>0.988</v>
@@ -908,13 +908,13 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>-0.008571210929353455</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C24">
-        <v>-0.0005372313070009749</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D24">
-        <v>0.01204098554149383</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E24">
         <v>0.012</v>
@@ -942,13 +942,13 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>0.01039468298801627</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C26">
-        <v>0.0006515239414291278</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D26">
-        <v>-0.01460263066662824</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E26">
         <v>0.988</v>
@@ -959,13 +959,13 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>-0.018368301795531</v>
+        <v>-0.005177466526053095</v>
       </c>
       <c r="C27">
-        <v>-0.001151299024412859</v>
+        <v>-0.0003245162359987699</v>
       </c>
       <c r="D27">
-        <v>0.02580410844684083</v>
+        <v>0.007273394634155411</v>
       </c>
       <c r="E27">
         <v>0.001</v>
@@ -976,13 +976,13 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>-0.008571210929353455</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C28">
-        <v>-0.0005372313070009749</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D28">
-        <v>0.01204098554149383</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E28">
         <v>0.012</v>
@@ -1010,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>0.01039468298801627</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C30">
-        <v>0.0006515239414291278</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D30">
-        <v>-0.01460263066662824</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E30">
         <v>0.988</v>
@@ -1027,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>0.01572619906830003</v>
+        <v>0.003382280188991988</v>
       </c>
       <c r="C31">
-        <v>0.0009856957843245651</v>
+        <v>0.0002119965103592119</v>
       </c>
       <c r="D31">
-        <v>-0.02209243678224802</v>
+        <v>-0.00475148578055185</v>
       </c>
       <c r="E31">
         <v>0.999</v>
@@ -1044,13 +1044,13 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>-0.008571210929353455</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C32">
-        <v>-0.0005372313070009749</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D32">
-        <v>0.01204098554149383</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E32">
         <v>0.012</v>
@@ -1078,13 +1078,13 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>0.01039468298801627</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C34">
-        <v>0.0006515239414291278</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D34">
-        <v>-0.01460263066662824</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E34">
         <v>0.988</v>
@@ -1095,13 +1095,13 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>-0.008244169080570929</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C35">
-        <v>-0.0005167327891936779</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D35">
-        <v>0.01158155148892982</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E35">
         <v>0.012</v>
@@ -1129,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>0.009205155328556706</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C37">
-        <v>0.0005769660400459357</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D37">
-        <v>-0.01293156161153032</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E37">
         <v>0.988</v>
@@ -1146,13 +1146,13 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <v>-0.017901925644017</v>
+        <v>-0.005177466526053095</v>
       </c>
       <c r="C38">
-        <v>-0.001122067230737838</v>
+        <v>-0.0003245162359987699</v>
       </c>
       <c r="D38">
-        <v>0.02514893515294301</v>
+        <v>0.007273394634155411</v>
       </c>
       <c r="E38">
         <v>0.001</v>
@@ -1163,13 +1163,13 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>-0.008244169080570929</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C39">
-        <v>-0.0005167327891936779</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D39">
-        <v>0.01158155148892982</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E39">
         <v>0.012</v>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>0.009205155328556706</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C41">
-        <v>0.0005769660400459357</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D41">
-        <v>-0.01293156161153032</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E41">
         <v>0.988</v>
@@ -1214,13 +1214,13 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>0.01507897274235207</v>
+        <v>0.003382280188991988</v>
       </c>
       <c r="C42">
-        <v>0.0009451285590071163</v>
+        <v>0.0002119965103592119</v>
       </c>
       <c r="D42">
-        <v>-0.02118320203151701</v>
+        <v>-0.00475148578055185</v>
       </c>
       <c r="E42">
         <v>0.999</v>
@@ -1231,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <v>-0.008244169080570929</v>
+        <v>-0.002704457063548203</v>
       </c>
       <c r="C43">
-        <v>-0.0005167327891936779</v>
+        <v>-0.0001695115211786786</v>
       </c>
       <c r="D43">
-        <v>0.01158155148892982</v>
+        <v>0.00379926811604334</v>
       </c>
       <c r="E43">
         <v>0.012</v>
@@ -1265,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>0.009205155328556706</v>
+        <v>0.002395379196819653</v>
       </c>
       <c r="C45">
-        <v>0.0005769660400459357</v>
+        <v>0.0001501389602096095</v>
       </c>
       <c r="D45">
-        <v>-0.01293156161153032</v>
+        <v>-0.003365070176551616</v>
       </c>
       <c r="E45">
         <v>0.988</v>
@@ -1282,13 +1282,13 @@
         <v>9</v>
       </c>
       <c r="B46">
-        <v>-0.007424881713572254</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C46">
-        <v>-0.002728780098493032</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D46">
-        <v>0.01105353407244483</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E46">
         <v>0.012</v>
@@ -1316,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B48">
-        <v>0.009006520904548209</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C48">
-        <v>0.003310061486375954</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D48">
-        <v>-0.01340814433590659</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E48">
         <v>0.988</v>
@@ -1333,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="B49">
-        <v>-0.01591516362348038</v>
+        <v>-0.004489569945849323</v>
       </c>
       <c r="C49">
-        <v>-0.005849114293717012</v>
+        <v>-0.001649999231183961</v>
       </c>
       <c r="D49">
-        <v>0.02369314558359974</v>
+        <v>0.006683690903298436</v>
       </c>
       <c r="E49">
         <v>0.001</v>
@@ -1350,13 +1350,13 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>-0.007424881713572254</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C50">
-        <v>-0.002728780098493032</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D50">
-        <v>0.01105353407244483</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E50">
         <v>0.012</v>
@@ -1384,13 +1384,13 @@
         <v>9</v>
       </c>
       <c r="B52">
-        <v>0.009006520904548209</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C52">
-        <v>0.003310061486375954</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D52">
-        <v>-0.01340814433590659</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E52">
         <v>0.988</v>
@@ -1401,13 +1401,13 @@
         <v>9</v>
       </c>
       <c r="B53">
-        <v>0.01362636100042336</v>
+        <v>0.002933002480337377</v>
       </c>
       <c r="C53">
-        <v>0.005007937385031719</v>
+        <v>0.001077932161874763</v>
       </c>
       <c r="D53">
-        <v>-0.0202857703882729</v>
+        <v>-0.004366405297974301</v>
       </c>
       <c r="E53">
         <v>0.999</v>
@@ -1418,13 +1418,13 @@
         <v>9</v>
       </c>
       <c r="B54">
-        <v>-0.007424881713572254</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C54">
-        <v>-0.002728780098493032</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D54">
-        <v>0.01105353407244483</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E54">
         <v>0.012</v>
@@ -1452,13 +1452,13 @@
         <v>9</v>
       </c>
       <c r="B56">
-        <v>0.009006520904548209</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C56">
-        <v>0.003310061486375954</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D56">
-        <v>-0.01340814433590659</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E56">
         <v>0.988</v>
@@ -1469,13 +1469,13 @@
         <v>10</v>
       </c>
       <c r="B57">
-        <v>-0.007154715381466893</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C57">
-        <v>-0.002629489020362539</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D57">
-        <v>0.01065133335432493</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E57">
         <v>0.012</v>
@@ -1503,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <v>0.007991147496581627</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C59">
-        <v>0.002936893151164159</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D59">
-        <v>-0.01189654253615035</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E59">
         <v>0.988</v>
@@ -1520,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="B60">
-        <v>-0.01552258955325534</v>
+        <v>-0.004489569945849323</v>
       </c>
       <c r="C60">
-        <v>-0.005704836128577179</v>
+        <v>-0.001649999231183961</v>
       </c>
       <c r="D60">
-        <v>0.0231087146083212</v>
+        <v>0.006683690903298436</v>
       </c>
       <c r="E60">
         <v>0.001</v>
@@ -1537,13 +1537,13 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>-0.007154715381466893</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C61">
-        <v>-0.002629489020362539</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D61">
-        <v>0.01065133335432493</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E61">
         <v>0.012</v>
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="B63">
-        <v>0.007991147496581627</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C63">
-        <v>0.002936893151164159</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D63">
-        <v>-0.01189654253615035</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E63">
         <v>0.988</v>
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B64">
-        <v>0.01308620775491838</v>
+        <v>0.002933002480337377</v>
       </c>
       <c r="C64">
-        <v>0.004809421168433132</v>
+        <v>0.001077932161874763</v>
       </c>
       <c r="D64">
-        <v>-0.01948163605538286</v>
+        <v>-0.004366405297974301</v>
       </c>
       <c r="E64">
         <v>0.999</v>
@@ -1605,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="B65">
-        <v>-0.007154715381466893</v>
+        <v>-0.002345411108423894</v>
       </c>
       <c r="C65">
-        <v>-0.002629489020362539</v>
+        <v>-0.0008619815644675622</v>
       </c>
       <c r="D65">
-        <v>0.01065133335432493</v>
+        <v>0.0034916491064719</v>
       </c>
       <c r="E65">
         <v>0.012</v>
@@ -1639,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="B67">
-        <v>0.007991147496581627</v>
+        <v>0.002077281862281599</v>
       </c>
       <c r="C67">
-        <v>0.002936893151164159</v>
+        <v>0.0007634391527602359</v>
       </c>
       <c r="D67">
-        <v>-0.01189654253615035</v>
+        <v>-0.003092481029136041</v>
       </c>
       <c r="E67">
         <v>0.988</v>
@@ -1656,13 +1656,13 @@
         <v>11</v>
       </c>
       <c r="B68">
-        <v>0.002721801001437077</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C68">
-        <v>0.01358230564929171</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D68">
-        <v>-0.00215036504041869</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E68">
         <v>0.012</v>
@@ -1690,13 +1690,13 @@
         <v>11</v>
       </c>
       <c r="B70">
-        <v>-0.002955030091570753</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C70">
-        <v>-0.01474616325197069</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D70">
-        <v>0.002334628210858893</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E70">
         <v>0.988</v>
@@ -1707,13 +1707,13 @@
         <v>11</v>
       </c>
       <c r="B71">
-        <v>0.006011242710897693</v>
+        <v>0.001728737965671143</v>
       </c>
       <c r="C71">
-        <v>0.02999724659825645</v>
+        <v>0.008626731867937059</v>
       </c>
       <c r="D71">
-        <v>-0.0047491959067401</v>
+        <v>-0.001365793341783988</v>
       </c>
       <c r="E71">
         <v>0.001</v>
@@ -1724,13 +1724,13 @@
         <v>11</v>
       </c>
       <c r="B72">
-        <v>0.002721801001437077</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C72">
-        <v>0.01358230564929171</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D72">
-        <v>-0.00215036504041869</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E72">
         <v>0.012</v>
@@ -1758,13 +1758,13 @@
         <v>11</v>
       </c>
       <c r="B74">
-        <v>-0.002955030091570753</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C74">
-        <v>-0.01474616325197069</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D74">
-        <v>0.002334628210858893</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E74">
         <v>0.988</v>
@@ -1775,13 +1775,13 @@
         <v>11</v>
       </c>
       <c r="B75">
-        <v>-0.004925704043559535</v>
+        <v>-0.00101754829053298</v>
       </c>
       <c r="C75">
-        <v>-0.02458020179368516</v>
+        <v>-0.005077759868423919</v>
       </c>
       <c r="D75">
-        <v>0.003891563626116283</v>
+        <v>0.0008039163295717178</v>
       </c>
       <c r="E75">
         <v>0.999</v>
@@ -1792,13 +1792,13 @@
         <v>11</v>
       </c>
       <c r="B76">
-        <v>0.002721801001437077</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C76">
-        <v>0.01358230564929171</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D76">
-        <v>-0.00215036504041869</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E76">
         <v>0.012</v>
@@ -1826,13 +1826,13 @@
         <v>11</v>
       </c>
       <c r="B78">
-        <v>-0.002955030091570753</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C78">
-        <v>-0.01474616325197069</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D78">
-        <v>0.002334628210858893</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E78">
         <v>0.988</v>
@@ -1843,13 +1843,13 @@
         <v>12</v>
       </c>
       <c r="B79">
-        <v>0.002722055421274389</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C79">
-        <v>0.0135835752527608</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D79">
-        <v>-0.002150566045386891</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E79">
         <v>0.012</v>
@@ -1877,13 +1877,13 @@
         <v>12</v>
       </c>
       <c r="B81">
-        <v>-0.002955760745992836</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C81">
-        <v>-0.01474980935676656</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D81">
-        <v>0.002335205466038477</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E81">
         <v>0.988</v>
@@ -1894,13 +1894,13 @@
         <v>12</v>
       </c>
       <c r="B82">
-        <v>0.00602289219882373</v>
+        <v>0.001728737965671143</v>
       </c>
       <c r="C82">
-        <v>0.03005537976287269</v>
+        <v>0.008626731867937059</v>
       </c>
       <c r="D82">
-        <v>-0.004758399611037991</v>
+        <v>-0.001365793341783988</v>
       </c>
       <c r="E82">
         <v>0.001</v>
@@ -1911,13 +1911,13 @@
         <v>12</v>
       </c>
       <c r="B83">
-        <v>0.002722055421274389</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C83">
-        <v>0.0135835752527608</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D83">
-        <v>-0.002150566045386891</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E83">
         <v>0.012</v>
@@ -1945,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="B85">
-        <v>-0.002955760745992836</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C85">
-        <v>-0.01474980935676656</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D85">
-        <v>0.002335205466038477</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E85">
         <v>0.988</v>
@@ -1962,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="B86">
-        <v>-0.004926049748433355</v>
+        <v>-0.00101754829053298</v>
       </c>
       <c r="C86">
-        <v>-0.02458192692688123</v>
+        <v>-0.005077759868423919</v>
       </c>
       <c r="D86">
-        <v>0.003891836751034149</v>
+        <v>0.0008039163295717178</v>
       </c>
       <c r="E86">
         <v>0.999</v>
@@ -1979,13 +1979,13 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>0.002722055421274389</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C87">
-        <v>0.0135835752527608</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D87">
-        <v>-0.002150566045386891</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E87">
         <v>0.012</v>
@@ -2013,13 +2013,13 @@
         <v>12</v>
       </c>
       <c r="B89">
-        <v>-0.002955760745992836</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C89">
-        <v>-0.01474980935676656</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D89">
-        <v>0.002335205466038477</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E89">
         <v>0.988</v>
@@ -2030,13 +2030,13 @@
         <v>13</v>
       </c>
       <c r="B90">
-        <v>0.002431338419220686</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C90">
-        <v>0.01213284201500598</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D90">
-        <v>-0.0019208844200434</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E90">
         <v>0.012</v>
@@ -2064,13 +2064,13 @@
         <v>13</v>
       </c>
       <c r="B92">
-        <v>-0.002588135025168725</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C92">
-        <v>-0.01291528695702539</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D92">
-        <v>0.002044761933391711</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E92">
         <v>0.988</v>
@@ -2081,13 +2081,13 @@
         <v>13</v>
       </c>
       <c r="B93">
-        <v>0.004135081205773538</v>
+        <v>0.001728737965671143</v>
       </c>
       <c r="C93">
-        <v>0.02063484317619254</v>
+        <v>0.008626731867937059</v>
       </c>
       <c r="D93">
-        <v>-0.003266930264002749</v>
+        <v>-0.001365793341783988</v>
       </c>
       <c r="E93">
         <v>0.001</v>
@@ -2098,13 +2098,13 @@
         <v>13</v>
       </c>
       <c r="B94">
-        <v>0.002431338419220686</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C94">
-        <v>0.01213284201500598</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D94">
-        <v>-0.0019208844200434</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E94">
         <v>0.012</v>
@@ -2132,13 +2132,13 @@
         <v>13</v>
       </c>
       <c r="B96">
-        <v>-0.002588135025168725</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C96">
-        <v>-0.01291528695702539</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D96">
-        <v>0.002044761933391711</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E96">
         <v>0.988</v>
@@ -2149,13 +2149,13 @@
         <v>13</v>
       </c>
       <c r="B97">
-        <v>-0.004223419510321813</v>
+        <v>-0.00101754829053298</v>
       </c>
       <c r="C97">
-        <v>-0.02107566814917234</v>
+        <v>-0.005077759868423919</v>
       </c>
       <c r="D97">
-        <v>0.00333672214141413</v>
+        <v>0.0008039163295717178</v>
       </c>
       <c r="E97">
         <v>0.999</v>
@@ -2166,13 +2166,13 @@
         <v>13</v>
       </c>
       <c r="B98">
-        <v>0.002431338419220686</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C98">
-        <v>0.01213284201500598</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D98">
-        <v>-0.0019208844200434</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E98">
         <v>0.012</v>
@@ -2200,13 +2200,13 @@
         <v>13</v>
       </c>
       <c r="B100">
-        <v>-0.002588135025168725</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C100">
-        <v>-0.01291528695702539</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D100">
-        <v>0.002044761933391711</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E100">
         <v>0.988</v>
@@ -2217,13 +2217,13 @@
         <v>14</v>
       </c>
       <c r="B101">
-        <v>0.002431102511309393</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C101">
-        <v>0.01213166478957525</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D101">
-        <v>-0.001920698040464241</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E101">
         <v>0.012</v>
@@ -2251,13 +2251,13 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>-0.002588037232025797</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C103">
-        <v>-0.01291479895060723</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D103">
-        <v>0.002044684671697842</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E103">
         <v>0.988</v>
@@ -2268,13 +2268,13 @@
         <v>14</v>
       </c>
       <c r="B104">
-        <v>0.004133833505500564</v>
+        <v>0.001728737965671143</v>
       </c>
       <c r="C104">
-        <v>0.02062861691407519</v>
+        <v>0.008626731867937059</v>
       </c>
       <c r="D104">
-        <v>-0.003265944515578634</v>
+        <v>-0.001365793341783988</v>
       </c>
       <c r="E104">
         <v>0.001</v>
@@ -2285,13 +2285,13 @@
         <v>14</v>
       </c>
       <c r="B105">
-        <v>0.002431102511309393</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C105">
-        <v>0.01213166478957525</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D105">
-        <v>-0.001920698040464241</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E105">
         <v>0.012</v>
@@ -2319,13 +2319,13 @@
         <v>14</v>
       </c>
       <c r="B107">
-        <v>-0.002588037232025797</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C107">
-        <v>-0.01291479895060723</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D107">
-        <v>0.002044684671697842</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E107">
         <v>0.988</v>
@@ -2336,13 +2336,13 @@
         <v>14</v>
       </c>
       <c r="B108">
-        <v>-0.004223042821233055</v>
+        <v>-0.00101754829053298</v>
       </c>
       <c r="C108">
-        <v>-0.02107378839883954</v>
+        <v>-0.005077759868423919</v>
       </c>
       <c r="D108">
-        <v>0.003336424537347138</v>
+        <v>0.0008039163295717178</v>
       </c>
       <c r="E108">
         <v>0.999</v>
@@ -2353,13 +2353,13 @@
         <v>14</v>
       </c>
       <c r="B109">
-        <v>0.002431102511309393</v>
+        <v>0.0008102720982199635</v>
       </c>
       <c r="C109">
-        <v>0.01213166478957525</v>
+        <v>0.004043412171318096</v>
       </c>
       <c r="D109">
-        <v>-0.001920698040464241</v>
+        <v>-0.0006401573047842046</v>
       </c>
       <c r="E109">
         <v>0.012</v>
@@ -2387,13 +2387,13 @@
         <v>14</v>
       </c>
       <c r="B111">
-        <v>-0.002588037232025797</v>
+        <v>-0.000704391006559916</v>
       </c>
       <c r="C111">
-        <v>-0.01291479895060723</v>
+        <v>-0.003515045347789068</v>
       </c>
       <c r="D111">
-        <v>0.002044684671697842</v>
+        <v>0.0005565057087171449</v>
       </c>
       <c r="E111">
         <v>0.988</v>
@@ -2404,13 +2404,13 @@
         <v>15</v>
       </c>
       <c r="B112">
-        <v>0.002522466848554912</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C112">
-        <v>0.0126138613277916</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D112">
-        <v>-0.001142286197981856</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E112">
         <v>0.012</v>
@@ -2438,13 +2438,13 @@
         <v>15</v>
       </c>
       <c r="B114">
-        <v>-0.002651757561266789</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C114">
-        <v>-0.0132603931631072</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D114">
-        <v>0.00120083483529799</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E114">
         <v>0.988</v>
@@ -2455,13 +2455,13 @@
         <v>15</v>
       </c>
       <c r="B115">
-        <v>0.005355688726120428</v>
+        <v>3.949733726946121E-06</v>
       </c>
       <c r="C115">
-        <v>0.02678168592970878</v>
+        <v>1.975105977782895E-05</v>
       </c>
       <c r="D115">
-        <v>-0.002425296219864756</v>
+        <v>-1.788616696619303E-06</v>
       </c>
       <c r="E115">
         <v>0.001</v>
@@ -2472,13 +2472,13 @@
         <v>15</v>
       </c>
       <c r="B116">
-        <v>0.002522466848554912</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C116">
-        <v>0.0126138613277916</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D116">
-        <v>-0.001142286197981856</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E116">
         <v>0.012</v>
@@ -2506,13 +2506,13 @@
         <v>15</v>
       </c>
       <c r="B118">
-        <v>-0.002651757561266789</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C118">
-        <v>-0.0132603931631072</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D118">
-        <v>0.00120083483529799</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E118">
         <v>0.988</v>
@@ -2523,13 +2523,13 @@
         <v>15</v>
       </c>
       <c r="B119">
-        <v>-0.004471502719647616</v>
+        <v>-9.186432457955544E-06</v>
       </c>
       <c r="C119">
-        <v>-0.02236022061688958</v>
+        <v>-4.59377236962139E-05</v>
       </c>
       <c r="D119">
-        <v>0.002024897113640148</v>
+        <v>4.160028906396435E-06</v>
       </c>
       <c r="E119">
         <v>0.999</v>
@@ -2540,13 +2540,13 @@
         <v>15</v>
       </c>
       <c r="B120">
-        <v>0.002522466848554912</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C120">
-        <v>0.0126138613277916</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D120">
-        <v>-0.001142286197981856</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E120">
         <v>0.012</v>
@@ -2574,13 +2574,13 @@
         <v>15</v>
       </c>
       <c r="B122">
-        <v>-0.002651757561266789</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C122">
-        <v>-0.0132603931631072</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D122">
-        <v>0.00120083483529799</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E122">
         <v>0.988</v>
@@ -2591,13 +2591,13 @@
         <v>16</v>
       </c>
       <c r="B123">
-        <v>0.0024194963117651</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C123">
-        <v>0.01209894630614957</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D123">
-        <v>-0.001095656517579448</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E123">
         <v>0.012</v>
@@ -2625,13 +2625,13 @@
         <v>16</v>
       </c>
       <c r="B125">
-        <v>-0.002590345765775031</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C125">
-        <v>-0.01295329700734701</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D125">
-        <v>0.001173024818122261</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E125">
         <v>0.988</v>
@@ -2642,13 +2642,13 @@
         <v>16</v>
       </c>
       <c r="B126">
-        <v>0.003762980827645965</v>
+        <v>3.949733726946121E-06</v>
       </c>
       <c r="C126">
-        <v>0.01881718222233808</v>
+        <v>1.975105977782895E-05</v>
       </c>
       <c r="D126">
-        <v>-0.00170404660229839</v>
+        <v>-1.788616696619303E-06</v>
       </c>
       <c r="E126">
         <v>0.001</v>
@@ -2659,13 +2659,13 @@
         <v>16</v>
       </c>
       <c r="B127">
-        <v>0.0024194963117651</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C127">
-        <v>0.01209894630614957</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D127">
-        <v>-0.001095656517579448</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E127">
         <v>0.012</v>
@@ -2693,13 +2693,13 @@
         <v>16</v>
       </c>
       <c r="B129">
-        <v>-0.002590345765775031</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C129">
-        <v>-0.01295329700734701</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D129">
-        <v>0.001173024818122261</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E129">
         <v>0.988</v>
@@ -2710,13 +2710,13 @@
         <v>16</v>
       </c>
       <c r="B130">
-        <v>-0.004212301127428173</v>
+        <v>-9.186432457955544E-06</v>
       </c>
       <c r="C130">
-        <v>-0.021064055736835</v>
+        <v>-4.59377236962139E-05</v>
       </c>
       <c r="D130">
-        <v>0.001907518999649547</v>
+        <v>4.160028906396435E-06</v>
       </c>
       <c r="E130">
         <v>0.999</v>
@@ -2727,13 +2727,13 @@
         <v>16</v>
       </c>
       <c r="B131">
-        <v>0.0024194963117651</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C131">
-        <v>0.01209894630614957</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D131">
-        <v>-0.001095656517579448</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E131">
         <v>0.012</v>
@@ -2761,13 +2761,13 @@
         <v>16</v>
       </c>
       <c r="B133">
-        <v>-0.002590345765775031</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C133">
-        <v>-0.01295329700734701</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D133">
-        <v>0.001173024818122261</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E133">
         <v>0.988</v>
@@ -2778,13 +2778,13 @@
         <v>17</v>
       </c>
       <c r="B134">
-        <v>0.002405312056553136</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C134">
-        <v>0.01202801644303394</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D134">
-        <v>-0.001089233250226475</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E134">
         <v>0.012</v>
@@ -2812,13 +2812,13 @@
         <v>17</v>
       </c>
       <c r="B136">
-        <v>-0.002424693810409482</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C136">
-        <v>-0.01212493694590334</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D136">
-        <v>0.00109801017823069</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E136">
         <v>0.988</v>
@@ -2829,13 +2829,13 @@
         <v>17</v>
       </c>
       <c r="B137">
-        <v>0.003592007162466553</v>
+        <v>3.949733726946121E-06</v>
       </c>
       <c r="C137">
-        <v>0.01796221039009661</v>
+        <v>1.975105977782895E-05</v>
       </c>
       <c r="D137">
-        <v>-0.001626622053363406</v>
+        <v>-1.788616696619303E-06</v>
       </c>
       <c r="E137">
         <v>0.001</v>
@@ -2846,13 +2846,13 @@
         <v>17</v>
       </c>
       <c r="B138">
-        <v>0.002405312056553136</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C138">
-        <v>0.01202801644303394</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D138">
-        <v>-0.001089233250226475</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E138">
         <v>0.012</v>
@@ -2880,13 +2880,13 @@
         <v>17</v>
       </c>
       <c r="B140">
-        <v>-0.002424693810409482</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C140">
-        <v>-0.01212493694590334</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D140">
-        <v>0.00109801017823069</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E140">
         <v>0.988</v>
@@ -2897,13 +2897,13 @@
         <v>17</v>
       </c>
       <c r="B141">
-        <v>-0.004189015454698153</v>
+        <v>-9.186432457955544E-06</v>
       </c>
       <c r="C141">
-        <v>-0.02094761327619014</v>
+        <v>-4.59377236962139E-05</v>
       </c>
       <c r="D141">
-        <v>0.001896974201970457</v>
+        <v>4.160028906396435E-06</v>
       </c>
       <c r="E141">
         <v>0.999</v>
@@ -2914,13 +2914,13 @@
         <v>17</v>
       </c>
       <c r="B142">
-        <v>0.002405312056553136</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C142">
-        <v>0.01202801644303394</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D142">
-        <v>-0.001089233250226475</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E142">
         <v>0.012</v>
@@ -2948,13 +2948,13 @@
         <v>17</v>
       </c>
       <c r="B144">
-        <v>-0.002424693810409482</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C144">
-        <v>-0.01212493694590334</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D144">
-        <v>0.00109801017823069</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E144">
         <v>0.988</v>
@@ -2965,13 +2965,13 @@
         <v>18</v>
       </c>
       <c r="B145">
-        <v>0.002475183729904067</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C145">
-        <v>0.01237741710964501</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D145">
-        <v>-0.001120874279778316</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E145">
         <v>0.012</v>
@@ -2999,13 +2999,13 @@
         <v>18</v>
       </c>
       <c r="B147">
-        <v>-0.002620673699409813</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C147">
-        <v>-0.0131049550358546</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D147">
-        <v>0.001186758667597495</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E147">
         <v>0.988</v>
@@ -3016,13 +3016,13 @@
         <v>18</v>
       </c>
       <c r="B148">
-        <v>0.005076864732999874</v>
+        <v>3.949733726946121E-06</v>
       </c>
       <c r="C148">
-        <v>0.02538739716587481</v>
+        <v>1.975105977782895E-05</v>
       </c>
       <c r="D148">
-        <v>-0.002299032202087769</v>
+        <v>-1.788616696619303E-06</v>
       </c>
       <c r="E148">
         <v>0.001</v>
@@ -3033,13 +3033,13 @@
         <v>18</v>
       </c>
       <c r="B149">
-        <v>0.002475183729904067</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C149">
-        <v>0.01237741710964501</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D149">
-        <v>-0.001120874279778316</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E149">
         <v>0.012</v>
@@ -3067,13 +3067,13 @@
         <v>18</v>
       </c>
       <c r="B151">
-        <v>-0.002620673699409813</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C151">
-        <v>-0.0131049550358546</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D151">
-        <v>0.001186758667597495</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E151">
         <v>0.988</v>
@@ -3084,13 +3084,13 @@
         <v>18</v>
       </c>
       <c r="B152">
-        <v>-0.004367430573849421</v>
+        <v>-9.186432457955544E-06</v>
       </c>
       <c r="C152">
-        <v>-0.02183979688329872</v>
+        <v>-4.59377236962139E-05</v>
       </c>
       <c r="D152">
-        <v>0.001977768575238251</v>
+        <v>4.160028906396435E-06</v>
       </c>
       <c r="E152">
         <v>0.999</v>
@@ -3101,13 +3101,13 @@
         <v>18</v>
       </c>
       <c r="B153">
-        <v>0.002475183729904067</v>
+        <v>1.064768226825752E-07</v>
       </c>
       <c r="C153">
-        <v>0.01237741710964501</v>
+        <v>5.324485737885094E-07</v>
       </c>
       <c r="D153">
-        <v>-0.001120874279778316</v>
+        <v>-4.821748401765738E-08</v>
       </c>
       <c r="E153">
         <v>0.012</v>
@@ -3135,13 +3135,13 @@
         <v>18</v>
       </c>
       <c r="B155">
-        <v>-0.002620673699409813</v>
+        <v>-9.620909917469598E-08</v>
       </c>
       <c r="C155">
-        <v>-0.0131049550358546</v>
+        <v>-4.811037402361111E-07</v>
       </c>
       <c r="D155">
-        <v>0.001186758667597495</v>
+        <v>4.35677979952371E-08</v>
       </c>
       <c r="E155">
         <v>0.988</v>
@@ -3152,13 +3152,13 @@
         <v>19</v>
       </c>
       <c r="B156">
-        <v>0.007130428003200383</v>
+        <v>0.003216933440308844</v>
       </c>
       <c r="C156">
-        <v>0.01862014353445056</v>
+        <v>0.008400584421080952</v>
       </c>
       <c r="D156">
-        <v>0.004870584664744371</v>
+        <v>0.002197392172649259</v>
       </c>
       <c r="E156">
         <v>0.012</v>
@@ -3186,13 +3186,13 @@
         <v>19</v>
       </c>
       <c r="B158">
-        <v>-0.007504243537720676</v>
+        <v>-0.003342477993797991</v>
       </c>
       <c r="C158">
-        <v>-0.01959631199236796</v>
+        <v>-0.008728426958006815</v>
       </c>
       <c r="D158">
-        <v>-0.005125927010121194</v>
+        <v>-0.00228314794729448</v>
       </c>
       <c r="E158">
         <v>0.988</v>
@@ -3203,13 +3203,13 @@
         <v>19</v>
       </c>
       <c r="B159">
-        <v>0.01251835335186696</v>
+        <v>0.006301645374815236</v>
       </c>
       <c r="C159">
-        <v>0.03268997823442191</v>
+        <v>0.01645589035182755</v>
       </c>
       <c r="D159">
-        <v>0.008550917257153189</v>
+        <v>0.004304467741832108</v>
       </c>
       <c r="E159">
         <v>0.001</v>
@@ -3220,13 +3220,13 @@
         <v>19</v>
       </c>
       <c r="B160">
-        <v>0.007130428003200383</v>
+        <v>0.003216933440308844</v>
       </c>
       <c r="C160">
-        <v>0.01862014353445056</v>
+        <v>0.008400584421080952</v>
       </c>
       <c r="D160">
-        <v>0.004870584664744371</v>
+        <v>0.002197392172649259</v>
       </c>
       <c r="E160">
         <v>0.012</v>
@@ -3254,13 +3254,13 @@
         <v>19</v>
       </c>
       <c r="B162">
-        <v>-0.007504243537720676</v>
+        <v>-0.003342477993797991</v>
       </c>
       <c r="C162">
-        <v>-0.01959631199236796</v>
+        <v>-0.008728426958006815</v>
       </c>
       <c r="D162">
-        <v>-0.005125927010121194</v>
+        <v>-0.00228314794729448</v>
       </c>
       <c r="E162">
         <v>0.988</v>
@@ -3271,13 +3271,13 @@
         <v>19</v>
       </c>
       <c r="B163">
-        <v>-0.01236836081772471</v>
+        <v>-0.005317843429465818</v>
       </c>
       <c r="C163">
-        <v>-0.03229829311908645</v>
+        <v>-0.01388682529378954</v>
       </c>
       <c r="D163">
-        <v>-0.008448461789361986</v>
+        <v>-0.00363246170432442</v>
       </c>
       <c r="E163">
         <v>0.999</v>
@@ -3288,13 +3288,13 @@
         <v>19</v>
       </c>
       <c r="B164">
-        <v>0.007130428003200383</v>
+        <v>0.003216933440308844</v>
       </c>
       <c r="C164">
-        <v>0.01862014353445056</v>
+        <v>0.008400584421080952</v>
       </c>
       <c r="D164">
-        <v>0.004870584664744371</v>
+        <v>0.002197392172649259</v>
       </c>
       <c r="E164">
         <v>0.012</v>
@@ -3322,13 +3322,13 @@
         <v>19</v>
       </c>
       <c r="B166">
-        <v>-0.007504243537720676</v>
+        <v>-0.003342477993797991</v>
       </c>
       <c r="C166">
-        <v>-0.01959631199236796</v>
+        <v>-0.008728426958006815</v>
       </c>
       <c r="D166">
-        <v>-0.005125927010121194</v>
+        <v>-0.00228314794729448</v>
       </c>
       <c r="E166">
         <v>0.988</v>
@@ -3339,13 +3339,13 @@
         <v>20</v>
       </c>
       <c r="B167">
-        <v>0.006755734163918894</v>
+        <v>0.004525511603959153</v>
       </c>
       <c r="C167">
-        <v>0.01951360969869589</v>
+        <v>0.01307172025776565</v>
       </c>
       <c r="D167">
-        <v>0.004877498823402705</v>
+        <v>0.003267324762643081</v>
       </c>
       <c r="E167">
         <v>0.012</v>
@@ -3373,13 +3373,13 @@
         <v>20</v>
       </c>
       <c r="B169">
-        <v>-0.007108510003327041</v>
+        <v>-0.004647107802191067</v>
       </c>
       <c r="C169">
-        <v>-0.02053258556043215</v>
+        <v>-0.01342294496489155</v>
       </c>
       <c r="D169">
-        <v>-0.00513219560392848</v>
+        <v>-0.003355114675540181</v>
       </c>
       <c r="E169">
         <v>0.988</v>
@@ -3390,13 +3390,13 @@
         <v>20</v>
       </c>
       <c r="B170">
-        <v>0.01186576484216418</v>
+        <v>0.01118983244392703</v>
       </c>
       <c r="C170">
-        <v>0.03427368488581627</v>
+        <v>0.03232128701433874</v>
       </c>
       <c r="D170">
-        <v>0.008566834137069783</v>
+        <v>0.00807882507734251</v>
       </c>
       <c r="E170">
         <v>0.001</v>
@@ -3407,13 +3407,13 @@
         <v>20</v>
       </c>
       <c r="B171">
-        <v>0.006755734163918894</v>
+        <v>0.004525511603959153</v>
       </c>
       <c r="C171">
-        <v>0.01951360969869589</v>
+        <v>0.01307172025776565</v>
       </c>
       <c r="D171">
-        <v>0.004877498823402705</v>
+        <v>0.003267324762643081</v>
       </c>
       <c r="E171">
         <v>0.012</v>
@@ -3441,13 +3441,13 @@
         <v>20</v>
       </c>
       <c r="B173">
-        <v>-0.007108510003327041</v>
+        <v>-0.004647107802191067</v>
       </c>
       <c r="C173">
-        <v>-0.02053258556043215</v>
+        <v>-0.01342294496489155</v>
       </c>
       <c r="D173">
-        <v>-0.00513219560392848</v>
+        <v>-0.003355114675540181</v>
       </c>
       <c r="E173">
         <v>0.988</v>
@@ -3458,13 +3458,13 @@
         <v>20</v>
       </c>
       <c r="B174">
-        <v>-0.01171814669008922</v>
+        <v>-0.009211924016608057</v>
       </c>
       <c r="C174">
-        <v>-0.03384729703008653</v>
+        <v>-0.0266081946791491</v>
       </c>
       <c r="D174">
-        <v>-0.00846025691754212</v>
+        <v>-0.006650816545187602</v>
       </c>
       <c r="E174">
         <v>0.999</v>
@@ -3475,13 +3475,13 @@
         <v>20</v>
       </c>
       <c r="B175">
-        <v>0.006755734163918894</v>
+        <v>0.004525511603959153</v>
       </c>
       <c r="C175">
-        <v>0.01951360969869589</v>
+        <v>0.01307172025776565</v>
       </c>
       <c r="D175">
-        <v>0.004877498823402705</v>
+        <v>0.003267324762643081</v>
       </c>
       <c r="E175">
         <v>0.012</v>
@@ -3509,13 +3509,13 @@
         <v>20</v>
       </c>
       <c r="B177">
-        <v>-0.007108510003327041</v>
+        <v>-0.004647107802191067</v>
       </c>
       <c r="C177">
-        <v>-0.02053258556043215</v>
+        <v>-0.01342294496489155</v>
       </c>
       <c r="D177">
-        <v>-0.00513219560392848</v>
+        <v>-0.003355114675540181</v>
       </c>
       <c r="E177">
         <v>0.988</v>
@@ -3526,13 +3526,13 @@
         <v>21</v>
       </c>
       <c r="B178">
-        <v>0.00690818006115783</v>
+        <v>0.004629886411310037</v>
       </c>
       <c r="C178">
-        <v>0.01918914703658831</v>
+        <v>0.01286063338285945</v>
       </c>
       <c r="D178">
-        <v>0.004117893306622167</v>
+        <v>0.002759826480313126</v>
       </c>
       <c r="E178">
         <v>0.012</v>
@@ -3560,13 +3560,13 @@
         <v>21</v>
       </c>
       <c r="B180">
-        <v>-0.007271969932685395</v>
+        <v>-0.004754707509039039</v>
       </c>
       <c r="C180">
-        <v>-0.02019966171243102</v>
+        <v>-0.01320735428132844</v>
       </c>
       <c r="D180">
-        <v>-0.004334744613872144</v>
+        <v>-0.002834231020772852</v>
       </c>
       <c r="E180">
         <v>0.988</v>
@@ -3577,13 +3577,13 @@
         <v>21</v>
       </c>
       <c r="B181">
-        <v>0.0121220371409942</v>
+        <v>0.01144648014531487</v>
       </c>
       <c r="C181">
-        <v>0.03367190070644105</v>
+        <v>0.03179537716378255</v>
       </c>
       <c r="D181">
-        <v>0.007225818546072912</v>
+        <v>0.006823126142846311</v>
       </c>
       <c r="E181">
         <v>0.001</v>
@@ -3594,13 +3594,13 @@
         <v>21</v>
       </c>
       <c r="B182">
-        <v>0.00690818006115783</v>
+        <v>0.004629886411310037</v>
       </c>
       <c r="C182">
-        <v>0.01918914703658831</v>
+        <v>0.01286063338285945</v>
       </c>
       <c r="D182">
-        <v>0.004117893306622167</v>
+        <v>0.002759826480313126</v>
       </c>
       <c r="E182">
         <v>0.012</v>
@@ -3628,13 +3628,13 @@
         <v>21</v>
       </c>
       <c r="B184">
-        <v>-0.007271969932685395</v>
+        <v>-0.004754707509039039</v>
       </c>
       <c r="C184">
-        <v>-0.02019966171243102</v>
+        <v>-0.01320735428132844</v>
       </c>
       <c r="D184">
-        <v>-0.004334744613872144</v>
+        <v>-0.002834231020772852</v>
       </c>
       <c r="E184">
         <v>0.988</v>
@@ -3645,13 +3645,13 @@
         <v>21</v>
       </c>
       <c r="B185">
-        <v>-0.01198317205720555</v>
+        <v>-0.009423259650983236</v>
       </c>
       <c r="C185">
-        <v>-0.03328616922760318</v>
+        <v>-0.02617539111688419</v>
       </c>
       <c r="D185">
-        <v>-0.007143042533578387</v>
+        <v>-0.005617105735492794</v>
       </c>
       <c r="E185">
         <v>0.999</v>
@@ -3662,13 +3662,13 @@
         <v>21</v>
       </c>
       <c r="B186">
-        <v>0.00690818006115783</v>
+        <v>0.004629886411310037</v>
       </c>
       <c r="C186">
-        <v>0.01918914703658831</v>
+        <v>0.01286063338285945</v>
       </c>
       <c r="D186">
-        <v>0.004117893306622167</v>
+        <v>0.002759826480313126</v>
       </c>
       <c r="E186">
         <v>0.012</v>
@@ -3696,13 +3696,13 @@
         <v>21</v>
       </c>
       <c r="B188">
-        <v>-0.007271969932685395</v>
+        <v>-0.004754707509039039</v>
       </c>
       <c r="C188">
-        <v>-0.02019966171243102</v>
+        <v>-0.01320735428132844</v>
       </c>
       <c r="D188">
-        <v>-0.004334744613872144</v>
+        <v>-0.002834231020772852</v>
       </c>
       <c r="E188">
         <v>0.988</v>
@@ -3713,13 +3713,13 @@
         <v>22</v>
       </c>
       <c r="B189">
-        <v>0.005204442296729899</v>
+        <v>6.545598750635918E-12</v>
       </c>
       <c r="C189">
-        <v>0.005557667106920206</v>
+        <v>6.989847671933021E-12</v>
       </c>
       <c r="D189">
-        <v>-0.005557667106920238</v>
+        <v>-6.989847671933061E-12</v>
       </c>
       <c r="E189">
         <v>0.012</v>
@@ -3747,13 +3747,13 @@
         <v>22</v>
       </c>
       <c r="B191">
-        <v>-0.005711758484869929</v>
+        <v>-4.300518803657678E-12</v>
       </c>
       <c r="C191">
-        <v>-0.006099414777637114</v>
+        <v>-4.59239444595201E-12</v>
       </c>
       <c r="D191">
-        <v>0.00609941477763715</v>
+        <v>4.592394445952037E-12</v>
       </c>
       <c r="E191">
         <v>0.988</v>
@@ -3764,13 +3764,13 @@
         <v>22</v>
       </c>
       <c r="B192">
-        <v>0.01143643399936988</v>
+        <v>5.079186344717549E-07</v>
       </c>
       <c r="C192">
-        <v>0.01221262326199646</v>
+        <v>5.423910050014719E-07</v>
       </c>
       <c r="D192">
-        <v>-0.01221262326199653</v>
+        <v>-5.423910050014751E-07</v>
       </c>
       <c r="E192">
         <v>0.001</v>
@@ -3781,13 +3781,13 @@
         <v>22</v>
       </c>
       <c r="B193">
-        <v>0.005204442296729899</v>
+        <v>6.545598750635918E-12</v>
       </c>
       <c r="C193">
-        <v>0.005557667106920206</v>
+        <v>6.989847671933021E-12</v>
       </c>
       <c r="D193">
-        <v>-0.005557667106920238</v>
+        <v>-6.989847671933061E-12</v>
       </c>
       <c r="E193">
         <v>0.012</v>
@@ -3815,13 +3815,13 @@
         <v>22</v>
       </c>
       <c r="B195">
-        <v>-0.005711758484869929</v>
+        <v>-4.300518803657678E-12</v>
       </c>
       <c r="C195">
-        <v>-0.006099414777637114</v>
+        <v>-4.59239444595201E-12</v>
       </c>
       <c r="D195">
-        <v>0.00609941477763715</v>
+        <v>4.592394445952037E-12</v>
       </c>
       <c r="E195">
         <v>0.988</v>
@@ -3832,13 +3832,13 @@
         <v>22</v>
       </c>
       <c r="B196">
-        <v>-0.009450907207911712</v>
+        <v>-2.864896352206855E-06</v>
       </c>
       <c r="C196">
-        <v>-0.01009233902986473</v>
+        <v>-3.059336488637805E-06</v>
       </c>
       <c r="D196">
-        <v>0.01009233902986479</v>
+        <v>3.059336488637822E-06</v>
       </c>
       <c r="E196">
         <v>0.999</v>
@@ -3849,13 +3849,13 @@
         <v>22</v>
       </c>
       <c r="B197">
-        <v>0.005204442296729899</v>
+        <v>6.545598750635918E-12</v>
       </c>
       <c r="C197">
-        <v>0.005557667106920206</v>
+        <v>6.989847671933021E-12</v>
       </c>
       <c r="D197">
-        <v>-0.005557667106920238</v>
+        <v>-6.989847671933061E-12</v>
       </c>
       <c r="E197">
         <v>0.012</v>
@@ -3883,13 +3883,13 @@
         <v>22</v>
       </c>
       <c r="B199">
-        <v>-0.005711758484869929</v>
+        <v>-4.300518803657678E-12</v>
       </c>
       <c r="C199">
-        <v>-0.006099414777637114</v>
+        <v>-4.59239444595201E-12</v>
       </c>
       <c r="D199">
-        <v>0.00609941477763715</v>
+        <v>4.592394445952037E-12</v>
       </c>
       <c r="E199">
         <v>0.988</v>
@@ -3900,13 +3900,13 @@
         <v>23</v>
       </c>
       <c r="B200">
-        <v>0.004654051816361156</v>
+        <v>5.689846417331528E-12</v>
       </c>
       <c r="C200">
-        <v>0.004966989342184112</v>
+        <v>6.072430567747047E-12</v>
       </c>
       <c r="D200">
-        <v>-0.004966989342183882</v>
+        <v>-6.072430567746766E-12</v>
       </c>
       <c r="E200">
         <v>0.012</v>
@@ -3934,13 +3934,13 @@
         <v>23</v>
       </c>
       <c r="B202">
-        <v>-0.005107717299090411</v>
+        <v>-3.735369576646681E-12</v>
       </c>
       <c r="C202">
-        <v>-0.00545115920245757</v>
+        <v>-3.986535089940021E-12</v>
       </c>
       <c r="D202">
-        <v>0.005451159202457319</v>
+        <v>3.986535089939837E-12</v>
       </c>
       <c r="E202">
         <v>0.988</v>
@@ -3951,13 +3951,13 @@
         <v>23</v>
       </c>
       <c r="B203">
-        <v>0.01022698560053305</v>
+        <v>4.503583955492744E-07</v>
       </c>
       <c r="C203">
-        <v>0.01091464609438637</v>
+        <v>4.806404052040309E-07</v>
       </c>
       <c r="D203">
-        <v>-0.01091464609438586</v>
+        <v>-4.806404052040087E-07</v>
       </c>
       <c r="E203">
         <v>0.001</v>
@@ -3968,13 +3968,13 @@
         <v>23</v>
       </c>
       <c r="B204">
-        <v>0.004654051816361156</v>
+        <v>5.689846417331528E-12</v>
       </c>
       <c r="C204">
-        <v>0.004966989342184112</v>
+        <v>6.072430567747047E-12</v>
       </c>
       <c r="D204">
-        <v>-0.004966989342183882</v>
+        <v>-6.072430567746766E-12</v>
       </c>
       <c r="E204">
         <v>0.012</v>
@@ -4002,13 +4002,13 @@
         <v>23</v>
       </c>
       <c r="B206">
-        <v>-0.005107717299090411</v>
+        <v>-3.735369576646681E-12</v>
       </c>
       <c r="C206">
-        <v>-0.00545115920245757</v>
+        <v>-3.986535089940021E-12</v>
       </c>
       <c r="D206">
-        <v>0.005451159202457319</v>
+        <v>3.986535089939837E-12</v>
       </c>
       <c r="E206">
         <v>0.988</v>
@@ -4019,13 +4019,13 @@
         <v>23</v>
       </c>
       <c r="B207">
-        <v>-0.008451436167306396</v>
+        <v>-2.550368661144071E-06</v>
       </c>
       <c r="C207">
-        <v>-0.009019709067610151</v>
+        <v>-2.721854946696182E-06</v>
       </c>
       <c r="D207">
-        <v>0.009019709067609733</v>
+        <v>2.721854946696056E-06</v>
       </c>
       <c r="E207">
         <v>0.999</v>
@@ -4036,13 +4036,13 @@
         <v>23</v>
       </c>
       <c r="B208">
-        <v>0.004654051816361156</v>
+        <v>5.689846417331528E-12</v>
       </c>
       <c r="C208">
-        <v>0.004966989342184112</v>
+        <v>6.072430567747047E-12</v>
       </c>
       <c r="D208">
-        <v>-0.004966989342183882</v>
+        <v>-6.072430567746766E-12</v>
       </c>
       <c r="E208">
         <v>0.012</v>
@@ -4070,13 +4070,13 @@
         <v>23</v>
       </c>
       <c r="B210">
-        <v>-0.005107717299090411</v>
+        <v>-3.735369576646681E-12</v>
       </c>
       <c r="C210">
-        <v>-0.00545115920245757</v>
+        <v>-3.986535089940021E-12</v>
       </c>
       <c r="D210">
-        <v>0.005451159202457319</v>
+        <v>3.986535089939837E-12</v>
       </c>
       <c r="E210">
         <v>0.988</v>
@@ -4087,13 +4087,13 @@
         <v>24</v>
       </c>
       <c r="B211">
-        <v>0.008424215052623373</v>
+        <v>1.278014782658583E-05</v>
       </c>
       <c r="C211">
-        <v>0.02456908335421462</v>
+        <v>3.72730889785145E-05</v>
       </c>
       <c r="D211">
-        <v>0.006114134694708995</v>
+        <v>9.2755876650733E-06</v>
       </c>
       <c r="E211">
         <v>0.012</v>
@@ -4121,13 +4121,13 @@
         <v>24</v>
       </c>
       <c r="B213">
-        <v>-0.008359353948131944</v>
+        <v>-1.150779563518918E-05</v>
       </c>
       <c r="C213">
-        <v>-0.0243799170196966</v>
+        <v>-3.356229493407622E-05</v>
       </c>
       <c r="D213">
-        <v>-0.006067059741513836</v>
+        <v>-8.35213869935812E-06</v>
       </c>
       <c r="E213">
         <v>0.988</v>
@@ -4138,13 +4138,13 @@
         <v>24</v>
       </c>
       <c r="B214">
-        <v>0.0124444304016232</v>
+        <v>3.209303802372296E-05</v>
       </c>
       <c r="C214">
-        <v>0.03629397468171119</v>
+        <v>9.359881263350276E-05</v>
       </c>
       <c r="D214">
-        <v>0.009031930357803683</v>
+        <v>2.329251520927811E-05</v>
       </c>
       <c r="E214">
         <v>0.001</v>
@@ -4155,13 +4155,13 @@
         <v>24</v>
       </c>
       <c r="B215">
-        <v>0.008424215052623373</v>
+        <v>1.278014782658583E-05</v>
       </c>
       <c r="C215">
-        <v>0.02456908335421462</v>
+        <v>3.72730889785145E-05</v>
       </c>
       <c r="D215">
-        <v>0.006114134694708995</v>
+        <v>9.2755876650733E-06</v>
       </c>
       <c r="E215">
         <v>0.012</v>
@@ -4189,13 +4189,13 @@
         <v>24</v>
       </c>
       <c r="B217">
-        <v>-0.008359353948131944</v>
+        <v>-1.150779563518918E-05</v>
       </c>
       <c r="C217">
-        <v>-0.0243799170196966</v>
+        <v>-3.356229493407622E-05</v>
       </c>
       <c r="D217">
-        <v>-0.006067059741513836</v>
+        <v>-8.35213869935812E-06</v>
       </c>
       <c r="E217">
         <v>0.988</v>
@@ -4206,13 +4206,13 @@
         <v>24</v>
       </c>
       <c r="B218">
-        <v>-0.01467222979747479</v>
+        <v>-2.856117201963263E-05</v>
       </c>
       <c r="C218">
-        <v>-0.04279131463697523</v>
+        <v>-8.329818406355787E-05</v>
       </c>
       <c r="D218">
-        <v>-0.01064882469085923</v>
+        <v>-2.07291541913341E-05</v>
       </c>
       <c r="E218">
         <v>0.999</v>
@@ -4223,13 +4223,13 @@
         <v>24</v>
       </c>
       <c r="B219">
-        <v>0.008424215052623373</v>
+        <v>1.278014782658583E-05</v>
       </c>
       <c r="C219">
-        <v>0.02456908335421462</v>
+        <v>3.72730889785145E-05</v>
       </c>
       <c r="D219">
-        <v>0.006114134694708995</v>
+        <v>9.2755876650733E-06</v>
       </c>
       <c r="E219">
         <v>0.012</v>
@@ -4257,13 +4257,13 @@
         <v>24</v>
       </c>
       <c r="B221">
-        <v>-0.008359353948131944</v>
+        <v>-1.150779563518918E-05</v>
       </c>
       <c r="C221">
-        <v>-0.0243799170196966</v>
+        <v>-3.356229493407622E-05</v>
       </c>
       <c r="D221">
-        <v>-0.006067059741513836</v>
+        <v>-8.35213869935812E-06</v>
       </c>
       <c r="E221">
         <v>0.988</v>
@@ -4274,13 +4274,13 @@
         <v>25</v>
       </c>
       <c r="B222">
-        <v>0.008125609440560747</v>
+        <v>1.248351153234353E-05</v>
       </c>
       <c r="C222">
-        <v>0.02512565430256141</v>
+        <v>3.860096864587388E-05</v>
       </c>
       <c r="D222">
-        <v>0.006941017331364218</v>
+        <v>1.06636025932723E-05</v>
       </c>
       <c r="E222">
         <v>0.012</v>
@@ -4308,13 +4308,13 @@
         <v>25</v>
       </c>
       <c r="B224">
-        <v>-0.008063047409595426</v>
+        <v>-1.123991302592545E-05</v>
       </c>
       <c r="C224">
-        <v>-0.02493220272529826</v>
+        <v>-3.475556770801068E-05</v>
       </c>
       <c r="D224">
-        <v>-0.006887575907137252</v>
+        <v>-9.601302116065162E-06</v>
       </c>
       <c r="E224">
         <v>0.988</v>
@@ -4325,13 +4325,13 @@
         <v>25</v>
       </c>
       <c r="B225">
-        <v>0.01200332381381236</v>
+        <v>3.112234743940796E-05</v>
       </c>
       <c r="C225">
-        <v>0.03711615317395067</v>
+        <v>9.62351622443729E-05</v>
       </c>
       <c r="D225">
-        <v>0.01025341904937765</v>
+        <v>2.65851754935888E-05</v>
       </c>
       <c r="E225">
         <v>0.001</v>
@@ -4342,13 +4342,13 @@
         <v>25</v>
       </c>
       <c r="B226">
-        <v>0.008125609440560747</v>
+        <v>1.248351153234353E-05</v>
       </c>
       <c r="C226">
-        <v>0.02512565430256141</v>
+        <v>3.860096864587388E-05</v>
       </c>
       <c r="D226">
-        <v>0.006941017331364218</v>
+        <v>1.06636025932723E-05</v>
       </c>
       <c r="E226">
         <v>0.012</v>
@@ -4376,13 +4376,13 @@
         <v>25</v>
       </c>
       <c r="B228">
-        <v>-0.008063047409595426</v>
+        <v>-1.123991302592545E-05</v>
       </c>
       <c r="C228">
-        <v>-0.02493220272529826</v>
+        <v>-3.475556770801068E-05</v>
       </c>
       <c r="D228">
-        <v>-0.006887575907137252</v>
+        <v>-9.601302116065162E-06</v>
       </c>
       <c r="E228">
         <v>0.988</v>
@@ -4393,13 +4393,13 @@
         <v>25</v>
       </c>
       <c r="B229">
-        <v>-0.01415215639815741</v>
+        <v>-2.766844895111806E-05</v>
       </c>
       <c r="C229">
-        <v>-0.04376067935543639</v>
+        <v>-8.555516832542786E-05</v>
       </c>
       <c r="D229">
-        <v>-0.01208898403920934</v>
+        <v>-2.363480365460728E-05</v>
       </c>
       <c r="E229">
         <v>0.999</v>
@@ -4410,13 +4410,13 @@
         <v>25</v>
       </c>
       <c r="B230">
-        <v>0.008125609440560747</v>
+        <v>1.248351153234353E-05</v>
       </c>
       <c r="C230">
-        <v>0.02512565430256141</v>
+        <v>3.860096864587388E-05</v>
       </c>
       <c r="D230">
-        <v>0.006941017331364218</v>
+        <v>1.06636025932723E-05</v>
       </c>
       <c r="E230">
         <v>0.012</v>
@@ -4444,13 +4444,13 @@
         <v>25</v>
       </c>
       <c r="B232">
-        <v>-0.008063047409595426</v>
+        <v>-1.123991302592545E-05</v>
       </c>
       <c r="C232">
-        <v>-0.02493220272529826</v>
+        <v>-3.475556770801068E-05</v>
       </c>
       <c r="D232">
-        <v>-0.006887575907137252</v>
+        <v>-9.601302116065162E-06</v>
       </c>
       <c r="E232">
         <v>0.988</v>
@@ -4461,13 +4461,13 @@
         <v>26</v>
       </c>
       <c r="B233">
-        <v>0.008162745833423819</v>
+        <v>1.238056890900825E-05</v>
       </c>
       <c r="C233">
-        <v>0.02396238249715426</v>
+        <v>3.634413392063143E-05</v>
       </c>
       <c r="D233">
-        <v>0.005659799821240742</v>
+        <v>8.584310124069175E-06</v>
       </c>
       <c r="E233">
         <v>0.012</v>
@@ -4495,13 +4495,13 @@
         <v>26</v>
       </c>
       <c r="B235">
-        <v>-0.00809989787582404</v>
+        <v>-1.114847537713748E-05</v>
       </c>
       <c r="C235">
-        <v>-0.02377788737383384</v>
+        <v>-3.272722643809459E-05</v>
       </c>
       <c r="D235">
-        <v>-0.005616222957958773</v>
+        <v>-7.730013923533296E-06</v>
       </c>
       <c r="E235">
         <v>0.988</v>
@@ -4512,13 +4512,13 @@
         <v>26</v>
       </c>
       <c r="B236">
-        <v>0.01205818248651539</v>
+        <v>3.112432263557E-05</v>
       </c>
       <c r="C236">
-        <v>0.03539774321763649</v>
+        <v>9.136789741810908E-05</v>
       </c>
       <c r="D236">
-        <v>0.0083607771789511</v>
+        <v>2.158065916590594E-05</v>
       </c>
       <c r="E236">
         <v>0.001</v>
@@ -4529,13 +4529,13 @@
         <v>26</v>
       </c>
       <c r="B237">
-        <v>0.008162745833423819</v>
+        <v>1.238056890900825E-05</v>
       </c>
       <c r="C237">
-        <v>0.02396238249715426</v>
+        <v>3.634413392063143E-05</v>
       </c>
       <c r="D237">
-        <v>0.005659799821240742</v>
+        <v>8.584310124069175E-06</v>
       </c>
       <c r="E237">
         <v>0.012</v>
@@ -4563,13 +4563,13 @@
         <v>26</v>
       </c>
       <c r="B239">
-        <v>-0.00809989787582404</v>
+        <v>-1.114847537713748E-05</v>
       </c>
       <c r="C239">
-        <v>-0.02377788737383384</v>
+        <v>-3.272722643809459E-05</v>
       </c>
       <c r="D239">
-        <v>-0.005616222957958773</v>
+        <v>-7.730013923533296E-06</v>
       </c>
       <c r="E239">
         <v>0.988</v>
@@ -4580,13 +4580,13 @@
         <v>26</v>
       </c>
       <c r="B240">
-        <v>-0.01421683585927428</v>
+        <v>-2.770307552117625E-05</v>
       </c>
       <c r="C240">
-        <v>-0.04173463999874381</v>
+        <v>-8.132455738947542E-05</v>
       </c>
       <c r="D240">
-        <v>-0.009857521806627065</v>
+        <v>-1.920847041942084E-05</v>
       </c>
       <c r="E240">
         <v>0.999</v>
@@ -4597,13 +4597,13 @@
         <v>26</v>
       </c>
       <c r="B241">
-        <v>0.008162745833423819</v>
+        <v>1.238056890900825E-05</v>
       </c>
       <c r="C241">
-        <v>0.02396238249715426</v>
+        <v>3.634413392063143E-05</v>
       </c>
       <c r="D241">
-        <v>0.005659799821240742</v>
+        <v>8.584310124069175E-06</v>
       </c>
       <c r="E241">
         <v>0.012</v>
@@ -4631,13 +4631,13 @@
         <v>26</v>
       </c>
       <c r="B243">
-        <v>-0.00809989787582404</v>
+        <v>-1.114847537713748E-05</v>
       </c>
       <c r="C243">
-        <v>-0.02377788737383384</v>
+        <v>-3.272722643809459E-05</v>
       </c>
       <c r="D243">
-        <v>-0.005616222957958773</v>
+        <v>-7.730013923533296E-06</v>
       </c>
       <c r="E243">
         <v>0.988</v>
@@ -4648,13 +4648,13 @@
         <v>27</v>
       </c>
       <c r="B244">
-        <v>0.01173607401536641</v>
+        <v>6.377516241550258E-06</v>
       </c>
       <c r="C244">
-        <v>0.02428974731666914</v>
+        <v>1.319932524389187E-05</v>
       </c>
       <c r="D244">
-        <v>0.001478516881701014</v>
+        <v>8.03442907236988E-07</v>
       </c>
       <c r="E244">
         <v>0.012</v>
@@ -4682,13 +4682,13 @@
         <v>27</v>
       </c>
       <c r="B246">
-        <v>-0.01439587744666847</v>
+        <v>-6.252891680554225E-06</v>
       </c>
       <c r="C246">
-        <v>-0.02979465067478924</v>
+        <v>-1.294139409143995E-05</v>
       </c>
       <c r="D246">
-        <v>-0.001813600340618992</v>
+        <v>-7.87742638385074E-07</v>
       </c>
       <c r="E246">
         <v>0.988</v>
@@ -4699,13 +4699,13 @@
         <v>27</v>
       </c>
       <c r="B247">
-        <v>0.02591171190985648</v>
+        <v>3.142215469233628E-05</v>
       </c>
       <c r="C247">
-        <v>0.05362857579192681</v>
+        <v>6.503334902479389E-05</v>
       </c>
       <c r="D247">
-        <v>0.00326437132573758</v>
+        <v>3.958579854831416E-06</v>
       </c>
       <c r="E247">
         <v>0.001</v>
@@ -4716,13 +4716,13 @@
         <v>27</v>
       </c>
       <c r="B248">
-        <v>0.01173607401536641</v>
+        <v>6.377516241550258E-06</v>
       </c>
       <c r="C248">
-        <v>0.02428974731666914</v>
+        <v>1.319932524389187E-05</v>
       </c>
       <c r="D248">
-        <v>0.001478516881701014</v>
+        <v>8.03442907236988E-07</v>
       </c>
       <c r="E248">
         <v>0.012</v>
@@ -4750,13 +4750,13 @@
         <v>27</v>
       </c>
       <c r="B250">
-        <v>-0.01439587744666847</v>
+        <v>-6.252891680554225E-06</v>
       </c>
       <c r="C250">
-        <v>-0.02979465067478924</v>
+        <v>-1.294139409143995E-05</v>
       </c>
       <c r="D250">
-        <v>-0.001813600340618992</v>
+        <v>-7.87742638385074E-07</v>
       </c>
       <c r="E250">
         <v>0.988</v>
@@ -4767,13 +4767,13 @@
         <v>27</v>
       </c>
       <c r="B251">
-        <v>-0.02240769884306177</v>
+        <v>-2.848369902534644E-05</v>
       </c>
       <c r="C251">
-        <v>-0.04637644088929146</v>
+        <v>-5.895172875220828E-05</v>
       </c>
       <c r="D251">
-        <v>-0.002822933885399899</v>
+        <v>-3.588391638219454E-06</v>
       </c>
       <c r="E251">
         <v>0.999</v>
@@ -4784,13 +4784,13 @@
         <v>27</v>
       </c>
       <c r="B252">
-        <v>0.01173607401536641</v>
+        <v>6.377516241550258E-06</v>
       </c>
       <c r="C252">
-        <v>0.02428974731666914</v>
+        <v>1.319932524389187E-05</v>
       </c>
       <c r="D252">
-        <v>0.001478516881701014</v>
+        <v>8.03442907236988E-07</v>
       </c>
       <c r="E252">
         <v>0.012</v>
@@ -4818,13 +4818,13 @@
         <v>27</v>
       </c>
       <c r="B254">
-        <v>-0.01439587744666847</v>
+        <v>-6.252891680554225E-06</v>
       </c>
       <c r="C254">
-        <v>-0.02979465067478924</v>
+        <v>-1.294139409143995E-05</v>
       </c>
       <c r="D254">
-        <v>-0.001813600340618992</v>
+        <v>-7.87742638385074E-07</v>
       </c>
       <c r="E254">
         <v>0.988</v>
@@ -4835,13 +4835,13 @@
         <v>28</v>
       </c>
       <c r="B255">
-        <v>-0.0003941876250873864</v>
+        <v>-2.854681744941506E-07</v>
       </c>
       <c r="C255">
-        <v>0.02642992730531414</v>
+        <v>1.91403854907635E-05</v>
       </c>
       <c r="D255">
-        <v>0.01447346880853999</v>
+        <v>1.048159418615942E-05</v>
       </c>
       <c r="E255">
         <v>0.012</v>
@@ -4869,13 +4869,13 @@
         <v>28</v>
       </c>
       <c r="B257">
-        <v>0.0004855128150654346</v>
+        <v>2.770544370575907E-07</v>
       </c>
       <c r="C257">
-        <v>-0.03255319952049016</v>
+        <v>-1.857625192932818E-05</v>
       </c>
       <c r="D257">
-        <v>-0.01782667475529756</v>
+        <v>-1.017266524318639E-05</v>
       </c>
       <c r="E257">
         <v>0.988</v>
@@ -4886,13 +4886,13 @@
         <v>28</v>
       </c>
       <c r="B258">
-        <v>-0.0008607574310701113</v>
+        <v>-1.204621302735113E-06</v>
       </c>
       <c r="C258">
-        <v>0.05771301502843641</v>
+        <v>8.07687797268211E-05</v>
       </c>
       <c r="D258">
-        <v>0.03160460916942902</v>
+        <v>4.42303302833881E-05</v>
       </c>
       <c r="E258">
         <v>0.001</v>
@@ -4903,13 +4903,13 @@
         <v>28</v>
       </c>
       <c r="B259">
-        <v>-0.0003941876250873864</v>
+        <v>-2.854681744941506E-07</v>
       </c>
       <c r="C259">
-        <v>0.02642992730531414</v>
+        <v>1.91403854907635E-05</v>
       </c>
       <c r="D259">
-        <v>0.01447346880853999</v>
+        <v>1.048159418615942E-05</v>
       </c>
       <c r="E259">
         <v>0.012</v>
@@ -4937,13 +4937,13 @@
         <v>28</v>
       </c>
       <c r="B261">
-        <v>0.0004855128150654346</v>
+        <v>2.770544370575907E-07</v>
       </c>
       <c r="C261">
-        <v>-0.03255319952049016</v>
+        <v>-1.857625192932818E-05</v>
       </c>
       <c r="D261">
-        <v>-0.01782667475529756</v>
+        <v>-1.017266524318639E-05</v>
       </c>
       <c r="E261">
         <v>0.988</v>
@@ -4954,13 +4954,13 @@
         <v>28</v>
       </c>
       <c r="B262">
-        <v>0.0007406247198059586</v>
+        <v>1.072108991088443E-06</v>
       </c>
       <c r="C262">
-        <v>-0.04965822430536901</v>
+        <v>-7.188394788283765E-05</v>
       </c>
       <c r="D262">
-        <v>-0.02719367148719814</v>
+        <v>-3.936484824563912E-05</v>
       </c>
       <c r="E262">
         <v>0.999</v>
@@ -4971,13 +4971,13 @@
         <v>28</v>
       </c>
       <c r="B263">
-        <v>-0.0003941876250873864</v>
+        <v>-2.854681744941506E-07</v>
       </c>
       <c r="C263">
-        <v>0.02642992730531414</v>
+        <v>1.91403854907635E-05</v>
       </c>
       <c r="D263">
-        <v>0.01447346880853999</v>
+        <v>1.048159418615942E-05</v>
       </c>
       <c r="E263">
         <v>0.012</v>
@@ -5005,13 +5005,13 @@
         <v>28</v>
       </c>
       <c r="B265">
-        <v>0.0004855128150654346</v>
+        <v>2.770544370575907E-07</v>
       </c>
       <c r="C265">
-        <v>-0.03255319952049016</v>
+        <v>-1.857625192932818E-05</v>
       </c>
       <c r="D265">
-        <v>-0.01782667475529756</v>
+        <v>-1.017266524318639E-05</v>
       </c>
       <c r="E265">
         <v>0.988</v>
@@ -5022,13 +5022,13 @@
         <v>29</v>
       </c>
       <c r="B266">
-        <v>0.01010113293735937</v>
+        <v>5.268145522785864E-06</v>
       </c>
       <c r="C266">
-        <v>0.02374558781620889</v>
+        <v>1.238427539916941E-05</v>
       </c>
       <c r="D266">
-        <v>-0.0001160100265571191</v>
+        <v>-6.050387672305248E-08</v>
       </c>
       <c r="E266">
         <v>0.012</v>
@@ -5056,13 +5056,13 @@
         <v>29</v>
       </c>
       <c r="B268">
-        <v>-0.01237207095437451</v>
+        <v>-5.168719555323116E-06</v>
       </c>
       <c r="C268">
-        <v>-0.02908407394866618</v>
+        <v>-1.215054636538289E-05</v>
       </c>
       <c r="D268">
-        <v>0.0001420914157732846</v>
+        <v>5.936198410592236E-08</v>
       </c>
       <c r="E268">
         <v>0.988</v>
@@ -5073,13 +5073,13 @@
         <v>29</v>
       </c>
       <c r="B269">
-        <v>0.02223128478293167</v>
+        <v>2.640337487475203E-05</v>
       </c>
       <c r="C269">
-        <v>0.05226096204791206</v>
+        <v>6.206864721222136E-05</v>
       </c>
       <c r="D269">
-        <v>-0.0002553230369365869</v>
+        <v>-3.032388781944194E-07</v>
       </c>
       <c r="E269">
         <v>0.001</v>
@@ -5090,13 +5090,13 @@
         <v>29</v>
       </c>
       <c r="B270">
-        <v>0.01010113293735937</v>
+        <v>5.268145522785864E-06</v>
       </c>
       <c r="C270">
-        <v>0.02374558781620889</v>
+        <v>1.238427539916941E-05</v>
       </c>
       <c r="D270">
-        <v>-0.0001160100265571191</v>
+        <v>-6.050387672305248E-08</v>
       </c>
       <c r="E270">
         <v>0.012</v>
@@ -5124,13 +5124,13 @@
         <v>29</v>
       </c>
       <c r="B272">
-        <v>-0.01237207095437451</v>
+        <v>-5.168719555323116E-06</v>
       </c>
       <c r="C272">
-        <v>-0.02908407394866618</v>
+        <v>-1.215054636538289E-05</v>
       </c>
       <c r="D272">
-        <v>0.0001420914157732846</v>
+        <v>5.936198410592236E-08</v>
       </c>
       <c r="E272">
         <v>0.988</v>
@@ -5141,13 +5141,13 @@
         <v>29</v>
       </c>
       <c r="B273">
-        <v>-0.01919466456705799</v>
+        <v>-2.398391302398828E-05</v>
       </c>
       <c r="C273">
-        <v>-0.04512252198899391</v>
+        <v>-5.638101353770634E-05</v>
       </c>
       <c r="D273">
-        <v>0.0002204479002492479</v>
+        <v>2.754517145859762E-07</v>
       </c>
       <c r="E273">
         <v>0.999</v>
@@ -5158,13 +5158,13 @@
         <v>29</v>
       </c>
       <c r="B274">
-        <v>0.01010113293735937</v>
+        <v>5.268145522785864E-06</v>
       </c>
       <c r="C274">
-        <v>0.02374558781620889</v>
+        <v>1.238427539916941E-05</v>
       </c>
       <c r="D274">
-        <v>-0.0001160100265571191</v>
+        <v>-6.050387672305248E-08</v>
       </c>
       <c r="E274">
         <v>0.012</v>
@@ -5192,13 +5192,13 @@
         <v>29</v>
       </c>
       <c r="B276">
-        <v>-0.01237207095437451</v>
+        <v>-5.168719555323116E-06</v>
       </c>
       <c r="C276">
-        <v>-0.02908407394866618</v>
+        <v>-1.215054636538289E-05</v>
       </c>
       <c r="D276">
-        <v>0.0001420914157732846</v>
+        <v>5.936198410592236E-08</v>
       </c>
       <c r="E276">
         <v>0.988</v>
@@ -5209,13 +5209,13 @@
         <v>30</v>
       </c>
       <c r="B277">
-        <v>0.02043316097597164</v>
+        <v>0.01422429224124051</v>
       </c>
       <c r="C277">
-        <v>0.04141457743846565</v>
+        <v>0.02883024575712808</v>
       </c>
       <c r="D277">
-        <v>-0.01281709434035645</v>
+        <v>-0.008922461668812385</v>
       </c>
       <c r="E277">
         <v>0.012</v>
@@ -5243,13 +5243,13 @@
         <v>30</v>
       </c>
       <c r="B279">
-        <v>-0.02166137888621723</v>
+        <v>-0.01320023512185299</v>
       </c>
       <c r="C279">
-        <v>-0.04390396837582441</v>
+        <v>-0.02675465437299716</v>
       </c>
       <c r="D279">
-        <v>0.01358751771462758</v>
+        <v>0.008280102088493975</v>
       </c>
       <c r="E279">
         <v>0.988</v>
@@ -5260,13 +5260,13 @@
         <v>30</v>
       </c>
       <c r="B280">
-        <v>0.04085890415901303</v>
+        <v>0.02036703117757908</v>
       </c>
       <c r="C280">
-        <v>0.08281412025942433</v>
+        <v>0.04128054346987219</v>
       </c>
       <c r="D280">
-        <v>-0.0256295357270218</v>
+        <v>-0.01277561314879227</v>
       </c>
       <c r="E280">
         <v>0.001</v>
@@ -5277,13 +5277,13 @@
         <v>30</v>
       </c>
       <c r="B281">
-        <v>0.02043316097597164</v>
+        <v>0.01422429224124051</v>
       </c>
       <c r="C281">
-        <v>0.04141457743846565</v>
+        <v>0.02883024575712808</v>
       </c>
       <c r="D281">
-        <v>-0.01281709434035645</v>
+        <v>-0.008922461668812385</v>
       </c>
       <c r="E281">
         <v>0.012</v>
@@ -5311,13 +5311,13 @@
         <v>30</v>
       </c>
       <c r="B283">
-        <v>-0.02166137888621723</v>
+        <v>-0.01320023512185299</v>
       </c>
       <c r="C283">
-        <v>-0.04390396837582441</v>
+        <v>-0.02675465437299716</v>
       </c>
       <c r="D283">
-        <v>0.01358751771462758</v>
+        <v>0.008280102088493975</v>
       </c>
       <c r="E283">
         <v>0.988</v>
@@ -5328,13 +5328,13 @@
         <v>30</v>
       </c>
       <c r="B284">
-        <v>-0.03526424782534045</v>
+        <v>-0.01881890666890296</v>
       </c>
       <c r="C284">
-        <v>-0.0714746937142631</v>
+        <v>-0.03814275571278703</v>
       </c>
       <c r="D284">
-        <v>0.02212017963107177</v>
+        <v>0.01180452219024437</v>
       </c>
       <c r="E284">
         <v>0.999</v>
@@ -5345,13 +5345,13 @@
         <v>30</v>
       </c>
       <c r="B285">
-        <v>0.02043316097597164</v>
+        <v>0.01422429224124051</v>
       </c>
       <c r="C285">
-        <v>0.04141457743846565</v>
+        <v>0.02883024575712808</v>
       </c>
       <c r="D285">
-        <v>-0.01281709434035645</v>
+        <v>-0.008922461668812385</v>
       </c>
       <c r="E285">
         <v>0.012</v>
@@ -5379,13 +5379,13 @@
         <v>30</v>
       </c>
       <c r="B287">
-        <v>-0.02166137888621723</v>
+        <v>-0.01320023512185299</v>
       </c>
       <c r="C287">
-        <v>-0.04390396837582441</v>
+        <v>-0.02675465437299716</v>
       </c>
       <c r="D287">
-        <v>0.01358751771462758</v>
+        <v>0.008280102088493975</v>
       </c>
       <c r="E287">
         <v>0.988</v>
@@ -5396,13 +5396,13 @@
         <v>31</v>
       </c>
       <c r="B288">
-        <v>0.00232519087766004</v>
+        <v>0.001709119089834222</v>
       </c>
       <c r="C288">
-        <v>0.02429245692262375</v>
+        <v>0.01785604023494801</v>
       </c>
       <c r="D288">
-        <v>0.001011242520045205</v>
+        <v>0.0007433083933309757</v>
       </c>
       <c r="E288">
         <v>0.012</v>
@@ -5430,13 +5430,13 @@
         <v>31</v>
       </c>
       <c r="B290">
-        <v>-0.002469832760523825</v>
+        <v>-0.001585715186538818</v>
       </c>
       <c r="C290">
-        <v>-0.02580360456320442</v>
+        <v>-0.0165667766163396</v>
       </c>
       <c r="D290">
-        <v>-0.001074148332869679</v>
+        <v>-0.000689639133163637</v>
       </c>
       <c r="E290">
         <v>0.988</v>
@@ -5447,13 +5447,13 @@
         <v>31</v>
       </c>
       <c r="B291">
-        <v>0.003982686788470152</v>
+        <v>0.002447038976397019</v>
       </c>
       <c r="C291">
-        <v>0.04160916343460699</v>
+        <v>0.02556546625622756</v>
       </c>
       <c r="D291">
-        <v>0.001732099615226576</v>
+        <v>0.001064235149430325</v>
       </c>
       <c r="E291">
         <v>0.001</v>
@@ -5464,13 +5464,13 @@
         <v>31</v>
       </c>
       <c r="B292">
-        <v>0.00232519087766004</v>
+        <v>0.001709119089834222</v>
       </c>
       <c r="C292">
-        <v>0.02429245692262375</v>
+        <v>0.01785604023494801</v>
       </c>
       <c r="D292">
-        <v>0.001011242520045205</v>
+        <v>0.0007433083933309757</v>
       </c>
       <c r="E292">
         <v>0.012</v>
@@ -5498,13 +5498,13 @@
         <v>31</v>
       </c>
       <c r="B294">
-        <v>-0.002469832760523825</v>
+        <v>-0.001585715186538818</v>
       </c>
       <c r="C294">
-        <v>-0.02580360456320442</v>
+        <v>-0.0165667766163396</v>
       </c>
       <c r="D294">
-        <v>-0.001074148332869679</v>
+        <v>-0.000689639133163637</v>
       </c>
       <c r="E294">
         <v>0.988</v>
@@ -5515,13 +5515,13 @@
         <v>31</v>
       </c>
       <c r="B295">
-        <v>-0.004037897125723545</v>
+        <v>-0.002260809337727302</v>
       </c>
       <c r="C295">
-        <v>-0.04218597403209277</v>
+        <v>-0.02361983008563816</v>
       </c>
       <c r="D295">
-        <v>-0.001756110994727967</v>
+        <v>-0.0009832425174168223</v>
       </c>
       <c r="E295">
         <v>0.999</v>
@@ -5532,13 +5532,13 @@
         <v>31</v>
       </c>
       <c r="B296">
-        <v>0.00232519087766004</v>
+        <v>0.001709119089834222</v>
       </c>
       <c r="C296">
-        <v>0.02429245692262375</v>
+        <v>0.01785604023494801</v>
       </c>
       <c r="D296">
-        <v>0.001011242520045205</v>
+        <v>0.0007433083933309757</v>
       </c>
       <c r="E296">
         <v>0.012</v>
@@ -5566,13 +5566,13 @@
         <v>31</v>
       </c>
       <c r="B298">
-        <v>-0.002469832760523825</v>
+        <v>-0.001585715186538818</v>
       </c>
       <c r="C298">
-        <v>-0.02580360456320442</v>
+        <v>-0.0165667766163396</v>
       </c>
       <c r="D298">
-        <v>-0.001074148332869679</v>
+        <v>-0.000689639133163637</v>
       </c>
       <c r="E298">
         <v>0.988</v>
@@ -5583,13 +5583,13 @@
         <v>32</v>
       </c>
       <c r="B299">
-        <v>0.007879998799767356</v>
+        <v>0.005635239275531426</v>
       </c>
       <c r="C299">
-        <v>0.0294465535183539</v>
+        <v>0.0210581726129914</v>
       </c>
       <c r="D299">
-        <v>-0.003146831201880607</v>
+        <v>-0.002250399680622908</v>
       </c>
       <c r="E299">
         <v>0.012</v>
@@ -5617,13 +5617,13 @@
         <v>32</v>
       </c>
       <c r="B301">
-        <v>-0.008408609939381638</v>
+        <v>-0.005228721924965988</v>
       </c>
       <c r="C301">
-        <v>-0.03142190613052809</v>
+        <v>-0.01953906896542256</v>
       </c>
       <c r="D301">
-        <v>0.00335792895329765</v>
+        <v>0.00208805936619254</v>
       </c>
       <c r="E301">
         <v>0.988</v>
@@ -5634,13 +5634,13 @@
         <v>32</v>
       </c>
       <c r="B302">
-        <v>0.01328367945055076</v>
+        <v>0.008068448660250133</v>
       </c>
       <c r="C302">
-        <v>0.04963942099494344</v>
+        <v>0.03015076668427421</v>
       </c>
       <c r="D302">
-        <v>-0.005304759306817088</v>
+        <v>-0.003222087545951974</v>
       </c>
       <c r="E302">
         <v>0.001</v>
@@ -5651,13 +5651,13 @@
         <v>32</v>
       </c>
       <c r="B303">
-        <v>0.007879998799767356</v>
+        <v>0.005635239275531426</v>
       </c>
       <c r="C303">
-        <v>0.0294465535183539</v>
+        <v>0.0210581726129914</v>
       </c>
       <c r="D303">
-        <v>-0.003146831201880607</v>
+        <v>-0.002250399680622908</v>
       </c>
       <c r="E303">
         <v>0.012</v>
@@ -5685,13 +5685,13 @@
         <v>32</v>
       </c>
       <c r="B305">
-        <v>-0.008408609939381638</v>
+        <v>-0.005228721924965988</v>
       </c>
       <c r="C305">
-        <v>-0.03142190613052809</v>
+        <v>-0.01953906896542256</v>
       </c>
       <c r="D305">
-        <v>0.00335792895329765</v>
+        <v>0.00208805936619254</v>
       </c>
       <c r="E305">
         <v>0.988</v>
@@ -5702,13 +5702,13 @@
         <v>32</v>
       </c>
       <c r="B306">
-        <v>-0.01369260945229201</v>
+        <v>-0.007454635564615663</v>
       </c>
       <c r="C306">
-        <v>-0.051167540413171</v>
+        <v>-0.02785702519647087</v>
       </c>
       <c r="D306">
-        <v>0.005468063099312901</v>
+        <v>0.002976964894217242</v>
       </c>
       <c r="E306">
         <v>0.999</v>
@@ -5719,13 +5719,13 @@
         <v>32</v>
       </c>
       <c r="B307">
-        <v>0.007879998799767356</v>
+        <v>0.005635239275531426</v>
       </c>
       <c r="C307">
-        <v>0.0294465535183539</v>
+        <v>0.0210581726129914</v>
       </c>
       <c r="D307">
-        <v>-0.003146831201880607</v>
+        <v>-0.002250399680622908</v>
       </c>
       <c r="E307">
         <v>0.012</v>
@@ -5753,13 +5753,13 @@
         <v>32</v>
       </c>
       <c r="B309">
-        <v>-0.008408609939381638</v>
+        <v>-0.005228721924965988</v>
       </c>
       <c r="C309">
-        <v>-0.03142190613052809</v>
+        <v>-0.01953906896542256</v>
       </c>
       <c r="D309">
-        <v>0.00335792895329765</v>
+        <v>0.00208805936619254</v>
       </c>
       <c r="E309">
         <v>0.988</v>
@@ -5770,13 +5770,13 @@
         <v>33</v>
       </c>
       <c r="B310">
-        <v>0.006150500469413917</v>
+        <v>0.004356572051575793</v>
       </c>
       <c r="C310">
-        <v>0.03282467502454564</v>
+        <v>0.02325063830579957</v>
       </c>
       <c r="D310">
-        <v>-0.002123542015727372</v>
+        <v>-0.001504164391511112</v>
       </c>
       <c r="E310">
         <v>0.012</v>
@@ -5804,13 +5804,13 @@
         <v>33</v>
       </c>
       <c r="B312">
-        <v>-0.006433053806715688</v>
+        <v>-0.00404222955073052</v>
       </c>
       <c r="C312">
-        <v>-0.03433263710342916</v>
+        <v>-0.02157302028301251</v>
       </c>
       <c r="D312">
-        <v>0.002221097310036857</v>
+        <v>0.001395633466069631</v>
       </c>
       <c r="E312">
         <v>0.988</v>
@@ -5821,13 +5821,13 @@
         <v>33</v>
       </c>
       <c r="B313">
-        <v>0.01055064257124747</v>
+        <v>0.00623764376537712</v>
       </c>
       <c r="C313">
-        <v>0.05630784282085189</v>
+        <v>0.03328975105937968</v>
       </c>
       <c r="D313">
-        <v>-0.003642749546054554</v>
+        <v>-0.00215362939663029</v>
       </c>
       <c r="E313">
         <v>0.001</v>
@@ -5838,13 +5838,13 @@
         <v>33</v>
       </c>
       <c r="B314">
-        <v>0.006150500469413917</v>
+        <v>0.004356572051575793</v>
       </c>
       <c r="C314">
-        <v>0.03282467502454564</v>
+        <v>0.02325063830579957</v>
       </c>
       <c r="D314">
-        <v>-0.002123542015727372</v>
+        <v>-0.001504164391511112</v>
       </c>
       <c r="E314">
         <v>0.012</v>
@@ -5872,13 +5872,13 @@
         <v>33</v>
       </c>
       <c r="B316">
-        <v>-0.006433053806715688</v>
+        <v>-0.00404222955073052</v>
       </c>
       <c r="C316">
-        <v>-0.03433263710342916</v>
+        <v>-0.02157302028301251</v>
       </c>
       <c r="D316">
-        <v>0.002221097310036857</v>
+        <v>0.001395633466069631</v>
       </c>
       <c r="E316">
         <v>0.988</v>
@@ -5889,13 +5889,13 @@
         <v>33</v>
       </c>
       <c r="B317">
-        <v>-0.01068021899998213</v>
+        <v>-0.005763068179157585</v>
       </c>
       <c r="C317">
-        <v>-0.0569993807184926</v>
+        <v>-0.03075698328386175</v>
       </c>
       <c r="D317">
-        <v>0.00368748752990389</v>
+        <v>0.001989775869264953</v>
       </c>
       <c r="E317">
         <v>0.999</v>
@@ -5906,13 +5906,13 @@
         <v>33</v>
       </c>
       <c r="B318">
-        <v>0.006150500469413917</v>
+        <v>0.004356572051575793</v>
       </c>
       <c r="C318">
-        <v>0.03282467502454564</v>
+        <v>0.02325063830579957</v>
       </c>
       <c r="D318">
-        <v>-0.002123542015727372</v>
+        <v>-0.001504164391511112</v>
       </c>
       <c r="E318">
         <v>0.012</v>
@@ -5940,13 +5940,13 @@
         <v>33</v>
       </c>
       <c r="B320">
-        <v>-0.006433053806715688</v>
+        <v>-0.00404222955073052</v>
       </c>
       <c r="C320">
-        <v>-0.03433263710342916</v>
+        <v>-0.02157302028301251</v>
       </c>
       <c r="D320">
-        <v>0.002221097310036857</v>
+        <v>0.001395633466069631</v>
       </c>
       <c r="E320">
         <v>0.988</v>
@@ -5957,13 +5957,13 @@
         <v>34</v>
       </c>
       <c r="B321">
-        <v>0.003400050960272367</v>
+        <v>0.002309571364239586</v>
       </c>
       <c r="C321">
-        <v>0.03167597974536765</v>
+        <v>0.02151671742833932</v>
       </c>
       <c r="D321">
-        <v>-3.530976360651448E-05</v>
+        <v>-2.39850578289986E-05</v>
       </c>
       <c r="E321">
         <v>0.012</v>
@@ -5991,13 +5991,13 @@
         <v>34</v>
       </c>
       <c r="B323">
-        <v>-0.003517845132086526</v>
+        <v>-0.002142853496927975</v>
       </c>
       <c r="C323">
-        <v>-0.03277338853250205</v>
+        <v>-0.01996351959399555</v>
       </c>
       <c r="D323">
-        <v>3.653306420100025E-05</v>
+        <v>2.22536812841942E-05</v>
       </c>
       <c r="E323">
         <v>0.988</v>
@@ -6008,13 +6008,13 @@
         <v>34</v>
       </c>
       <c r="B324">
-        <v>0.006862822965875408</v>
+        <v>0.003306755973284493</v>
       </c>
       <c r="C324">
-        <v>0.06393628913306029</v>
+        <v>0.03080681332618683</v>
       </c>
       <c r="D324">
-        <v>-7.127088959249229E-05</v>
+        <v>-3.434088873531232E-05</v>
       </c>
       <c r="E324">
         <v>0.001</v>
@@ -6025,13 +6025,13 @@
         <v>34</v>
       </c>
       <c r="B325">
-        <v>0.003400050960272367</v>
+        <v>0.002309571364239586</v>
       </c>
       <c r="C325">
-        <v>0.03167597974536765</v>
+        <v>0.02151671742833932</v>
       </c>
       <c r="D325">
-        <v>-3.530976360651448E-05</v>
+        <v>-2.39850578289986E-05</v>
       </c>
       <c r="E325">
         <v>0.012</v>
@@ -6059,13 +6059,13 @@
         <v>34</v>
       </c>
       <c r="B327">
-        <v>-0.003517845132086526</v>
+        <v>-0.002142853496927975</v>
       </c>
       <c r="C327">
-        <v>-0.03277338853250205</v>
+        <v>-0.01996351959399555</v>
       </c>
       <c r="D327">
-        <v>3.653306420100025E-05</v>
+        <v>2.22536812841942E-05</v>
       </c>
       <c r="E327">
         <v>0.988</v>
@@ -6076,13 +6076,13 @@
         <v>34</v>
       </c>
       <c r="B328">
-        <v>-0.005810882052259852</v>
+        <v>-0.003055124778221979</v>
       </c>
       <c r="C328">
-        <v>-0.05413606570630887</v>
+        <v>-0.02846253533411099</v>
       </c>
       <c r="D328">
-        <v>6.034641068856117E-05</v>
+        <v>3.172768142827526E-05</v>
       </c>
       <c r="E328">
         <v>0.999</v>
@@ -6093,13 +6093,13 @@
         <v>34</v>
       </c>
       <c r="B329">
-        <v>0.003400050960272367</v>
+        <v>0.002309571364239586</v>
       </c>
       <c r="C329">
-        <v>0.03167597974536765</v>
+        <v>0.02151671742833932</v>
       </c>
       <c r="D329">
-        <v>-3.530976360651448E-05</v>
+        <v>-2.39850578289986E-05</v>
       </c>
       <c r="E329">
         <v>0.012</v>
@@ -6127,13 +6127,13 @@
         <v>34</v>
       </c>
       <c r="B331">
-        <v>-0.003517845132086526</v>
+        <v>-0.002142853496927975</v>
       </c>
       <c r="C331">
-        <v>-0.03277338853250205</v>
+        <v>-0.01996351959399555</v>
       </c>
       <c r="D331">
-        <v>3.653306420100025E-05</v>
+        <v>2.22536812841942E-05</v>
       </c>
       <c r="E331">
         <v>0.988</v>
@@ -6144,13 +6144,13 @@
         <v>35</v>
       </c>
       <c r="B332">
-        <v>-0.003896258886777012</v>
+        <v>-0.002644107620207061</v>
       </c>
       <c r="C332">
-        <v>0.01592692980545087</v>
+        <v>0.010808449255776</v>
       </c>
       <c r="D332">
-        <v>0.007223298141454001</v>
+        <v>0.004901927262498944</v>
       </c>
       <c r="E332">
         <v>0.012</v>
@@ -6178,13 +6178,13 @@
         <v>35</v>
       </c>
       <c r="B334">
-        <v>0.004117013679751468</v>
+        <v>0.00245293560682099</v>
       </c>
       <c r="C334">
-        <v>-0.01682932007111143</v>
+        <v>-0.01002698597870785</v>
       </c>
       <c r="D334">
-        <v>-0.007632556800117847</v>
+        <v>-0.004547512299551783</v>
       </c>
       <c r="E334">
         <v>0.988</v>
@@ -6195,13 +6195,13 @@
         <v>35</v>
       </c>
       <c r="B335">
-        <v>-0.008531000558415705</v>
+        <v>-0.003785593230026491</v>
       </c>
       <c r="C335">
-        <v>0.03487259214865546</v>
+        <v>0.01547455633691124</v>
       </c>
       <c r="D335">
-        <v>0.01581567402707188</v>
+        <v>0.007018134404659791</v>
       </c>
       <c r="E335">
         <v>0.001</v>
@@ -6212,13 +6212,13 @@
         <v>35</v>
       </c>
       <c r="B336">
-        <v>-0.003896258886777012</v>
+        <v>-0.002644107620207061</v>
       </c>
       <c r="C336">
-        <v>0.01592692980545087</v>
+        <v>0.010808449255776</v>
       </c>
       <c r="D336">
-        <v>0.007223298141454001</v>
+        <v>0.004901927262498944</v>
       </c>
       <c r="E336">
         <v>0.012</v>
@@ -6246,13 +6246,13 @@
         <v>35</v>
       </c>
       <c r="B338">
-        <v>0.004117013679751468</v>
+        <v>0.00245293560682099</v>
       </c>
       <c r="C338">
-        <v>-0.01682932007111143</v>
+        <v>-0.01002698597870785</v>
       </c>
       <c r="D338">
-        <v>-0.007632556800117847</v>
+        <v>-0.004547512299551783</v>
       </c>
       <c r="E338">
         <v>0.988</v>
@@ -6263,13 +6263,13 @@
         <v>35</v>
       </c>
       <c r="B339">
-        <v>0.006985986451382942</v>
+        <v>0.003497331741925709</v>
       </c>
       <c r="C339">
-        <v>-0.0285569617077077</v>
+        <v>-0.01429621562085227</v>
       </c>
       <c r="D339">
-        <v>-0.0129513629399096</v>
+        <v>-0.006483724671693216</v>
       </c>
       <c r="E339">
         <v>0.999</v>
@@ -6280,13 +6280,13 @@
         <v>35</v>
       </c>
       <c r="B340">
-        <v>-0.003896258886777012</v>
+        <v>-0.002644107620207061</v>
       </c>
       <c r="C340">
-        <v>0.01592692980545087</v>
+        <v>0.010808449255776</v>
       </c>
       <c r="D340">
-        <v>0.007223298141454001</v>
+        <v>0.004901927262498944</v>
       </c>
       <c r="E340">
         <v>0.012</v>
@@ -6314,13 +6314,13 @@
         <v>35</v>
       </c>
       <c r="B342">
-        <v>0.004117013679751468</v>
+        <v>0.00245293560682099</v>
       </c>
       <c r="C342">
-        <v>-0.01682932007111143</v>
+        <v>-0.01002698597870785</v>
       </c>
       <c r="D342">
-        <v>-0.007632556800117847</v>
+        <v>-0.004547512299551783</v>
       </c>
       <c r="E342">
         <v>0.988</v>
@@ -6331,13 +6331,13 @@
         <v>36</v>
       </c>
       <c r="B343">
-        <v>-0.0006935396937658368</v>
+        <v>-0.0004966336762078463</v>
       </c>
       <c r="C343">
-        <v>0.01996607684366782</v>
+        <v>0.0142974169055521</v>
       </c>
       <c r="D343">
-        <v>0.003633286466473323</v>
+        <v>0.002601743535057266</v>
       </c>
       <c r="E343">
         <v>0.012</v>
@@ -6365,13 +6365,13 @@
         <v>36</v>
       </c>
       <c r="B345">
-        <v>0.0007102688959351223</v>
+        <v>0.0004607546973387957</v>
       </c>
       <c r="C345">
-        <v>-0.02044768811847682</v>
+        <v>-0.01326450926434408</v>
       </c>
       <c r="D345">
-        <v>-0.003720926704491312</v>
+        <v>-0.002413782255367603</v>
       </c>
       <c r="E345">
         <v>0.988</v>
@@ -6382,13 +6382,13 @@
         <v>36</v>
       </c>
       <c r="B346">
-        <v>-0.001171112994683027</v>
+        <v>-0.0007110480426469274</v>
       </c>
       <c r="C346">
-        <v>0.03371477112938544</v>
+        <v>0.02047011870645935</v>
       </c>
       <c r="D346">
-        <v>0.006135177312186427</v>
+        <v>0.003725008465389563</v>
       </c>
       <c r="E346">
         <v>0.001</v>
@@ -6399,13 +6399,13 @@
         <v>36</v>
       </c>
       <c r="B347">
-        <v>-0.0006935396937658368</v>
+        <v>-0.0004966336762078463</v>
       </c>
       <c r="C347">
-        <v>0.01996607684366782</v>
+        <v>0.0142974169055521</v>
       </c>
       <c r="D347">
-        <v>0.003633286466473323</v>
+        <v>0.002601743535057266</v>
       </c>
       <c r="E347">
         <v>0.012</v>
@@ -6433,13 +6433,13 @@
         <v>36</v>
       </c>
       <c r="B349">
-        <v>0.0007102688959351223</v>
+        <v>0.0004607546973387957</v>
       </c>
       <c r="C349">
-        <v>-0.02044768811847682</v>
+        <v>-0.01326450926434408</v>
       </c>
       <c r="D349">
-        <v>-0.003720926704491312</v>
+        <v>-0.002413782255367603</v>
       </c>
       <c r="E349">
         <v>0.988</v>
@@ -6450,13 +6450,13 @@
         <v>36</v>
       </c>
       <c r="B350">
-        <v>0.001205050681278744</v>
+        <v>0.000656921583166235</v>
       </c>
       <c r="C350">
-        <v>-0.03469179157184506</v>
+        <v>-0.01891189059207538</v>
       </c>
       <c r="D350">
-        <v>-0.006312968631875859</v>
+        <v>-0.00344145305467977</v>
       </c>
       <c r="E350">
         <v>0.999</v>
@@ -6467,13 +6467,13 @@
         <v>36</v>
       </c>
       <c r="B351">
-        <v>-0.0006935396937658368</v>
+        <v>-0.0004966336762078463</v>
       </c>
       <c r="C351">
-        <v>0.01996607684366782</v>
+        <v>0.0142974169055521</v>
       </c>
       <c r="D351">
-        <v>0.003633286466473323</v>
+        <v>0.002601743535057266</v>
       </c>
       <c r="E351">
         <v>0.012</v>
@@ -6501,13 +6501,13 @@
         <v>36</v>
       </c>
       <c r="B353">
-        <v>0.0007102688959351223</v>
+        <v>0.0004607546973387957</v>
       </c>
       <c r="C353">
-        <v>-0.02044768811847682</v>
+        <v>-0.01326450926434408</v>
       </c>
       <c r="D353">
-        <v>-0.003720926704491312</v>
+        <v>-0.002413782255367603</v>
       </c>
       <c r="E353">
         <v>0.988</v>
@@ -6518,13 +6518,13 @@
         <v>37</v>
       </c>
       <c r="B354">
-        <v>-0.0005262389206805631</v>
+        <v>-0.0003862397371084641</v>
       </c>
       <c r="C354">
-        <v>0.0235445947399159</v>
+        <v>0.01728085423805167</v>
       </c>
       <c r="D354">
-        <v>0.001853480365148851</v>
+        <v>0.001360385446300635</v>
       </c>
       <c r="E354">
         <v>0.012</v>
@@ -6552,13 +6552,13 @@
         <v>37</v>
       </c>
       <c r="B356">
-        <v>0.0005437464348433395</v>
+        <v>0.0003583471188459632</v>
       </c>
       <c r="C356">
-        <v>-0.02432790306179528</v>
+        <v>-0.01603290322679531</v>
       </c>
       <c r="D356">
-        <v>-0.001915144055286604</v>
+        <v>-0.001262144099546431</v>
       </c>
       <c r="E356">
         <v>0.988</v>
@@ -6569,13 +6569,13 @@
         <v>37</v>
       </c>
       <c r="B357">
-        <v>-0.0009879643111330625</v>
+        <v>-0.000552998320033221</v>
       </c>
       <c r="C357">
-        <v>0.04420277256012414</v>
+        <v>0.02474184410419153</v>
       </c>
       <c r="D357">
-        <v>0.003479735876975353</v>
+        <v>0.001947730370867139</v>
       </c>
       <c r="E357">
         <v>0.001</v>
@@ -6586,13 +6586,13 @@
         <v>37</v>
       </c>
       <c r="B358">
-        <v>-0.0005262389206805631</v>
+        <v>-0.0003862397371084641</v>
       </c>
       <c r="C358">
-        <v>0.0235445947399159</v>
+        <v>0.01728085423805167</v>
       </c>
       <c r="D358">
-        <v>0.001853480365148851</v>
+        <v>0.001360385446300635</v>
       </c>
       <c r="E358">
         <v>0.012</v>
@@ -6620,13 +6620,13 @@
         <v>37</v>
       </c>
       <c r="B360">
-        <v>0.0005437464348433395</v>
+        <v>0.0003583471188459632</v>
       </c>
       <c r="C360">
-        <v>-0.02432790306179528</v>
+        <v>-0.01603290322679531</v>
       </c>
       <c r="D360">
-        <v>-0.001915144055286604</v>
+        <v>-0.001262144099546431</v>
       </c>
       <c r="E360">
         <v>0.988</v>
@@ -6637,13 +6637,13 @@
         <v>37</v>
       </c>
       <c r="B361">
-        <v>0.0008903057416071591</v>
+        <v>0.0005109098051303452</v>
       </c>
       <c r="C361">
-        <v>-0.03983340467035714</v>
+        <v>-0.02285875072654558</v>
       </c>
       <c r="D361">
-        <v>-0.003135769982414199</v>
+        <v>-0.00179948927180539</v>
       </c>
       <c r="E361">
         <v>0.999</v>
@@ -6654,13 +6654,13 @@
         <v>37</v>
       </c>
       <c r="B362">
-        <v>-0.0005262389206805631</v>
+        <v>-0.0003862397371084641</v>
       </c>
       <c r="C362">
-        <v>0.0235445947399159</v>
+        <v>0.01728085423805167</v>
       </c>
       <c r="D362">
-        <v>0.001853480365148851</v>
+        <v>0.001360385446300635</v>
       </c>
       <c r="E362">
         <v>0.012</v>
@@ -6688,13 +6688,13 @@
         <v>37</v>
       </c>
       <c r="B364">
-        <v>0.0005437464348433395</v>
+        <v>0.0003583471188459632</v>
       </c>
       <c r="C364">
-        <v>-0.02432790306179528</v>
+        <v>-0.01603290322679531</v>
       </c>
       <c r="D364">
-        <v>-0.001915144055286604</v>
+        <v>-0.001262144099546431</v>
       </c>
       <c r="E364">
         <v>0.988</v>
@@ -6705,13 +6705,13 @@
         <v>38</v>
       </c>
       <c r="B365">
-        <v>-0.003406358185794981</v>
+        <v>-0.002238909728574158</v>
       </c>
       <c r="C365">
-        <v>0.0244492697058811</v>
+        <v>0.01606986253803353</v>
       </c>
       <c r="D365">
-        <v>0.003731308573816774</v>
+        <v>0.002452491080083188</v>
       </c>
       <c r="E365">
         <v>0.012</v>
@@ -6739,13 +6739,13 @@
         <v>38</v>
       </c>
       <c r="B367">
-        <v>0.003835654274066859</v>
+        <v>0.002077215741892762</v>
       </c>
       <c r="C367">
-        <v>-0.02753055924542766</v>
+        <v>-0.01490929759607339</v>
       </c>
       <c r="D367">
-        <v>-0.004201557469412883</v>
+        <v>-0.002275372255247066</v>
       </c>
       <c r="E367">
         <v>0.988</v>
@@ -6756,13 +6756,13 @@
         <v>38</v>
       </c>
       <c r="B368">
-        <v>-0.007291576342278993</v>
+        <v>-0.003205622846919459</v>
       </c>
       <c r="C368">
-        <v>0.05233557566459947</v>
+        <v>0.02300848392471002</v>
       </c>
       <c r="D368">
-        <v>0.007987158084561652</v>
+        <v>0.003511424037264593</v>
       </c>
       <c r="E368">
         <v>0.001</v>
@@ -6773,13 +6773,13 @@
         <v>38</v>
       </c>
       <c r="B369">
-        <v>-0.003406358185794981</v>
+        <v>-0.002238909728574158</v>
       </c>
       <c r="C369">
-        <v>0.0244492697058811</v>
+        <v>0.01606986253803353</v>
       </c>
       <c r="D369">
-        <v>0.003731308573816774</v>
+        <v>0.002452491080083188</v>
       </c>
       <c r="E369">
         <v>0.012</v>
@@ -6807,13 +6807,13 @@
         <v>38</v>
       </c>
       <c r="B371">
-        <v>0.003835654274066859</v>
+        <v>0.002077215741892762</v>
       </c>
       <c r="C371">
-        <v>-0.02753055924542766</v>
+        <v>-0.01490929759607339</v>
       </c>
       <c r="D371">
-        <v>-0.004201557469412883</v>
+        <v>-0.002275372255247066</v>
       </c>
       <c r="E371">
         <v>0.988</v>
@@ -6824,13 +6824,13 @@
         <v>38</v>
       </c>
       <c r="B372">
-        <v>0.006248058078490236</v>
+        <v>0.002961605934325007</v>
       </c>
       <c r="C372">
-        <v>-0.04484568232901951</v>
+        <v>-0.021257042947746</v>
       </c>
       <c r="D372">
-        <v>-0.006844093135946844</v>
+        <v>-0.003244129070482501</v>
       </c>
       <c r="E372">
         <v>0.999</v>
@@ -6841,13 +6841,13 @@
         <v>38</v>
       </c>
       <c r="B373">
-        <v>-0.003406358185794981</v>
+        <v>-0.002238909728574158</v>
       </c>
       <c r="C373">
-        <v>0.0244492697058811</v>
+        <v>0.01606986253803353</v>
       </c>
       <c r="D373">
-        <v>0.003731308573816774</v>
+        <v>0.002452491080083188</v>
       </c>
       <c r="E373">
         <v>0.012</v>
@@ -6875,13 +6875,13 @@
         <v>38</v>
       </c>
       <c r="B375">
-        <v>0.003835654274066859</v>
+        <v>0.002077215741892762</v>
       </c>
       <c r="C375">
-        <v>-0.02753055924542766</v>
+        <v>-0.01490929759607339</v>
       </c>
       <c r="D375">
-        <v>-0.004201557469412883</v>
+        <v>-0.002275372255247066</v>
       </c>
       <c r="E375">
         <v>0.988</v>
@@ -6891,15 +6891,6 @@
       <c r="A376" t="s">
         <v>39</v>
       </c>
-      <c r="B376">
-        <v>-0.02702286628292104</v>
-      </c>
-      <c r="C376">
-        <v>0.03198365180723452</v>
-      </c>
-      <c r="D376">
-        <v>0.01218214197161387</v>
-      </c>
       <c r="E376">
         <v>0.012</v>
       </c>
@@ -6925,15 +6916,6 @@
       <c r="A378" t="s">
         <v>39</v>
       </c>
-      <c r="B378">
-        <v>0.02842921743899105</v>
-      </c>
-      <c r="C378">
-        <v>-0.03364817714749695</v>
-      </c>
-      <c r="D378">
-        <v>-0.01281613724309312</v>
-      </c>
       <c r="E378">
         <v>0.988</v>
       </c>
@@ -6942,15 +6924,6 @@
       <c r="A379" t="s">
         <v>39</v>
       </c>
-      <c r="B379">
-        <v>-0.05580525930808079</v>
-      </c>
-      <c r="C379">
-        <v>0.06604983957050299</v>
-      </c>
-      <c r="D379">
-        <v>0.02515749382527309</v>
-      </c>
       <c r="E379">
         <v>0.001</v>
       </c>
@@ -6959,15 +6932,6 @@
       <c r="A380" t="s">
         <v>39</v>
       </c>
-      <c r="B380">
-        <v>-0.02702286628292104</v>
-      </c>
-      <c r="C380">
-        <v>0.03198365180723452</v>
-      </c>
-      <c r="D380">
-        <v>0.01218214197161387</v>
-      </c>
       <c r="E380">
         <v>0.012</v>
       </c>
@@ -6993,15 +6957,6 @@
       <c r="A382" t="s">
         <v>39</v>
       </c>
-      <c r="B382">
-        <v>0.02842921743899105</v>
-      </c>
-      <c r="C382">
-        <v>-0.03364817714749695</v>
-      </c>
-      <c r="D382">
-        <v>-0.01281613724309312</v>
-      </c>
       <c r="E382">
         <v>0.988</v>
       </c>
@@ -7010,15 +6965,6 @@
       <c r="A383" t="s">
         <v>39</v>
       </c>
-      <c r="B383">
-        <v>0.04719453229707202</v>
-      </c>
-      <c r="C383">
-        <v>-0.05585837832268882</v>
-      </c>
-      <c r="D383">
-        <v>-0.02127570357294829</v>
-      </c>
       <c r="E383">
         <v>0.999</v>
       </c>
@@ -7027,15 +6973,6 @@
       <c r="A384" t="s">
         <v>39</v>
       </c>
-      <c r="B384">
-        <v>-0.02702286628292104</v>
-      </c>
-      <c r="C384">
-        <v>0.03198365180723452</v>
-      </c>
-      <c r="D384">
-        <v>0.01218214197161387</v>
-      </c>
       <c r="E384">
         <v>0.012</v>
       </c>
@@ -7061,15 +6998,6 @@
       <c r="A386" t="s">
         <v>39</v>
       </c>
-      <c r="B386">
-        <v>0.02842921743899105</v>
-      </c>
-      <c r="C386">
-        <v>-0.03364817714749695</v>
-      </c>
-      <c r="D386">
-        <v>-0.01281613724309312</v>
-      </c>
       <c r="E386">
         <v>0.988</v>
       </c>
@@ -7079,13 +7007,13 @@
         <v>40</v>
       </c>
       <c r="B387">
-        <v>0.00221378250721549</v>
+        <v>8.488269566154439E-31</v>
       </c>
       <c r="C387">
-        <v>0.007033132997858289</v>
+        <v>2.696702525467464E-30</v>
       </c>
       <c r="D387">
-        <v>0.001002766354112325</v>
+        <v>3.844890407179804E-31</v>
       </c>
       <c r="E387">
         <v>0.012</v>
@@ -7113,13 +7041,13 @@
         <v>40</v>
       </c>
       <c r="B389">
-        <v>-0.002216232816127301</v>
+        <v>-1.947746967225885E-30</v>
       </c>
       <c r="C389">
-        <v>-0.007040917569471098</v>
+        <v>-6.187944579933092E-30</v>
       </c>
       <c r="D389">
-        <v>-0.001003876258687836</v>
+        <v>-8.822615223909709E-31</v>
       </c>
       <c r="E389">
         <v>0.988</v>
@@ -7130,13 +7058,13 @@
         <v>40</v>
       </c>
       <c r="B390">
-        <v>0.004780421799735543</v>
+        <v>6.065851164003254E-09</v>
       </c>
       <c r="C390">
-        <v>0.01518728339112694</v>
+        <v>1.927106111038382E-08</v>
       </c>
       <c r="D390">
-        <v>0.002165364539477444</v>
+        <v>2.747619260921128E-09</v>
       </c>
       <c r="E390">
         <v>0.001</v>
@@ -7147,13 +7075,13 @@
         <v>40</v>
       </c>
       <c r="B391">
-        <v>0.00221378250721549</v>
+        <v>8.488269566154439E-31</v>
       </c>
       <c r="C391">
-        <v>0.007033132997858289</v>
+        <v>2.696702525467464E-30</v>
       </c>
       <c r="D391">
-        <v>0.001002766354112325</v>
+        <v>3.844890407179804E-31</v>
       </c>
       <c r="E391">
         <v>0.012</v>
@@ -7181,13 +7109,13 @@
         <v>40</v>
       </c>
       <c r="B393">
-        <v>-0.002216232816127301</v>
+        <v>-1.947746967225885E-30</v>
       </c>
       <c r="C393">
-        <v>-0.007040917569471098</v>
+        <v>-6.187944579933092E-30</v>
       </c>
       <c r="D393">
-        <v>-0.001003876258687836</v>
+        <v>-8.822615223909709E-31</v>
       </c>
       <c r="E393">
         <v>0.988</v>
@@ -7198,13 +7126,13 @@
         <v>40</v>
       </c>
       <c r="B394">
-        <v>-0.003879292168761901</v>
+        <v>-3.715840238885817E-07</v>
       </c>
       <c r="C394">
-        <v>-0.01232441654567505</v>
+        <v>-1.180513375351808E-06</v>
       </c>
       <c r="D394">
-        <v>-0.001757184209346185</v>
+        <v>-1.683146179295697E-07</v>
       </c>
       <c r="E394">
         <v>0.999</v>
@@ -7215,13 +7143,13 @@
         <v>40</v>
       </c>
       <c r="B395">
-        <v>0.00221378250721549</v>
+        <v>8.488269566154439E-31</v>
       </c>
       <c r="C395">
-        <v>0.007033132997858289</v>
+        <v>2.696702525467464E-30</v>
       </c>
       <c r="D395">
-        <v>0.001002766354112325</v>
+        <v>3.844890407179804E-31</v>
       </c>
       <c r="E395">
         <v>0.012</v>
@@ -7249,13 +7177,13 @@
         <v>40</v>
       </c>
       <c r="B397">
-        <v>-0.002216232816127301</v>
+        <v>-1.947746967225885E-30</v>
       </c>
       <c r="C397">
-        <v>-0.007040917569471098</v>
+        <v>-6.187944579933092E-30</v>
       </c>
       <c r="D397">
-        <v>-0.001003876258687836</v>
+        <v>-8.822615223909709E-31</v>
       </c>
       <c r="E397">
         <v>0.988</v>
@@ -7265,15 +7193,6 @@
       <c r="A398" t="s">
         <v>41</v>
       </c>
-      <c r="B398">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C398">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D398">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E398">
         <v>0.012</v>
       </c>
@@ -7299,15 +7218,6 @@
       <c r="A400" t="s">
         <v>41</v>
       </c>
-      <c r="B400">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C400">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D400">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E400">
         <v>0.988</v>
       </c>
@@ -7316,15 +7226,6 @@
       <c r="A401" t="s">
         <v>41</v>
       </c>
-      <c r="B401">
-        <v>-0.05090774066748112</v>
-      </c>
-      <c r="C401">
-        <v>0.06171546057975694</v>
-      </c>
-      <c r="D401">
-        <v>0.0128199820659441</v>
-      </c>
       <c r="E401">
         <v>0.001</v>
       </c>
@@ -7333,15 +7234,6 @@
       <c r="A402" t="s">
         <v>41</v>
       </c>
-      <c r="B402">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C402">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D402">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E402">
         <v>0.012</v>
       </c>
@@ -7367,15 +7259,6 @@
       <c r="A404" t="s">
         <v>41</v>
       </c>
-      <c r="B404">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C404">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D404">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E404">
         <v>0.988</v>
       </c>
@@ -7384,15 +7267,6 @@
       <c r="A405" t="s">
         <v>41</v>
       </c>
-      <c r="B405">
-        <v>0.04305503056722806</v>
-      </c>
-      <c r="C405">
-        <v>-0.05219561911199366</v>
-      </c>
-      <c r="D405">
-        <v>-0.01084245170741045</v>
-      </c>
       <c r="E405">
         <v>0.999</v>
       </c>
@@ -7401,15 +7275,6 @@
       <c r="A406" t="s">
         <v>41</v>
       </c>
-      <c r="B406">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C406">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D406">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E406">
         <v>0.012</v>
       </c>
@@ -7435,15 +7300,6 @@
       <c r="A408" t="s">
         <v>41</v>
       </c>
-      <c r="B408">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C408">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D408">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E408">
         <v>0.988</v>
       </c>
@@ -7452,15 +7308,6 @@
       <c r="A409" t="s">
         <v>42</v>
       </c>
-      <c r="B409">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C409">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D409">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E409">
         <v>0.012</v>
       </c>
@@ -7486,15 +7333,6 @@
       <c r="A411" t="s">
         <v>42</v>
       </c>
-      <c r="B411">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C411">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D411">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E411">
         <v>0.988</v>
       </c>
@@ -7503,15 +7341,6 @@
       <c r="A412" t="s">
         <v>42</v>
       </c>
-      <c r="B412">
-        <v>-0.05090774066748112</v>
-      </c>
-      <c r="C412">
-        <v>0.06171546057975694</v>
-      </c>
-      <c r="D412">
-        <v>0.0128199820659441</v>
-      </c>
       <c r="E412">
         <v>0.001</v>
       </c>
@@ -7520,15 +7349,6 @@
       <c r="A413" t="s">
         <v>42</v>
       </c>
-      <c r="B413">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C413">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D413">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E413">
         <v>0.012</v>
       </c>
@@ -7554,15 +7374,6 @@
       <c r="A415" t="s">
         <v>42</v>
       </c>
-      <c r="B415">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C415">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D415">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E415">
         <v>0.988</v>
       </c>
@@ -7571,15 +7382,6 @@
       <c r="A416" t="s">
         <v>42</v>
       </c>
-      <c r="B416">
-        <v>0.04305503056722806</v>
-      </c>
-      <c r="C416">
-        <v>-0.05219561911199366</v>
-      </c>
-      <c r="D416">
-        <v>-0.01084245170741045</v>
-      </c>
       <c r="E416">
         <v>0.999</v>
       </c>
@@ -7588,15 +7390,6 @@
       <c r="A417" t="s">
         <v>42</v>
       </c>
-      <c r="B417">
-        <v>-0.02474898427668589</v>
-      </c>
-      <c r="C417">
-        <v>0.03000319683196043</v>
-      </c>
-      <c r="D417">
-        <v>0.006232481159395059</v>
-      </c>
       <c r="E417">
         <v>0.012</v>
       </c>
@@ -7622,15 +7415,6 @@
       <c r="A419" t="s">
         <v>42</v>
       </c>
-      <c r="B419">
-        <v>0.02592623364091454</v>
-      </c>
-      <c r="C419">
-        <v>-0.031430376388114</v>
-      </c>
-      <c r="D419">
-        <v>-0.006528945224361826</v>
-      </c>
       <c r="E419">
         <v>0.988</v>
       </c>
@@ -7640,13 +7424,13 @@
         <v>43</v>
       </c>
       <c r="B420">
-        <v>-0.08348770763168523</v>
+        <v>-0.09493823394258108</v>
       </c>
       <c r="C420">
-        <v>0.03741741837574951</v>
+        <v>0.04254930120917771</v>
       </c>
       <c r="D420">
-        <v>0.02990190418138853</v>
+        <v>0.03400301739059744</v>
       </c>
       <c r="E420">
         <v>0.012</v>
@@ -7674,13 +7458,13 @@
         <v>43</v>
       </c>
       <c r="B422">
-        <v>0.0892327669117783</v>
+        <v>0.08220995148088246</v>
       </c>
       <c r="C422">
-        <v>-0.0399922319953193</v>
+        <v>-0.03684475519175488</v>
       </c>
       <c r="D422">
-        <v>-0.0319595509533852</v>
+        <v>-0.02944426385238297</v>
       </c>
       <c r="E422">
         <v>0.988</v>
@@ -7691,13 +7475,13 @@
         <v>43</v>
       </c>
       <c r="B423">
-        <v>-0.180459037892319</v>
+        <v>-0.1722225765933202</v>
       </c>
       <c r="C423">
-        <v>0.08087791019835713</v>
+        <v>0.07718650307864192</v>
       </c>
       <c r="D423">
-        <v>0.06463309405412118</v>
+        <v>0.06168312832212517</v>
       </c>
       <c r="E423">
         <v>0.001</v>
@@ -7708,13 +7492,13 @@
         <v>43</v>
       </c>
       <c r="B424">
-        <v>-0.08348770763168523</v>
+        <v>-0.09493823394258108</v>
       </c>
       <c r="C424">
-        <v>0.03741741837574951</v>
+        <v>0.04254930120917771</v>
       </c>
       <c r="D424">
-        <v>0.02990190418138853</v>
+        <v>0.03400301739059744</v>
       </c>
       <c r="E424">
         <v>0.012</v>
@@ -7742,13 +7526,13 @@
         <v>43</v>
       </c>
       <c r="B426">
-        <v>0.0892327669117783</v>
+        <v>0.08220995148088246</v>
       </c>
       <c r="C426">
-        <v>-0.0399922319953193</v>
+        <v>-0.03684475519175488</v>
       </c>
       <c r="D426">
-        <v>-0.0319595509533852</v>
+        <v>-0.02944426385238297</v>
       </c>
       <c r="E426">
         <v>0.988</v>
@@ -7759,13 +7543,13 @@
         <v>43</v>
       </c>
       <c r="B427">
-        <v>0.1472811676002044</v>
+        <v>0.1193067087749885</v>
       </c>
       <c r="C427">
-        <v>-0.06600829299658771</v>
+        <v>-0.05347073436201545</v>
       </c>
       <c r="D427">
-        <v>-0.05275012916551725</v>
+        <v>-0.04273081481318092</v>
       </c>
       <c r="E427">
         <v>0.999</v>
@@ -7776,13 +7560,13 @@
         <v>43</v>
       </c>
       <c r="B428">
-        <v>-0.08348770763168523</v>
+        <v>-0.09493823394258108</v>
       </c>
       <c r="C428">
-        <v>0.03741741837574951</v>
+        <v>0.04254930120917771</v>
       </c>
       <c r="D428">
-        <v>0.02990190418138853</v>
+        <v>0.03400301739059744</v>
       </c>
       <c r="E428">
         <v>0.012</v>
@@ -7810,13 +7594,13 @@
         <v>43</v>
       </c>
       <c r="B430">
-        <v>0.0892327669117783</v>
+        <v>0.08220995148088246</v>
       </c>
       <c r="C430">
-        <v>-0.0399922319953193</v>
+        <v>-0.03684475519175488</v>
       </c>
       <c r="D430">
-        <v>-0.0319595509533852</v>
+        <v>-0.02944426385238297</v>
       </c>
       <c r="E430">
         <v>0.988</v>
@@ -7827,13 +7611,13 @@
         <v>44</v>
       </c>
       <c r="B431">
-        <v>0.08171466797953843</v>
+        <v>0.2807598974247953</v>
       </c>
       <c r="C431">
-        <v>0.01985675271150524</v>
+        <v>0.06822495877811957</v>
       </c>
       <c r="D431">
-        <v>0.006754623097304427</v>
+        <v>0.02320791768274962</v>
       </c>
       <c r="E431">
         <v>0.012</v>
@@ -7861,13 +7645,13 @@
         <v>44</v>
       </c>
       <c r="B433">
-        <v>-0.08328044736713636</v>
+        <v>-0.2829740916514842</v>
       </c>
       <c r="C433">
-        <v>-0.02023723879642807</v>
+        <v>-0.06876301037034549</v>
       </c>
       <c r="D433">
-        <v>-0.006884052120003271</v>
+        <v>-0.02339094537943262</v>
       </c>
       <c r="E433">
         <v>0.988</v>
@@ -7878,13 +7662,13 @@
         <v>44</v>
       </c>
       <c r="B434">
-        <v>0.138704395362117</v>
+        <v>0.4434333553768783</v>
       </c>
       <c r="C434">
-        <v>0.03370531811246025</v>
+        <v>0.1077547850277814</v>
       </c>
       <c r="D434">
-        <v>0.01146545578384045</v>
+        <v>0.036654682181342</v>
       </c>
       <c r="E434">
         <v>0.001</v>
@@ -7895,13 +7679,13 @@
         <v>44</v>
       </c>
       <c r="B435">
-        <v>0.08171466797953843</v>
+        <v>0.2807598974247953</v>
       </c>
       <c r="C435">
-        <v>0.01985675271150524</v>
+        <v>0.06822495877811957</v>
       </c>
       <c r="D435">
-        <v>0.006754623097304427</v>
+        <v>0.02320791768274962</v>
       </c>
       <c r="E435">
         <v>0.012</v>
@@ -7929,13 +7713,13 @@
         <v>44</v>
       </c>
       <c r="B437">
-        <v>-0.08328044736713636</v>
+        <v>-0.2829740916514842</v>
       </c>
       <c r="C437">
-        <v>-0.02023723879642807</v>
+        <v>-0.06876301037034549</v>
       </c>
       <c r="D437">
-        <v>-0.006884052120003271</v>
+        <v>-0.02339094537943262</v>
       </c>
       <c r="E437">
         <v>0.988</v>
@@ -7946,13 +7730,13 @@
         <v>44</v>
       </c>
       <c r="B438">
-        <v>-0.1331567197255241</v>
+        <v>-0.3802676708725683</v>
       </c>
       <c r="C438">
-        <v>-0.03235722693173058</v>
+        <v>-0.09240545536558273</v>
       </c>
       <c r="D438">
-        <v>-0.01100687889773395</v>
+        <v>-0.03143333817959321</v>
       </c>
       <c r="E438">
         <v>0.999</v>
@@ -7963,13 +7747,13 @@
         <v>44</v>
       </c>
       <c r="B439">
-        <v>0.08171466797953843</v>
+        <v>0.2807598974247953</v>
       </c>
       <c r="C439">
-        <v>0.01985675271150524</v>
+        <v>0.06822495877811957</v>
       </c>
       <c r="D439">
-        <v>0.006754623097304427</v>
+        <v>0.02320791768274962</v>
       </c>
       <c r="E439">
         <v>0.012</v>
@@ -7997,13 +7781,13 @@
         <v>44</v>
       </c>
       <c r="B441">
-        <v>-0.08328044736713636</v>
+        <v>-0.2829740916514842</v>
       </c>
       <c r="C441">
-        <v>-0.02023723879642807</v>
+        <v>-0.06876301037034549</v>
       </c>
       <c r="D441">
-        <v>-0.006884052120003271</v>
+        <v>-0.02339094537943262</v>
       </c>
       <c r="E441">
         <v>0.988</v>

--- a/Data/Output.xlsx
+++ b/Data/Output.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ing-my.sharepoint.com/personal/andres_guzman_cordero_ing_com/Documents/Documents/EC/Prototype/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_23F921ED2BDB0B36752C4CFF853BBB99452570B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5D274D3-D383-48DE-BDA9-3A53D696E6BE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="348" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$441</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -154,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +227,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -264,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,9 +313,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,6 +365,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,14 +558,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,26 +589,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>0.0003831018761993852</v>
+        <v>1.6564462837427709E-2</v>
       </c>
       <c r="C2">
-        <v>0.003413273221438522</v>
+        <v>3.6205818030167689E-2</v>
       </c>
       <c r="D2">
-        <v>0.00104039090899287</v>
+        <v>-5.3462128939568412E-3</v>
       </c>
       <c r="E2">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -563,60 +623,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4">
-        <v>-0.0003587575337455078</v>
+        <v>-1.659150840387167E-2</v>
       </c>
       <c r="C4">
-        <v>-0.003196375583098315</v>
+        <v>-3.6264932947856453E-2</v>
       </c>
       <c r="D4">
-        <v>-0.000974278905507819</v>
+        <v>5.3549419036124021E-3</v>
       </c>
       <c r="E4">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>0.0005435658355624616</v>
+        <v>2.4722964231414259E-2</v>
       </c>
       <c r="C5">
-        <v>0.004842938199677715</v>
+        <v>5.4038283819647953E-2</v>
       </c>
       <c r="D5">
-        <v>0.001476163362520243</v>
+        <v>-7.9793852325938767E-3</v>
       </c>
       <c r="E5">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>0.0003831018761993852</v>
+        <v>1.6564462837427709E-2</v>
       </c>
       <c r="C6">
-        <v>0.003413273221438522</v>
+        <v>3.6205818030167689E-2</v>
       </c>
       <c r="D6">
-        <v>0.00104039090899287</v>
+        <v>-5.3462128939568412E-3</v>
       </c>
       <c r="E6">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -631,60 +691,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>-0.0003587575337455078</v>
+        <v>-1.659150840387167E-2</v>
       </c>
       <c r="C8">
-        <v>-0.003196375583098315</v>
+        <v>-3.6264932947856453E-2</v>
       </c>
       <c r="D8">
-        <v>-0.000974278905507819</v>
+        <v>5.3549419036124021E-3</v>
       </c>
       <c r="E8">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B9">
-        <v>-0.0005053940203703005</v>
+        <v>-2.4570061018735861E-2</v>
       </c>
       <c r="C9">
-        <v>-0.004502843716451291</v>
+        <v>-5.370407522207403E-2</v>
       </c>
       <c r="D9">
-        <v>-0.001372500050036199</v>
+        <v>7.9300354205793493E-3</v>
       </c>
       <c r="E9">
         <v>0.999</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>0.0003831018761993852</v>
+        <v>1.6564462837427709E-2</v>
       </c>
       <c r="C10">
-        <v>0.003413273221438522</v>
+        <v>3.6205818030167689E-2</v>
       </c>
       <c r="D10">
-        <v>0.00104039090899287</v>
+        <v>-5.3462128939568412E-3</v>
       </c>
       <c r="E10">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -699,43 +759,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B12">
-        <v>-0.0003587575337455078</v>
+        <v>-1.659150840387167E-2</v>
       </c>
       <c r="C12">
-        <v>-0.003196375583098315</v>
+        <v>-3.6264932947856453E-2</v>
       </c>
       <c r="D12">
-        <v>-0.000974278905507819</v>
+        <v>5.3549419036124021E-3</v>
       </c>
       <c r="E12">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>0.0003831018761993852</v>
+        <v>1.9729575562817442E-3</v>
       </c>
       <c r="C13">
-        <v>0.003413273221438522</v>
+        <v>1.89710233452637E-2</v>
       </c>
       <c r="D13">
-        <v>0.00104039090899287</v>
+        <v>7.4954388860422566E-4</v>
       </c>
       <c r="E13">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -750,60 +810,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>-0.0003587575337455078</v>
+        <v>-1.9798714995173331E-3</v>
       </c>
       <c r="C15">
-        <v>-0.003196375583098315</v>
+        <v>-1.903750454153301E-2</v>
       </c>
       <c r="D15">
-        <v>-0.000974278905507819</v>
+        <v>-7.5217055631022459E-4</v>
       </c>
       <c r="E15">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B16">
-        <v>0.0005435658355624616</v>
+        <v>2.9035674017986678E-3</v>
       </c>
       <c r="C16">
-        <v>0.004842938199677715</v>
+        <v>2.7919325881434781E-2</v>
       </c>
       <c r="D16">
-        <v>0.001476163362520243</v>
+        <v>1.103090735144965E-3</v>
       </c>
       <c r="E16">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>0.0003831018761993852</v>
+        <v>1.9729575562817442E-3</v>
       </c>
       <c r="C17">
-        <v>0.003413273221438522</v>
+        <v>1.89710233452637E-2</v>
       </c>
       <c r="D17">
-        <v>0.00104039090899287</v>
+        <v>7.4954388860422566E-4</v>
       </c>
       <c r="E17">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -818,60 +878,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>-0.0003587575337455078</v>
+        <v>-1.9798714995173331E-3</v>
       </c>
       <c r="C19">
-        <v>-0.003196375583098315</v>
+        <v>-1.903750454153301E-2</v>
       </c>
       <c r="D19">
-        <v>-0.000974278905507819</v>
+        <v>-7.5217055631022459E-4</v>
       </c>
       <c r="E19">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>-0.0005053940203703005</v>
+        <v>-2.876144395837785E-3</v>
       </c>
       <c r="C20">
-        <v>-0.004502843716451291</v>
+        <v>-2.7655639273162429E-2</v>
       </c>
       <c r="D20">
-        <v>-0.001372500050036199</v>
+        <v>-1.0926724945397911E-3</v>
       </c>
       <c r="E20">
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.0003831018761993852</v>
+        <v>1.9729575562817442E-3</v>
       </c>
       <c r="C21">
-        <v>0.003413273221438522</v>
+        <v>1.89710233452637E-2</v>
       </c>
       <c r="D21">
-        <v>0.00104039090899287</v>
+        <v>7.4954388860422566E-4</v>
       </c>
       <c r="E21">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -886,43 +946,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0003587575337455078</v>
+        <v>-1.9798714995173331E-3</v>
       </c>
       <c r="C23">
-        <v>-0.003196375583098315</v>
+        <v>-1.903750454153301E-2</v>
       </c>
       <c r="D23">
-        <v>-0.000974278905507819</v>
+        <v>-7.5217055631022459E-4</v>
       </c>
       <c r="E23">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.002704457063548203</v>
+        <v>7.2349839790793657E-3</v>
       </c>
       <c r="C24">
-        <v>-0.0001695115211786786</v>
+        <v>2.4607781891375809E-2</v>
       </c>
       <c r="D24">
-        <v>0.00379926811604334</v>
+        <v>-2.1288802035590981E-3</v>
       </c>
       <c r="E24">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -937,60 +997,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.002395379196819653</v>
+        <v>-7.2462226090222502E-3</v>
       </c>
       <c r="C26">
-        <v>0.0001501389602096095</v>
+        <v>-2.4646006959349979E-2</v>
       </c>
       <c r="D26">
-        <v>-0.003365070176551616</v>
+        <v>2.1321871489330918E-3</v>
       </c>
       <c r="E26">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.005177466526053095</v>
+        <v>1.034733813737026E-2</v>
       </c>
       <c r="C27">
-        <v>-0.0003245162359987699</v>
+        <v>3.5193587266674577E-2</v>
       </c>
       <c r="D27">
-        <v>0.007273394634155411</v>
+        <v>-3.044684464247101E-3</v>
       </c>
       <c r="E27">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.002704457063548203</v>
+        <v>7.2349839790793657E-3</v>
       </c>
       <c r="C28">
-        <v>-0.0001695115211786786</v>
+        <v>2.4607781891375809E-2</v>
       </c>
       <c r="D28">
-        <v>0.00379926811604334</v>
+        <v>-2.1288802035590981E-3</v>
       </c>
       <c r="E28">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1005,60 +1065,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>0.002395379196819653</v>
+        <v>-7.2462226090222502E-3</v>
       </c>
       <c r="C30">
-        <v>0.0001501389602096095</v>
+        <v>-2.4646006959349979E-2</v>
       </c>
       <c r="D30">
-        <v>-0.003365070176551616</v>
+        <v>2.1321871489330918E-3</v>
       </c>
       <c r="E30">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.003382280188991988</v>
+        <v>-1.028900461021705E-2</v>
       </c>
       <c r="C31">
-        <v>0.0002119965103592119</v>
+        <v>-3.4995182029387027E-2</v>
       </c>
       <c r="D31">
-        <v>-0.00475148578055185</v>
+        <v>3.0275199354078751E-3</v>
       </c>
       <c r="E31">
         <v>0.999</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.002704457063548203</v>
+        <v>7.2349839790793657E-3</v>
       </c>
       <c r="C32">
-        <v>-0.0001695115211786786</v>
+        <v>2.4607781891375809E-2</v>
       </c>
       <c r="D32">
-        <v>0.00379926811604334</v>
+        <v>-2.1288802035590981E-3</v>
       </c>
       <c r="E32">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1073,43 +1133,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>0.002395379196819653</v>
+        <v>-7.2462226090222502E-3</v>
       </c>
       <c r="C34">
-        <v>0.0001501389602096095</v>
+        <v>-2.4646006959349979E-2</v>
       </c>
       <c r="D34">
-        <v>-0.003365070176551616</v>
+        <v>2.1321871489330918E-3</v>
       </c>
       <c r="E34">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.002704457063548203</v>
+        <v>5.2044733990200707E-3</v>
       </c>
       <c r="C35">
-        <v>-0.0001695115211786786</v>
+        <v>2.2976583253138751E-2</v>
       </c>
       <c r="D35">
-        <v>0.00379926811604334</v>
+        <v>-1.0123190937116049E-3</v>
       </c>
       <c r="E35">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1124,60 +1184,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>0.002395379196819653</v>
+        <v>-5.2187886676066707E-3</v>
       </c>
       <c r="C37">
-        <v>0.0001501389602096095</v>
+        <v>-2.3039781954573742E-2</v>
       </c>
       <c r="D37">
-        <v>-0.003365070176551616</v>
+        <v>1.0151035482780469E-3</v>
       </c>
       <c r="E37">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>-0.005177466526053095</v>
+        <v>7.9369760667814555E-3</v>
       </c>
       <c r="C38">
-        <v>-0.0003245162359987699</v>
+        <v>3.5039969924893943E-2</v>
       </c>
       <c r="D38">
-        <v>0.007273394634155411</v>
+        <v>-1.5438165982840321E-3</v>
       </c>
       <c r="E38">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>-0.002704457063548203</v>
+        <v>5.2044733990200707E-3</v>
       </c>
       <c r="C39">
-        <v>-0.0001695115211786786</v>
+        <v>2.2976583253138751E-2</v>
       </c>
       <c r="D39">
-        <v>0.00379926811604334</v>
+        <v>-1.0123190937116049E-3</v>
       </c>
       <c r="E39">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1192,60 +1252,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>0.002395379196819653</v>
+        <v>-5.2187886676066707E-3</v>
       </c>
       <c r="C41">
-        <v>0.0001501389602096095</v>
+        <v>-2.3039781954573742E-2</v>
       </c>
       <c r="D41">
-        <v>-0.003365070176551616</v>
+        <v>1.0151035482780469E-3</v>
       </c>
       <c r="E41">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B42">
-        <v>0.003382280188991988</v>
+        <v>-7.8739796315437666E-3</v>
       </c>
       <c r="C42">
-        <v>0.0002119965103592119</v>
+        <v>-3.4761854786643398E-2</v>
       </c>
       <c r="D42">
-        <v>-0.00475148578055185</v>
+        <v>1.5315631983072191E-3</v>
       </c>
       <c r="E42">
         <v>0.999</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B43">
-        <v>-0.002704457063548203</v>
+        <v>5.2044733990200707E-3</v>
       </c>
       <c r="C43">
-        <v>-0.0001695115211786786</v>
+        <v>2.2976583253138751E-2</v>
       </c>
       <c r="D43">
-        <v>0.00379926811604334</v>
+        <v>-1.0123190937116049E-3</v>
       </c>
       <c r="E43">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1260,43 +1320,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>0.002395379196819653</v>
+        <v>-5.2187886676066707E-3</v>
       </c>
       <c r="C45">
-        <v>0.0001501389602096095</v>
+        <v>-2.3039781954573742E-2</v>
       </c>
       <c r="D45">
-        <v>-0.003365070176551616</v>
+        <v>1.0151035482780469E-3</v>
       </c>
       <c r="E45">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>-0.002345411108423894</v>
+        <v>2.9980582652558711E-3</v>
       </c>
       <c r="C46">
-        <v>-0.0008619815644675622</v>
+        <v>2.2122762099177112E-2</v>
       </c>
       <c r="D46">
-        <v>0.0034916491064719</v>
+        <v>-1.370068136889575E-4</v>
       </c>
       <c r="E46">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1311,60 +1371,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B48">
-        <v>0.002077281862281599</v>
+        <v>-3.002971414948818E-3</v>
       </c>
       <c r="C48">
-        <v>0.0007634391527602359</v>
+        <v>-2.215901637851329E-2</v>
       </c>
       <c r="D48">
-        <v>-0.003092481029136041</v>
+        <v>1.3723133733895069E-4</v>
       </c>
       <c r="E48">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B49">
-        <v>-0.004489569945849323</v>
+        <v>4.5046572205996319E-3</v>
       </c>
       <c r="C49">
-        <v>-0.001649999231183961</v>
+        <v>3.3240001098231123E-2</v>
       </c>
       <c r="D49">
-        <v>0.006683690903298436</v>
+        <v>-2.058561501981477E-4</v>
       </c>
       <c r="E49">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>-0.002345411108423894</v>
+        <v>2.9980582652558711E-3</v>
       </c>
       <c r="C50">
-        <v>-0.0008619815644675622</v>
+        <v>2.2122762099177112E-2</v>
       </c>
       <c r="D50">
-        <v>0.0034916491064719</v>
+        <v>-1.370068136889575E-4</v>
       </c>
       <c r="E50">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1379,60 +1439,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B52">
-        <v>0.002077281862281599</v>
+        <v>-3.002971414948818E-3</v>
       </c>
       <c r="C52">
-        <v>0.0007634391527602359</v>
+        <v>-2.215901637851329E-2</v>
       </c>
       <c r="D52">
-        <v>-0.003092481029136041</v>
+        <v>1.3723133733895069E-4</v>
       </c>
       <c r="E52">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B53">
-        <v>0.002933002480337377</v>
+        <v>-4.4863428702217184E-3</v>
       </c>
       <c r="C53">
-        <v>0.001077932161874763</v>
+        <v>-3.3104858956029631E-2</v>
       </c>
       <c r="D53">
-        <v>-0.004366405297974301</v>
+        <v>2.050192115638524E-4</v>
       </c>
       <c r="E53">
         <v>0.999</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B54">
-        <v>-0.002345411108423894</v>
+        <v>2.9980582652558711E-3</v>
       </c>
       <c r="C54">
-        <v>-0.0008619815644675622</v>
+        <v>2.2122762099177112E-2</v>
       </c>
       <c r="D54">
-        <v>0.0034916491064719</v>
+        <v>-1.370068136889575E-4</v>
       </c>
       <c r="E54">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1447,43 +1507,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B56">
-        <v>0.002077281862281599</v>
+        <v>-3.002971414948818E-3</v>
       </c>
       <c r="C56">
-        <v>0.0007634391527602359</v>
+        <v>-2.215901637851329E-2</v>
       </c>
       <c r="D56">
-        <v>-0.003092481029136041</v>
+        <v>1.3723133733895069E-4</v>
       </c>
       <c r="E56">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B57">
-        <v>-0.002345411108423894</v>
+        <v>-6.3888978783183462E-3</v>
       </c>
       <c r="C57">
-        <v>-0.0008619815644675622</v>
+        <v>5.9611446236400032E-3</v>
       </c>
       <c r="D57">
-        <v>0.0034916491064719</v>
+        <v>6.4734121350843053E-3</v>
       </c>
       <c r="E57">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1498,60 +1558,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B59">
-        <v>0.002077281862281599</v>
+        <v>6.3984648121730367E-3</v>
       </c>
       <c r="C59">
-        <v>0.0007634391527602359</v>
+        <v>-5.9700710265030311E-3</v>
       </c>
       <c r="D59">
-        <v>-0.003092481029136041</v>
+        <v>-6.4831056232085519E-3</v>
       </c>
       <c r="E59">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B60">
-        <v>-0.004489569945849323</v>
+        <v>-9.1255790426232278E-3</v>
       </c>
       <c r="C60">
-        <v>-0.001649999231183961</v>
+        <v>8.5145978983551945E-3</v>
       </c>
       <c r="D60">
-        <v>0.006683690903298436</v>
+        <v>9.2462949383904196E-3</v>
       </c>
       <c r="E60">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B61">
-        <v>-0.002345411108423894</v>
+        <v>-6.3888978783183462E-3</v>
       </c>
       <c r="C61">
-        <v>-0.0008619815644675622</v>
+        <v>5.9611446236400032E-3</v>
       </c>
       <c r="D61">
-        <v>0.0034916491064719</v>
+        <v>6.4734121350843053E-3</v>
       </c>
       <c r="E61">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1566,60 +1626,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>0.002077281862281599</v>
+        <v>6.3984648121730367E-3</v>
       </c>
       <c r="C63">
-        <v>0.0007634391527602359</v>
+        <v>-5.9700710265030311E-3</v>
       </c>
       <c r="D63">
-        <v>-0.003092481029136041</v>
+        <v>-6.4831056232085519E-3</v>
       </c>
       <c r="E63">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B64">
-        <v>0.002933002480337377</v>
+        <v>9.0577212774574506E-3</v>
       </c>
       <c r="C64">
-        <v>0.001077932161874763</v>
+        <v>-8.4512833862602429E-3</v>
       </c>
       <c r="D64">
-        <v>-0.004366405297974301</v>
+        <v>-9.1775395303607243E-3</v>
       </c>
       <c r="E64">
         <v>0.999</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B65">
-        <v>-0.002345411108423894</v>
+        <v>-6.3888978783183462E-3</v>
       </c>
       <c r="C65">
-        <v>-0.0008619815644675622</v>
+        <v>5.9611446236400032E-3</v>
       </c>
       <c r="D65">
-        <v>0.0034916491064719</v>
+        <v>6.4734121350843053E-3</v>
       </c>
       <c r="E65">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1634,43 +1694,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B67">
-        <v>0.002077281862281599</v>
+        <v>6.3984648121730367E-3</v>
       </c>
       <c r="C67">
-        <v>0.0007634391527602359</v>
+        <v>-5.9700710265030311E-3</v>
       </c>
       <c r="D67">
-        <v>-0.003092481029136041</v>
+        <v>-6.4831056232085519E-3</v>
       </c>
       <c r="E67">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B68">
-        <v>0.0008102720982199635</v>
+        <v>-6.3772217242358826E-5</v>
       </c>
       <c r="C68">
-        <v>0.004043412171318096</v>
+        <v>1.6195576286005112E-2</v>
       </c>
       <c r="D68">
-        <v>-0.0006401573047842046</v>
+        <v>2.8209315300023901E-3</v>
       </c>
       <c r="E68">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1685,60 +1745,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>-0.000704391006559916</v>
+        <v>6.3967871600699485E-5</v>
       </c>
       <c r="C70">
-        <v>-0.003515045347789068</v>
+        <v>-1.6245264617746079E-2</v>
       </c>
       <c r="D70">
-        <v>0.0005565057087171449</v>
+        <v>-2.829586200833858E-3</v>
       </c>
       <c r="E70">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B71">
-        <v>0.001728737965671143</v>
+        <v>-9.4888345579242106E-5</v>
       </c>
       <c r="C71">
-        <v>0.008626731867937059</v>
+        <v>2.409782042924918E-2</v>
       </c>
       <c r="D71">
-        <v>-0.001365793341783988</v>
+        <v>4.1973376095264976E-3</v>
       </c>
       <c r="E71">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>0.0008102720982199635</v>
+        <v>-6.3772217242358826E-5</v>
       </c>
       <c r="C72">
-        <v>0.004043412171318096</v>
+        <v>1.6195576286005112E-2</v>
       </c>
       <c r="D72">
-        <v>-0.0006401573047842046</v>
+        <v>2.8209315300023901E-3</v>
       </c>
       <c r="E72">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1753,60 +1813,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B74">
-        <v>-0.000704391006559916</v>
+        <v>6.3967871600699485E-5</v>
       </c>
       <c r="C74">
-        <v>-0.003515045347789068</v>
+        <v>-1.6245264617746079E-2</v>
       </c>
       <c r="D74">
-        <v>0.0005565057087171449</v>
+        <v>-2.829586200833858E-3</v>
       </c>
       <c r="E74">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>-0.00101754829053298</v>
+        <v>9.4088334802669527E-5</v>
       </c>
       <c r="C75">
-        <v>-0.005077759868423919</v>
+        <v>-2.38946498932089E-2</v>
       </c>
       <c r="D75">
-        <v>0.0008039163295717178</v>
+        <v>-4.161949540527757E-3</v>
       </c>
       <c r="E75">
         <v>0.999</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B76">
-        <v>0.0008102720982199635</v>
+        <v>-6.3772217242358826E-5</v>
       </c>
       <c r="C76">
-        <v>0.004043412171318096</v>
+        <v>1.6195576286005112E-2</v>
       </c>
       <c r="D76">
-        <v>-0.0006401573047842046</v>
+        <v>2.8209315300023901E-3</v>
       </c>
       <c r="E76">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1821,43 +1881,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B78">
-        <v>-0.000704391006559916</v>
+        <v>6.3967871600699485E-5</v>
       </c>
       <c r="C78">
-        <v>-0.003515045347789068</v>
+        <v>-1.6245264617746079E-2</v>
       </c>
       <c r="D78">
-        <v>0.0005565057087171449</v>
+        <v>-2.829586200833858E-3</v>
       </c>
       <c r="E78">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B79">
-        <v>0.0008102720982199635</v>
+        <v>4.5901252547102771E-4</v>
       </c>
       <c r="C79">
-        <v>0.004043412171318096</v>
+        <v>1.5187528254684789E-2</v>
       </c>
       <c r="D79">
-        <v>-0.0006401573047842046</v>
+        <v>1.6919452125178801E-3</v>
       </c>
       <c r="E79">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1872,60 +1932,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B81">
-        <v>-0.000704391006559916</v>
+        <v>-4.5932978847421861E-4</v>
       </c>
       <c r="C81">
-        <v>-0.003515045347789068</v>
+        <v>-1.519802566065466E-2</v>
       </c>
       <c r="D81">
-        <v>0.0005565057087171449</v>
+        <v>-1.6931146612574469E-3</v>
       </c>
       <c r="E81">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B82">
-        <v>0.001728737965671143</v>
+        <v>6.6683416672094558E-4</v>
       </c>
       <c r="C82">
-        <v>0.008626731867937059</v>
+        <v>2.206380476844479E-2</v>
       </c>
       <c r="D82">
-        <v>-0.001365793341783988</v>
+        <v>2.4579871208722979E-3</v>
       </c>
       <c r="E82">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B83">
-        <v>0.0008102720982199635</v>
+        <v>4.5901252547102771E-4</v>
       </c>
       <c r="C83">
-        <v>0.004043412171318096</v>
+        <v>1.5187528254684789E-2</v>
       </c>
       <c r="D83">
-        <v>-0.0006401573047842046</v>
+        <v>1.6919452125178801E-3</v>
       </c>
       <c r="E83">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1940,60 +2000,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B85">
-        <v>-0.000704391006559916</v>
+        <v>-4.5932978847421861E-4</v>
       </c>
       <c r="C85">
-        <v>-0.003515045347789068</v>
+        <v>-1.519802566065466E-2</v>
       </c>
       <c r="D85">
-        <v>0.0005565057087171449</v>
+        <v>-1.6931146612574469E-3</v>
       </c>
       <c r="E85">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B86">
-        <v>-0.00101754829053298</v>
+        <v>-6.6213704818375812E-4</v>
       </c>
       <c r="C86">
-        <v>-0.005077759868423919</v>
+        <v>-2.1908389357011442E-2</v>
       </c>
       <c r="D86">
-        <v>0.0008039163295717178</v>
+        <v>-2.4406732856703758E-3</v>
       </c>
       <c r="E86">
         <v>0.999</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B87">
-        <v>0.0008102720982199635</v>
+        <v>4.5901252547102771E-4</v>
       </c>
       <c r="C87">
-        <v>0.004043412171318096</v>
+        <v>1.5187528254684789E-2</v>
       </c>
       <c r="D87">
-        <v>-0.0006401573047842046</v>
+        <v>1.6919452125178801E-3</v>
       </c>
       <c r="E87">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2008,43 +2068,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B89">
-        <v>-0.000704391006559916</v>
+        <v>-4.5932978847421861E-4</v>
       </c>
       <c r="C89">
-        <v>-0.003515045347789068</v>
+        <v>-1.519802566065466E-2</v>
       </c>
       <c r="D89">
-        <v>0.0005565057087171449</v>
+        <v>-1.6931146612574469E-3</v>
       </c>
       <c r="E89">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B90">
-        <v>0.0008102720982199635</v>
+        <v>-1.010909527623805E-3</v>
       </c>
       <c r="C90">
-        <v>0.004043412171318096</v>
+        <v>1.8793418095448419E-2</v>
       </c>
       <c r="D90">
-        <v>-0.0006401573047842046</v>
+        <v>2.5733863236415779E-3</v>
       </c>
       <c r="E90">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2059,60 +2119,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B92">
-        <v>-0.000704391006559916</v>
+        <v>1.014831166023016E-3</v>
       </c>
       <c r="C92">
-        <v>-0.003515045347789068</v>
+        <v>-1.8866323719583529E-2</v>
       </c>
       <c r="D92">
-        <v>0.0005565057087171449</v>
+        <v>-2.5833693046572181E-3</v>
       </c>
       <c r="E92">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B93">
-        <v>0.001728737965671143</v>
+        <v>-1.50737559696098E-3</v>
       </c>
       <c r="C93">
-        <v>0.008626731867937059</v>
+        <v>2.8023021889161549E-2</v>
       </c>
       <c r="D93">
-        <v>-0.001365793341783988</v>
+        <v>3.837197731164308E-3</v>
       </c>
       <c r="E93">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B94">
-        <v>0.0008102720982199635</v>
+        <v>-1.010909527623805E-3</v>
       </c>
       <c r="C94">
-        <v>0.004043412171318096</v>
+        <v>1.8793418095448419E-2</v>
       </c>
       <c r="D94">
-        <v>-0.0006401573047842046</v>
+        <v>2.5733863236415779E-3</v>
       </c>
       <c r="E94">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2127,60 +2187,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B96">
-        <v>-0.000704391006559916</v>
+        <v>1.014831166023016E-3</v>
       </c>
       <c r="C96">
-        <v>-0.003515045347789068</v>
+        <v>-1.8866323719583529E-2</v>
       </c>
       <c r="D96">
-        <v>0.0005565057087171449</v>
+        <v>-2.5833693046572181E-3</v>
       </c>
       <c r="E96">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B97">
-        <v>-0.00101754829053298</v>
+        <v>1.494637136424621E-3</v>
       </c>
       <c r="C97">
-        <v>-0.005077759868423919</v>
+        <v>-2.7786206221477729E-2</v>
       </c>
       <c r="D97">
-        <v>0.0008039163295717178</v>
+        <v>-3.8047705166285349E-3</v>
       </c>
       <c r="E97">
         <v>0.999</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B98">
-        <v>0.0008102720982199635</v>
+        <v>-1.010909527623805E-3</v>
       </c>
       <c r="C98">
-        <v>0.004043412171318096</v>
+        <v>1.8793418095448419E-2</v>
       </c>
       <c r="D98">
-        <v>-0.0006401573047842046</v>
+        <v>2.5733863236415779E-3</v>
       </c>
       <c r="E98">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2195,43 +2255,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B100">
-        <v>-0.000704391006559916</v>
+        <v>1.014831166023016E-3</v>
       </c>
       <c r="C100">
-        <v>-0.003515045347789068</v>
+        <v>-1.8866323719583529E-2</v>
       </c>
       <c r="D100">
-        <v>0.0005565057087171449</v>
+        <v>-2.5833693046572181E-3</v>
       </c>
       <c r="E100">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101">
-        <v>0.0008102720982199635</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C101">
-        <v>0.004043412171318096</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D101">
-        <v>-0.0006401573047842046</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E101">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2246,60 +2306,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B103">
-        <v>-0.000704391006559916</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C103">
-        <v>-0.003515045347789068</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D103">
-        <v>0.0005565057087171449</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E103">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B104">
-        <v>0.001728737965671143</v>
+        <v>2.5060786688167751E-3</v>
       </c>
       <c r="C104">
-        <v>0.008626731867937059</v>
+        <v>1.171110618766486E-2</v>
       </c>
       <c r="D104">
-        <v>-0.001365793341783988</v>
+        <v>-1.665478465413237E-3</v>
       </c>
       <c r="E104">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B105">
-        <v>0.0008102720982199635</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C105">
-        <v>0.004043412171318096</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D105">
-        <v>-0.0006401573047842046</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E105">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2314,60 +2374,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B107">
-        <v>-0.000704391006559916</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C107">
-        <v>-0.003515045347789068</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D107">
-        <v>0.0005565057087171449</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E107">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B108">
-        <v>-0.00101754829053298</v>
+        <v>-2.4854931304792169E-3</v>
       </c>
       <c r="C108">
-        <v>-0.005077759868423919</v>
+        <v>-1.16149083194969E-2</v>
       </c>
       <c r="D108">
-        <v>0.0008039163295717178</v>
+        <v>1.6517978211354871E-3</v>
       </c>
       <c r="E108">
         <v>0.999</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B109">
-        <v>0.0008102720982199635</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C109">
-        <v>0.004043412171318096</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D109">
-        <v>-0.0006401573047842046</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E109">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2382,43 +2442,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B111">
-        <v>-0.000704391006559916</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C111">
-        <v>-0.003515045347789068</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D111">
-        <v>0.0005565057087171449</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E111">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112">
-        <v>1.064768226825752E-07</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C112">
-        <v>5.324485737885094E-07</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D112">
-        <v>-4.821748401765738E-08</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E112">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2433,60 +2493,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B114">
-        <v>-9.620909917469598E-08</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C114">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D114">
-        <v>4.35677979952371E-08</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E114">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B115">
-        <v>3.949733726946121E-06</v>
+        <v>2.5060786688167751E-3</v>
       </c>
       <c r="C115">
-        <v>1.975105977782895E-05</v>
+        <v>1.171110618766486E-2</v>
       </c>
       <c r="D115">
-        <v>-1.788616696619303E-06</v>
+        <v>-1.665478465413237E-3</v>
       </c>
       <c r="E115">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116">
-        <v>1.064768226825752E-07</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C116">
-        <v>5.324485737885094E-07</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D116">
-        <v>-4.821748401765738E-08</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E116">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2501,60 +2561,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118">
-        <v>-9.620909917469598E-08</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C118">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D118">
-        <v>4.35677979952371E-08</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E118">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B119">
-        <v>-9.186432457955544E-06</v>
+        <v>-2.4854931304792169E-3</v>
       </c>
       <c r="C119">
-        <v>-4.59377236962139E-05</v>
+        <v>-1.16149083194969E-2</v>
       </c>
       <c r="D119">
-        <v>4.160028906396435E-06</v>
+        <v>1.6517978211354871E-3</v>
       </c>
       <c r="E119">
         <v>0.999</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B120">
-        <v>1.064768226825752E-07</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C120">
-        <v>5.324485737885094E-07</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D120">
-        <v>-4.821748401765738E-08</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E120">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2569,43 +2629,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B122">
-        <v>-9.620909917469598E-08</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C122">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D122">
-        <v>4.35677979952371E-08</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E122">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B123">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C123">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D123">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E123">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2620,60 +2680,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B125">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C125">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D125">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E125">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>3.949733726946121E-06</v>
+        <v>2.9034311282590359E-3</v>
       </c>
       <c r="C126">
-        <v>1.975105977782895E-05</v>
+        <v>1.150178728943161E-2</v>
       </c>
       <c r="D126">
-        <v>-1.788616696619303E-06</v>
+        <v>-1.394839967912316E-3</v>
       </c>
       <c r="E126">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B127">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C127">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D127">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E127">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2688,60 +2748,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B129">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C129">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D129">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E129">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B130">
-        <v>-9.186432457955544E-06</v>
+        <v>-2.8895654002783129E-3</v>
       </c>
       <c r="C130">
-        <v>-4.59377236962139E-05</v>
+        <v>-1.144685894885719E-2</v>
       </c>
       <c r="D130">
-        <v>4.160028906396435E-06</v>
+        <v>1.3881787210229121E-3</v>
       </c>
       <c r="E130">
         <v>0.999</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B131">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C131">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D131">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E131">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2756,43 +2816,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B133">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C133">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D133">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E133">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B134">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C134">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D134">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E134">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2807,60 +2867,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B136">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C136">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D136">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E136">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B137">
-        <v>3.949733726946121E-06</v>
+        <v>2.9034311282590359E-3</v>
       </c>
       <c r="C137">
-        <v>1.975105977782895E-05</v>
+        <v>1.150178728943161E-2</v>
       </c>
       <c r="D137">
-        <v>-1.788616696619303E-06</v>
+        <v>-1.394839967912316E-3</v>
       </c>
       <c r="E137">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B138">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C138">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D138">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E138">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2875,60 +2935,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B140">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C140">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D140">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E140">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B141">
-        <v>-9.186432457955544E-06</v>
+        <v>-2.8895654002783129E-3</v>
       </c>
       <c r="C141">
-        <v>-4.59377236962139E-05</v>
+        <v>-1.144685894885719E-2</v>
       </c>
       <c r="D141">
-        <v>4.160028906396435E-06</v>
+        <v>1.3881787210229121E-3</v>
       </c>
       <c r="E141">
         <v>0.999</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B142">
-        <v>1.064768226825752E-07</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C142">
-        <v>5.324485737885094E-07</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D142">
-        <v>-4.821748401765738E-08</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E142">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2943,43 +3003,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B144">
-        <v>-9.620909917469598E-08</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C144">
-        <v>-4.811037402361111E-07</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D144">
-        <v>4.35677979952371E-08</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E144">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B145">
-        <v>1.064768226825752E-07</v>
+        <v>-1.703478266755756E-2</v>
       </c>
       <c r="C145">
-        <v>5.324485737885094E-07</v>
+        <v>2.5294737486204821E-2</v>
       </c>
       <c r="D145">
-        <v>-4.821748401765738E-08</v>
+        <v>8.6550853590235833E-3</v>
       </c>
       <c r="E145">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2994,60 +3054,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B147">
-        <v>-9.620909917469598E-08</v>
+        <v>1.704732498370392E-2</v>
       </c>
       <c r="C147">
-        <v>-4.811037402361111E-07</v>
+        <v>-2.5313361415877589E-2</v>
       </c>
       <c r="D147">
-        <v>4.35677979952371E-08</v>
+        <v>-8.6614578980201279E-3</v>
       </c>
       <c r="E147">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B148">
-        <v>3.949733726946121E-06</v>
+        <v>-2.4579065556139361E-2</v>
       </c>
       <c r="C148">
-        <v>1.975105977782895E-05</v>
+        <v>3.6497149569323283E-2</v>
       </c>
       <c r="D148">
-        <v>-1.788616696619303E-06</v>
+        <v>1.2488208073154381E-2</v>
       </c>
       <c r="E148">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B149">
-        <v>1.064768226825752E-07</v>
+        <v>-1.703478266755756E-2</v>
       </c>
       <c r="C149">
-        <v>5.324485737885094E-07</v>
+        <v>2.5294737486204821E-2</v>
       </c>
       <c r="D149">
-        <v>-4.821748401765738E-08</v>
+        <v>8.6550853590235833E-3</v>
       </c>
       <c r="E149">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3062,60 +3122,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B151">
-        <v>-9.620909917469598E-08</v>
+        <v>1.704732498370392E-2</v>
       </c>
       <c r="C151">
-        <v>-4.811037402361111E-07</v>
+        <v>-2.5313361415877589E-2</v>
       </c>
       <c r="D151">
-        <v>4.35677979952371E-08</v>
+        <v>-8.6614578980201279E-3</v>
       </c>
       <c r="E151">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B152">
-        <v>-9.186432457955544E-06</v>
+        <v>2.440603382293249E-2</v>
       </c>
       <c r="C152">
-        <v>-4.59377236962139E-05</v>
+        <v>-3.6240216894943687E-2</v>
       </c>
       <c r="D152">
-        <v>4.160028906396435E-06</v>
+        <v>-1.240029357198629E-2</v>
       </c>
       <c r="E152">
         <v>0.999</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B153">
-        <v>1.064768226825752E-07</v>
+        <v>-1.703478266755756E-2</v>
       </c>
       <c r="C153">
-        <v>5.324485737885094E-07</v>
+        <v>2.5294737486204821E-2</v>
       </c>
       <c r="D153">
-        <v>-4.821748401765738E-08</v>
+        <v>8.6550853590235833E-3</v>
       </c>
       <c r="E153">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3130,43 +3190,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B155">
-        <v>-9.620909917469598E-08</v>
+        <v>1.704732498370392E-2</v>
       </c>
       <c r="C155">
-        <v>-4.811037402361111E-07</v>
+        <v>-2.5313361415877589E-2</v>
       </c>
       <c r="D155">
-        <v>4.35677979952371E-08</v>
+        <v>-8.6614578980201279E-3</v>
       </c>
       <c r="E155">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B156">
-        <v>0.003216933440308844</v>
+        <v>9.0710663519456714E-3</v>
       </c>
       <c r="C156">
-        <v>0.008400584421080952</v>
+        <v>1.8774072938958102E-2</v>
       </c>
       <c r="D156">
-        <v>0.002197392172649259</v>
+        <v>1.1427777908371471E-3</v>
       </c>
       <c r="E156">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3181,60 +3241,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B158">
-        <v>-0.003342477993797991</v>
+        <v>-9.0857400251268036E-3</v>
       </c>
       <c r="C158">
-        <v>-0.008728426958006815</v>
+        <v>-1.880444253387634E-2</v>
       </c>
       <c r="D158">
-        <v>-0.00228314794729448</v>
+        <v>-1.1446263880329781E-3</v>
       </c>
       <c r="E158">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B159">
-        <v>0.006301645374815236</v>
+        <v>1.293989027224408E-2</v>
       </c>
       <c r="C159">
-        <v>0.01645589035182755</v>
+        <v>2.678124427357069E-2</v>
       </c>
       <c r="D159">
-        <v>0.004304467741832108</v>
+        <v>1.630174297624711E-3</v>
       </c>
       <c r="E159">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B160">
-        <v>0.003216933440308844</v>
+        <v>9.0710663519456714E-3</v>
       </c>
       <c r="C160">
-        <v>0.008400584421080952</v>
+        <v>1.8774072938958102E-2</v>
       </c>
       <c r="D160">
-        <v>0.002197392172649259</v>
+        <v>1.1427777908371471E-3</v>
       </c>
       <c r="E160">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -3249,60 +3309,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B162">
-        <v>-0.003342477993797991</v>
+        <v>-9.0857400251268036E-3</v>
       </c>
       <c r="C162">
-        <v>-0.008728426958006815</v>
+        <v>-1.880444253387634E-2</v>
       </c>
       <c r="D162">
-        <v>-0.00228314794729448</v>
+        <v>-1.1446263880329781E-3</v>
       </c>
       <c r="E162">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B163">
-        <v>-0.005317843429465818</v>
+        <v>-1.2859225434994541E-2</v>
       </c>
       <c r="C163">
-        <v>-0.01388682529378954</v>
+        <v>-2.6614295044078251E-2</v>
       </c>
       <c r="D163">
-        <v>-0.00363246170432442</v>
+        <v>-1.6200120982830101E-3</v>
       </c>
       <c r="E163">
         <v>0.999</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B164">
-        <v>0.003216933440308844</v>
+        <v>9.0710663519456714E-3</v>
       </c>
       <c r="C164">
-        <v>0.008400584421080952</v>
+        <v>1.8774072938958102E-2</v>
       </c>
       <c r="D164">
-        <v>0.002197392172649259</v>
+        <v>1.1427777908371471E-3</v>
       </c>
       <c r="E164">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3317,43 +3377,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B166">
-        <v>-0.003342477993797991</v>
+        <v>-9.0857400251268036E-3</v>
       </c>
       <c r="C166">
-        <v>-0.008728426958006815</v>
+        <v>-1.880444253387634E-2</v>
       </c>
       <c r="D166">
-        <v>-0.00228314794729448</v>
+        <v>-1.1446263880329781E-3</v>
       </c>
       <c r="E166">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B167">
-        <v>0.004525511603959153</v>
+        <v>1.3089967469625519E-3</v>
       </c>
       <c r="C167">
-        <v>0.01307172025776565</v>
+        <v>2.0922235600771701E-2</v>
       </c>
       <c r="D167">
-        <v>0.003267324762643081</v>
+        <v>9.8985680028970333E-3</v>
       </c>
       <c r="E167">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3368,60 +3428,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B169">
-        <v>-0.004647107802191067</v>
+        <v>-1.3132757391294851E-3</v>
       </c>
       <c r="C169">
-        <v>-0.01342294496489155</v>
+        <v>-2.0990628499728992E-2</v>
       </c>
       <c r="D169">
-        <v>-0.003355114675540181</v>
+        <v>-9.9309255278844204E-3</v>
       </c>
       <c r="E169">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B170">
-        <v>0.01118983244392703</v>
+        <v>1.9899023798830621E-3</v>
       </c>
       <c r="C170">
-        <v>0.03232128701433874</v>
+        <v>3.1805431534537479E-2</v>
       </c>
       <c r="D170">
-        <v>0.00807882507734251</v>
+        <v>1.5047542380915199E-2</v>
       </c>
       <c r="E170">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B171">
-        <v>0.004525511603959153</v>
+        <v>1.3089967469625519E-3</v>
       </c>
       <c r="C171">
-        <v>0.01307172025776565</v>
+        <v>2.0922235600771701E-2</v>
       </c>
       <c r="D171">
-        <v>0.003267324762643081</v>
+        <v>9.8985680028970333E-3</v>
       </c>
       <c r="E171">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3436,60 +3496,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B173">
-        <v>-0.004647107802191067</v>
+        <v>-1.3132757391294851E-3</v>
       </c>
       <c r="C173">
-        <v>-0.01342294496489155</v>
+        <v>-2.0990628499728992E-2</v>
       </c>
       <c r="D173">
-        <v>-0.003355114675540181</v>
+        <v>-9.9309255278844204E-3</v>
       </c>
       <c r="E173">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B174">
-        <v>-0.009211924016608057</v>
+        <v>-1.9715579617832252E-3</v>
       </c>
       <c r="C174">
-        <v>-0.0266081946791491</v>
+        <v>-3.151222512410564E-2</v>
       </c>
       <c r="D174">
-        <v>-0.006650816545187602</v>
+        <v>-1.4908822807733559E-2</v>
       </c>
       <c r="E174">
         <v>0.999</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B175">
-        <v>0.004525511603959153</v>
+        <v>1.3089967469625519E-3</v>
       </c>
       <c r="C175">
-        <v>0.01307172025776565</v>
+        <v>2.0922235600771701E-2</v>
       </c>
       <c r="D175">
-        <v>0.003267324762643081</v>
+        <v>9.8985680028970333E-3</v>
       </c>
       <c r="E175">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3504,43 +3564,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B177">
-        <v>-0.004647107802191067</v>
+        <v>-1.3132757391294851E-3</v>
       </c>
       <c r="C177">
-        <v>-0.01342294496489155</v>
+        <v>-2.0990628499728992E-2</v>
       </c>
       <c r="D177">
-        <v>-0.003355114675540181</v>
+        <v>-9.9309255278844204E-3</v>
       </c>
       <c r="E177">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B178">
-        <v>0.004629886411310037</v>
+        <v>1.1446536471277421E-3</v>
       </c>
       <c r="C178">
-        <v>0.01286063338285945</v>
+        <v>6.5443290556208124E-3</v>
       </c>
       <c r="D178">
-        <v>0.002759826480313126</v>
+        <v>1.692195004568748E-3</v>
       </c>
       <c r="E178">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3555,60 +3615,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B180">
-        <v>-0.004754707509039039</v>
+        <v>-1.145780772336508E-3</v>
       </c>
       <c r="C180">
-        <v>-0.01320735428132844</v>
+        <v>-6.5507731693241634E-3</v>
       </c>
       <c r="D180">
-        <v>-0.002834231020772852</v>
+        <v>-1.6938612864633479E-3</v>
       </c>
       <c r="E180">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>0.01144648014531487</v>
+        <v>1.680630543784146E-3</v>
       </c>
       <c r="C181">
-        <v>0.03179537716378255</v>
+        <v>9.6086701222234117E-3</v>
       </c>
       <c r="D181">
-        <v>0.006823126142846311</v>
+        <v>2.484554710373284E-3</v>
       </c>
       <c r="E181">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B182">
-        <v>0.004629886411310037</v>
+        <v>1.1446536471277421E-3</v>
       </c>
       <c r="C182">
-        <v>0.01286063338285945</v>
+        <v>6.5443290556208124E-3</v>
       </c>
       <c r="D182">
-        <v>0.002759826480313126</v>
+        <v>1.692195004568748E-3</v>
       </c>
       <c r="E182">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3623,60 +3683,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>-0.004754707509039039</v>
+        <v>-1.145780772336508E-3</v>
       </c>
       <c r="C184">
-        <v>-0.01320735428132844</v>
+        <v>-6.5507731693241634E-3</v>
       </c>
       <c r="D184">
-        <v>-0.002834231020772852</v>
+        <v>-1.6938612864633479E-3</v>
       </c>
       <c r="E184">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B185">
-        <v>-0.009423259650983236</v>
+        <v>-1.6974483009696061E-3</v>
       </c>
       <c r="C185">
-        <v>-0.02617539111688419</v>
+        <v>-9.704822296529898E-3</v>
       </c>
       <c r="D185">
-        <v>-0.005617105735492794</v>
+        <v>-2.5094171871309461E-3</v>
       </c>
       <c r="E185">
         <v>0.999</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B186">
-        <v>0.004629886411310037</v>
+        <v>1.1446536471277421E-3</v>
       </c>
       <c r="C186">
-        <v>0.01286063338285945</v>
+        <v>6.5443290556208124E-3</v>
       </c>
       <c r="D186">
-        <v>0.002759826480313126</v>
+        <v>1.692195004568748E-3</v>
       </c>
       <c r="E186">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3691,43 +3751,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B188">
-        <v>-0.004754707509039039</v>
+        <v>-1.145780772336508E-3</v>
       </c>
       <c r="C188">
-        <v>-0.01320735428132844</v>
+        <v>-6.5507731693241634E-3</v>
       </c>
       <c r="D188">
-        <v>-0.002834231020772852</v>
+        <v>-1.6938612864633479E-3</v>
       </c>
       <c r="E188">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B189">
-        <v>6.545598750635918E-12</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C189">
-        <v>6.989847671933021E-12</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D189">
-        <v>-6.989847671933061E-12</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E189">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -3742,60 +3802,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B191">
-        <v>-4.300518803657678E-12</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C191">
-        <v>-4.59239444595201E-12</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D191">
-        <v>4.592394445952037E-12</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E191">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B192">
-        <v>5.079186344717549E-07</v>
+        <v>2.5060786688167751E-3</v>
       </c>
       <c r="C192">
-        <v>5.423910050014719E-07</v>
+        <v>1.171110618766486E-2</v>
       </c>
       <c r="D192">
-        <v>-5.423910050014751E-07</v>
+        <v>-1.665478465413237E-3</v>
       </c>
       <c r="E192">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B193">
-        <v>6.545598750635918E-12</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C193">
-        <v>6.989847671933021E-12</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D193">
-        <v>-6.989847671933061E-12</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E193">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -3810,60 +3870,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B195">
-        <v>-4.300518803657678E-12</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C195">
-        <v>-4.59239444595201E-12</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D195">
-        <v>4.592394445952037E-12</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E195">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B196">
-        <v>-2.864896352206855E-06</v>
+        <v>-2.4854931304792169E-3</v>
       </c>
       <c r="C196">
-        <v>-3.059336488637805E-06</v>
+        <v>-1.16149083194969E-2</v>
       </c>
       <c r="D196">
-        <v>3.059336488637822E-06</v>
+        <v>1.6517978211354871E-3</v>
       </c>
       <c r="E196">
         <v>0.999</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B197">
-        <v>6.545598750635918E-12</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C197">
-        <v>6.989847671933021E-12</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D197">
-        <v>-6.989847671933061E-12</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E197">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -3878,43 +3938,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B199">
-        <v>-4.300518803657678E-12</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C199">
-        <v>-4.59239444595201E-12</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D199">
-        <v>4.592394445952037E-12</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E199">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B200">
-        <v>5.689846417331528E-12</v>
+        <v>8.1062040670740951E-2</v>
       </c>
       <c r="C200">
-        <v>6.072430567747047E-12</v>
+        <v>1.6152175406900861E-2</v>
       </c>
       <c r="D200">
-        <v>-6.072430567746766E-12</v>
+        <v>4.278252937390173E-3</v>
       </c>
       <c r="E200">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3929,60 +3989,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>-3.735369576646681E-12</v>
+        <v>-8.112571244911139E-2</v>
       </c>
       <c r="C202">
-        <v>-3.986535089940021E-12</v>
+        <v>-1.6164862451591561E-2</v>
       </c>
       <c r="D202">
-        <v>3.986535089939837E-12</v>
+        <v>-4.2816133755260513E-3</v>
       </c>
       <c r="E202">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B203">
-        <v>4.503583955492744E-07</v>
+        <v>0.1126545686278336</v>
       </c>
       <c r="C203">
-        <v>4.806404052040309E-07</v>
+        <v>2.244720633491655E-2</v>
       </c>
       <c r="D203">
-        <v>-4.806404052040087E-07</v>
+        <v>5.9456280048525269E-3</v>
       </c>
       <c r="E203">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B204">
-        <v>5.689846417331528E-12</v>
+        <v>8.1062040670740951E-2</v>
       </c>
       <c r="C204">
-        <v>6.072430567747047E-12</v>
+        <v>1.6152175406900861E-2</v>
       </c>
       <c r="D204">
-        <v>-6.072430567746766E-12</v>
+        <v>4.278252937390173E-3</v>
       </c>
       <c r="E204">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3997,60 +4057,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B206">
-        <v>-3.735369576646681E-12</v>
+        <v>-8.112571244911139E-2</v>
       </c>
       <c r="C206">
-        <v>-3.986535089940021E-12</v>
+        <v>-1.6164862451591561E-2</v>
       </c>
       <c r="D206">
-        <v>3.986535089939837E-12</v>
+        <v>-4.2816133755260513E-3</v>
       </c>
       <c r="E206">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B207">
-        <v>-2.550368661144071E-06</v>
+        <v>-0.1121527164955345</v>
       </c>
       <c r="C207">
-        <v>-2.721854946696182E-06</v>
+        <v>-2.2347208807070609E-2</v>
       </c>
       <c r="D207">
-        <v>2.721854946696056E-06</v>
+        <v>-5.9191414972174063E-3</v>
       </c>
       <c r="E207">
         <v>0.999</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B208">
-        <v>5.689846417331528E-12</v>
+        <v>8.1062040670740951E-2</v>
       </c>
       <c r="C208">
-        <v>6.072430567747047E-12</v>
+        <v>1.6152175406900861E-2</v>
       </c>
       <c r="D208">
-        <v>-6.072430567746766E-12</v>
+        <v>4.278252937390173E-3</v>
       </c>
       <c r="E208">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -4065,43 +4125,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B210">
-        <v>-3.735369576646681E-12</v>
+        <v>-8.112571244911139E-2</v>
       </c>
       <c r="C210">
-        <v>-3.986535089940021E-12</v>
+        <v>-1.6164862451591561E-2</v>
       </c>
       <c r="D210">
-        <v>3.986535089939837E-12</v>
+        <v>-4.2816133755260513E-3</v>
       </c>
       <c r="E210">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B211">
-        <v>1.278014782658583E-05</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C211">
-        <v>3.72730889785145E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D211">
-        <v>9.2755876650733E-06</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E211">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -4116,60 +4176,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B213">
-        <v>-1.150779563518918E-05</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C213">
-        <v>-3.356229493407622E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D213">
-        <v>-8.35213869935812E-06</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E213">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B214">
-        <v>3.209303802372296E-05</v>
+        <v>-7.17505852130303E-3</v>
       </c>
       <c r="C214">
-        <v>9.359881263350276E-05</v>
+        <v>-3.414848454442065E-3</v>
       </c>
       <c r="D214">
-        <v>2.329251520927811E-05</v>
+        <v>1.018122703696353E-2</v>
       </c>
       <c r="E214">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B215">
-        <v>1.278014782658583E-05</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C215">
-        <v>3.72730889785145E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D215">
-        <v>9.2755876650733E-06</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E215">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -4184,60 +4244,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B217">
-        <v>-1.150779563518918E-05</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C217">
-        <v>-3.356229493407622E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D217">
-        <v>-8.35213869935812E-06</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E217">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B218">
-        <v>-2.856117201963263E-05</v>
+        <v>7.1116897943101142E-3</v>
       </c>
       <c r="C218">
-        <v>-8.329818406355787E-05</v>
+        <v>3.3846891743763712E-3</v>
       </c>
       <c r="D218">
-        <v>-2.07291541913341E-05</v>
+        <v>-1.0091308411959611E-2</v>
       </c>
       <c r="E218">
         <v>0.999</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B219">
-        <v>1.278014782658583E-05</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C219">
-        <v>3.72730889785145E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D219">
-        <v>9.2755876650733E-06</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E219">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -4252,43 +4312,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B221">
-        <v>-1.150779563518918E-05</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C221">
-        <v>-3.356229493407622E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D221">
-        <v>-8.35213869935812E-06</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E221">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B222">
-        <v>1.248351153234353E-05</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C222">
-        <v>3.860096864587388E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D222">
-        <v>1.06636025932723E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E222">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -4303,60 +4363,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B224">
-        <v>-1.123991302592545E-05</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C224">
-        <v>-3.475556770801068E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D224">
-        <v>-9.601302116065162E-06</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E224">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B225">
-        <v>3.112234743940796E-05</v>
+        <v>-5.9195933500270281E-3</v>
       </c>
       <c r="C225">
-        <v>9.62351622443729E-05</v>
+        <v>1.222678246102117E-3</v>
       </c>
       <c r="D225">
-        <v>2.65851754935888E-05</v>
+        <v>9.2063682850255565E-3</v>
       </c>
       <c r="E225">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B226">
-        <v>1.248351153234353E-05</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C226">
-        <v>3.860096864587388E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D226">
-        <v>1.06636025932723E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E226">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -4371,60 +4431,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B228">
-        <v>-1.123991302592545E-05</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C228">
-        <v>-3.475556770801068E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D228">
-        <v>-9.601302116065162E-06</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E228">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B229">
-        <v>-2.766844895111806E-05</v>
+        <v>5.8822186638287574E-3</v>
       </c>
       <c r="C229">
-        <v>-8.555516832542786E-05</v>
+        <v>-1.214958591546909E-3</v>
       </c>
       <c r="D229">
-        <v>-2.363480365460728E-05</v>
+        <v>-9.1482418048211417E-3</v>
       </c>
       <c r="E229">
         <v>0.999</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B230">
-        <v>1.248351153234353E-05</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C230">
-        <v>3.860096864587388E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D230">
-        <v>1.06636025932723E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E230">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4439,43 +4499,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B232">
-        <v>-1.123991302592545E-05</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C232">
-        <v>-3.475556770801068E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D232">
-        <v>-9.601302116065162E-06</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E232">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B233">
-        <v>1.238056890900825E-05</v>
+        <v>1.141083577778877E-3</v>
       </c>
       <c r="C233">
-        <v>3.634413392063143E-05</v>
+        <v>6.5239178957656142E-3</v>
       </c>
       <c r="D233">
-        <v>8.584310124069175E-06</v>
+        <v>1.686917204132544E-3</v>
       </c>
       <c r="E233">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -4490,60 +4550,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B235">
-        <v>-1.114847537713748E-05</v>
+        <v>-1.144386590404151E-3</v>
       </c>
       <c r="C235">
-        <v>-3.272722643809459E-05</v>
+        <v>-6.54280221203797E-3</v>
       </c>
       <c r="D235">
-        <v>-7.730013923533296E-06</v>
+        <v>-1.691800202128088E-3</v>
       </c>
       <c r="E235">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B236">
-        <v>3.112432263557E-05</v>
+        <v>1.700169746816479E-3</v>
       </c>
       <c r="C236">
-        <v>9.136789741810908E-05</v>
+        <v>9.7203816206745206E-3</v>
       </c>
       <c r="D236">
-        <v>2.158065916590594E-05</v>
+        <v>2.513440427766956E-3</v>
       </c>
       <c r="E236">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B237">
-        <v>1.238056890900825E-05</v>
+        <v>1.141083577778877E-3</v>
       </c>
       <c r="C237">
-        <v>3.634413392063143E-05</v>
+        <v>6.5239178957656142E-3</v>
       </c>
       <c r="D237">
-        <v>8.584310124069175E-06</v>
+        <v>1.686917204132544E-3</v>
       </c>
       <c r="E237">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -4558,60 +4618,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B239">
-        <v>-1.114847537713748E-05</v>
+        <v>-1.144386590404151E-3</v>
       </c>
       <c r="C239">
-        <v>-3.272722643809459E-05</v>
+        <v>-6.54280221203797E-3</v>
       </c>
       <c r="D239">
-        <v>-7.730013923533296E-06</v>
+        <v>-1.691800202128088E-3</v>
       </c>
       <c r="E239">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B240">
-        <v>-2.770307552117625E-05</v>
+        <v>-1.68866897099529E-3</v>
       </c>
       <c r="C240">
-        <v>-8.132455738947542E-05</v>
+        <v>-9.6546282274471065E-3</v>
       </c>
       <c r="D240">
-        <v>-1.920847041942084E-05</v>
+        <v>-2.4964382931543468E-3</v>
       </c>
       <c r="E240">
         <v>0.999</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B241">
-        <v>1.238056890900825E-05</v>
+        <v>1.141083577778877E-3</v>
       </c>
       <c r="C241">
-        <v>3.634413392063143E-05</v>
+        <v>6.5239178957656142E-3</v>
       </c>
       <c r="D241">
-        <v>8.584310124069175E-06</v>
+        <v>1.686917204132544E-3</v>
       </c>
       <c r="E241">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -4626,43 +4686,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B243">
-        <v>-1.114847537713748E-05</v>
+        <v>-1.144386590404151E-3</v>
       </c>
       <c r="C243">
-        <v>-3.272722643809459E-05</v>
+        <v>-6.54280221203797E-3</v>
       </c>
       <c r="D243">
-        <v>-7.730013923533296E-06</v>
+        <v>-1.691800202128088E-3</v>
       </c>
       <c r="E243">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B244">
-        <v>6.377516241550258E-06</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C244">
-        <v>1.319932524389187E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D244">
-        <v>8.03442907236988E-07</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E244">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -4677,60 +4737,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B246">
-        <v>-6.252891680554225E-06</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C246">
-        <v>-1.294139409143995E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D246">
-        <v>-7.87742638385074E-07</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E246">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B247">
-        <v>3.142215469233628E-05</v>
+        <v>-7.17505852130303E-3</v>
       </c>
       <c r="C247">
-        <v>6.503334902479389E-05</v>
+        <v>-3.414848454442065E-3</v>
       </c>
       <c r="D247">
-        <v>3.958579854831416E-06</v>
+        <v>1.018122703696353E-2</v>
       </c>
       <c r="E247">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B248">
-        <v>6.377516241550258E-06</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C248">
-        <v>1.319932524389187E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D248">
-        <v>8.03442907236988E-07</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E248">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -4745,60 +4805,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B250">
-        <v>-6.252891680554225E-06</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C250">
-        <v>-1.294139409143995E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D250">
-        <v>-7.87742638385074E-07</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E250">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B251">
-        <v>-2.848369902534644E-05</v>
+        <v>7.1116897943101142E-3</v>
       </c>
       <c r="C251">
-        <v>-5.895172875220828E-05</v>
+        <v>3.3846891743763712E-3</v>
       </c>
       <c r="D251">
-        <v>-3.588391638219454E-06</v>
+        <v>-1.0091308411959611E-2</v>
       </c>
       <c r="E251">
         <v>0.999</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B252">
-        <v>6.377516241550258E-06</v>
+        <v>-4.8975834141732066E-3</v>
       </c>
       <c r="C252">
-        <v>1.319932524389187E-05</v>
+        <v>-2.3309224729993151E-3</v>
       </c>
       <c r="D252">
-        <v>8.03442907236988E-07</v>
+        <v>6.9495473136724946E-3</v>
       </c>
       <c r="E252">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -4813,43 +4873,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>-6.252891680554225E-06</v>
+        <v>4.9142464695014782E-3</v>
       </c>
       <c r="C254">
-        <v>-1.294139409143995E-05</v>
+        <v>2.338852973993152E-3</v>
       </c>
       <c r="D254">
-        <v>-7.87742638385074E-07</v>
+        <v>-6.9731917688254288E-3</v>
       </c>
       <c r="E254">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B255">
-        <v>-2.854681744941506E-07</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C255">
-        <v>1.91403854907635E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D255">
-        <v>1.048159418615942E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E255">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4864,60 +4924,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B257">
-        <v>2.770544370575907E-07</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C257">
-        <v>-1.857625192932818E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D257">
-        <v>-1.017266524318639E-05</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E257">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B258">
-        <v>-1.204621302735113E-06</v>
+        <v>-5.9195933500270281E-3</v>
       </c>
       <c r="C258">
-        <v>8.07687797268211E-05</v>
+        <v>1.222678246102117E-3</v>
       </c>
       <c r="D258">
-        <v>4.42303302833881E-05</v>
+        <v>9.2063682850255565E-3</v>
       </c>
       <c r="E258">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B259">
-        <v>-2.854681744941506E-07</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C259">
-        <v>1.91403854907635E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D259">
-        <v>1.048159418615942E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E259">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -4932,60 +4992,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B261">
-        <v>2.770544370575907E-07</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C261">
-        <v>-1.857625192932818E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D261">
-        <v>-1.017266524318639E-05</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E261">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B262">
-        <v>1.072108991088443E-06</v>
+        <v>5.8822186638287574E-3</v>
       </c>
       <c r="C262">
-        <v>-7.188394788283765E-05</v>
+        <v>-1.214958591546909E-3</v>
       </c>
       <c r="D262">
-        <v>-3.936484824563912E-05</v>
+        <v>-9.1482418048211417E-3</v>
       </c>
       <c r="E262">
         <v>0.999</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B263">
-        <v>-2.854681744941506E-07</v>
+        <v>-4.1034978240828569E-3</v>
       </c>
       <c r="C263">
-        <v>1.91403854907635E-05</v>
+        <v>8.4756793680947269E-4</v>
       </c>
       <c r="D263">
-        <v>1.048159418615942E-05</v>
+        <v>6.3819100386575209E-3</v>
       </c>
       <c r="E263">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -5000,43 +5060,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B265">
-        <v>2.770544370575907E-07</v>
+        <v>4.1116891770522071E-3</v>
       </c>
       <c r="C265">
-        <v>-1.857625192932818E-05</v>
+        <v>-8.4925984172414437E-4</v>
       </c>
       <c r="D265">
-        <v>-1.017266524318639E-05</v>
+        <v>-6.3946495306680881E-3</v>
       </c>
       <c r="E265">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B266">
-        <v>5.268145522785864E-06</v>
+        <v>-1.302145094883877E-2</v>
       </c>
       <c r="C266">
-        <v>1.238427539916941E-05</v>
+        <v>1.8314452558497989E-2</v>
       </c>
       <c r="D266">
-        <v>-6.050387672305248E-08</v>
+        <v>7.5705949193236059E-3</v>
       </c>
       <c r="E266">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -5051,60 +5111,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B268">
-        <v>-5.168719555323116E-06</v>
+        <v>1.305078837590689E-2</v>
       </c>
       <c r="C268">
-        <v>-1.215054636538289E-05</v>
+        <v>-1.8355715158060702E-2</v>
       </c>
       <c r="D268">
-        <v>5.936198410592236E-08</v>
+        <v>-7.5876515267001999E-3</v>
       </c>
       <c r="E268">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B269">
-        <v>2.640337487475203E-05</v>
+        <v>-2.0580085009803979E-2</v>
       </c>
       <c r="C269">
-        <v>6.206864721222136E-05</v>
+        <v>2.8945544704872001E-2</v>
       </c>
       <c r="D269">
-        <v>-3.032388781944194E-07</v>
+        <v>1.196514026175894E-2</v>
       </c>
       <c r="E269">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B270">
-        <v>5.268145522785864E-06</v>
+        <v>-1.302145094883877E-2</v>
       </c>
       <c r="C270">
-        <v>1.238427539916941E-05</v>
+        <v>1.8314452558497989E-2</v>
       </c>
       <c r="D270">
-        <v>-6.050387672305248E-08</v>
+        <v>7.5705949193236059E-3</v>
       </c>
       <c r="E270">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -5119,179 +5179,179 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B272">
-        <v>-5.168719555323116E-06</v>
+        <v>1.305078837590689E-2</v>
       </c>
       <c r="C272">
-        <v>-1.215054636538289E-05</v>
+        <v>-1.8355715158060702E-2</v>
       </c>
       <c r="D272">
-        <v>5.936198410592236E-08</v>
+        <v>-7.5876515267001999E-3</v>
       </c>
       <c r="E272">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B273">
-        <v>-2.398391302398828E-05</v>
+        <v>2.0445470257143591E-2</v>
       </c>
       <c r="C273">
-        <v>-5.638101353770634E-05</v>
+        <v>-2.875621131100067E-2</v>
       </c>
       <c r="D273">
-        <v>2.754517145859762E-07</v>
+        <v>-1.188687603709144E-2</v>
       </c>
       <c r="E273">
         <v>0.999</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>43</v>
+      </c>
+      <c r="B274">
+        <v>-1.302145094883877E-2</v>
+      </c>
+      <c r="C274">
+        <v>1.8314452558497989E-2</v>
+      </c>
+      <c r="D274">
+        <v>7.5705949193236059E-3</v>
+      </c>
+      <c r="E274">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>43</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>43</v>
+      </c>
+      <c r="B276">
+        <v>1.305078837590689E-2</v>
+      </c>
+      <c r="C276">
+        <v>-1.8355715158060702E-2</v>
+      </c>
+      <c r="D276">
+        <v>-7.5876515267001999E-3</v>
+      </c>
+      <c r="E276">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
         <v>29</v>
       </c>
-      <c r="B274">
-        <v>5.268145522785864E-06</v>
-      </c>
-      <c r="C274">
-        <v>1.238427539916941E-05</v>
-      </c>
-      <c r="D274">
-        <v>-6.050387672305248E-08</v>
-      </c>
-      <c r="E274">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
+      <c r="B277">
+        <v>7.6691542925834081E-3</v>
+      </c>
+      <c r="C277">
+        <v>1.80682752671226E-2</v>
+      </c>
+      <c r="D277">
+        <v>2.046466340916051E-4</v>
+      </c>
+      <c r="E277">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
         <v>29</v>
       </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-      <c r="D275">
-        <v>0</v>
-      </c>
-      <c r="E275">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
         <v>29</v>
       </c>
-      <c r="B276">
-        <v>-5.168719555323116E-06</v>
-      </c>
-      <c r="C276">
-        <v>-1.215054636538289E-05</v>
-      </c>
-      <c r="D276">
-        <v>5.936198410592236E-08</v>
-      </c>
-      <c r="E276">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" t="s">
-        <v>30</v>
-      </c>
-      <c r="B277">
-        <v>0.01422429224124051</v>
-      </c>
-      <c r="C277">
-        <v>0.02883024575712808</v>
-      </c>
-      <c r="D277">
-        <v>-0.008922461668812385</v>
-      </c>
-      <c r="E277">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" t="s">
-        <v>30</v>
-      </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
-      </c>
-      <c r="E278">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" t="s">
-        <v>30</v>
-      </c>
       <c r="B279">
-        <v>-0.01320023512185299</v>
+        <v>-7.6792085318002244E-3</v>
       </c>
       <c r="C279">
-        <v>-0.02675465437299716</v>
+        <v>-1.8091962724023369E-2</v>
       </c>
       <c r="D279">
-        <v>0.008280102088493975</v>
+        <v>-2.0491492524022151E-4</v>
       </c>
       <c r="E279">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B280">
-        <v>0.02036703117757908</v>
+        <v>1.090728678276758E-2</v>
       </c>
       <c r="C280">
-        <v>0.04128054346987219</v>
+        <v>2.5697208908559629E-2</v>
       </c>
       <c r="D280">
-        <v>-0.01277561314879227</v>
+        <v>2.910541947661513E-4</v>
       </c>
       <c r="E280">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B281">
-        <v>0.01422429224124051</v>
+        <v>7.6691542925834081E-3</v>
       </c>
       <c r="C281">
-        <v>0.02883024575712808</v>
+        <v>1.80682752671226E-2</v>
       </c>
       <c r="D281">
-        <v>-0.008922461668812385</v>
+        <v>2.046466340916051E-4</v>
       </c>
       <c r="E281">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -5306,60 +5366,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B283">
-        <v>-0.01320023512185299</v>
+        <v>-7.6792085318002244E-3</v>
       </c>
       <c r="C283">
-        <v>-0.02675465437299716</v>
+        <v>-1.8091962724023369E-2</v>
       </c>
       <c r="D283">
-        <v>0.008280102088493975</v>
+        <v>-2.0491492524022151E-4</v>
       </c>
       <c r="E283">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B284">
-        <v>-0.01881890666890296</v>
+        <v>-1.0844433928706661E-2</v>
       </c>
       <c r="C284">
-        <v>-0.03814275571278703</v>
+        <v>-2.554912965168573E-2</v>
       </c>
       <c r="D284">
-        <v>0.01180452219024437</v>
+        <v>-2.8937700526964361E-4</v>
       </c>
       <c r="E284">
         <v>0.999</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B285">
-        <v>0.01422429224124051</v>
+        <v>7.6691542925834081E-3</v>
       </c>
       <c r="C285">
-        <v>0.02883024575712808</v>
+        <v>1.80682752671226E-2</v>
       </c>
       <c r="D285">
-        <v>-0.008922461668812385</v>
+        <v>2.046466340916051E-4</v>
       </c>
       <c r="E285">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -5374,43 +5434,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B287">
-        <v>-0.01320023512185299</v>
+        <v>-7.6792085318002244E-3</v>
       </c>
       <c r="C287">
-        <v>-0.02675465437299716</v>
+        <v>-1.8091962724023369E-2</v>
       </c>
       <c r="D287">
-        <v>0.008280102088493975</v>
+        <v>-2.0491492524022151E-4</v>
       </c>
       <c r="E287">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B288">
-        <v>0.001709119089834222</v>
+        <v>5.5093046956114474E-3</v>
       </c>
       <c r="C288">
-        <v>0.01785604023494801</v>
+        <v>5.8170671319383782E-3</v>
       </c>
       <c r="D288">
-        <v>0.0007433083933309757</v>
+        <v>-5.8170671319383617E-3</v>
       </c>
       <c r="E288">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -5425,60 +5485,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B290">
-        <v>-0.001585715186538818</v>
+        <v>-5.5170764942565386E-3</v>
       </c>
       <c r="C290">
-        <v>-0.0165667766163396</v>
+        <v>-5.8252730811374524E-3</v>
       </c>
       <c r="D290">
-        <v>-0.000689639133163637</v>
+        <v>5.8252730811374342E-3</v>
       </c>
       <c r="E290">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B291">
-        <v>0.002447038976397019</v>
+        <v>7.8553556155805011E-3</v>
       </c>
       <c r="C291">
-        <v>0.02556546625622756</v>
+        <v>8.2941738541853251E-3</v>
       </c>
       <c r="D291">
-        <v>0.001064235149430325</v>
+        <v>-8.2941738541853008E-3</v>
       </c>
       <c r="E291">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B292">
-        <v>0.001709119089834222</v>
+        <v>5.5093046956114474E-3</v>
       </c>
       <c r="C292">
-        <v>0.01785604023494801</v>
+        <v>5.8170671319383782E-3</v>
       </c>
       <c r="D292">
-        <v>0.0007433083933309757</v>
+        <v>-5.8170671319383617E-3</v>
       </c>
       <c r="E292">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -5493,60 +5553,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B294">
-        <v>-0.001585715186538818</v>
+        <v>-5.5170764942565386E-3</v>
       </c>
       <c r="C294">
-        <v>-0.0165667766163396</v>
+        <v>-5.8252730811374524E-3</v>
       </c>
       <c r="D294">
-        <v>-0.000689639133163637</v>
+        <v>5.8252730811374342E-3</v>
       </c>
       <c r="E294">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B295">
-        <v>-0.002260809337727302</v>
+        <v>-7.8092567535172361E-3</v>
       </c>
       <c r="C295">
-        <v>-0.02361983008563816</v>
+        <v>-8.2454998036210862E-3</v>
       </c>
       <c r="D295">
-        <v>-0.0009832425174168223</v>
+        <v>8.2454998036210619E-3</v>
       </c>
       <c r="E295">
         <v>0.999</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B296">
-        <v>0.001709119089834222</v>
+        <v>5.5093046956114474E-3</v>
       </c>
       <c r="C296">
-        <v>0.01785604023494801</v>
+        <v>5.8170671319383782E-3</v>
       </c>
       <c r="D296">
-        <v>0.0007433083933309757</v>
+        <v>-5.8170671319383617E-3</v>
       </c>
       <c r="E296">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -5561,43 +5621,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B298">
-        <v>-0.001585715186538818</v>
+        <v>-5.5170764942565386E-3</v>
       </c>
       <c r="C298">
-        <v>-0.0165667766163396</v>
+        <v>-5.8252730811374524E-3</v>
       </c>
       <c r="D298">
-        <v>-0.000689639133163637</v>
+        <v>5.8252730811374342E-3</v>
       </c>
       <c r="E298">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B299">
-        <v>0.005635239275531426</v>
+        <v>4.8962602367666136E-3</v>
       </c>
       <c r="C299">
-        <v>0.0210581726129914</v>
+        <v>5.1969532490541911E-3</v>
       </c>
       <c r="D299">
-        <v>-0.002250399680622908</v>
+        <v>-5.1969532490542102E-3</v>
       </c>
       <c r="E299">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -5612,60 +5672,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B301">
-        <v>-0.005228721924965988</v>
+        <v>-4.9038773945714927E-3</v>
       </c>
       <c r="C301">
-        <v>-0.01953906896542256</v>
+        <v>-5.2050381977882003E-3</v>
       </c>
       <c r="D301">
-        <v>0.00208805936619254</v>
+        <v>5.2050381977882202E-3</v>
       </c>
       <c r="E301">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B302">
-        <v>0.008068448660250133</v>
+        <v>6.9981672763051303E-3</v>
       </c>
       <c r="C302">
-        <v>0.03015076668427421</v>
+        <v>7.4279442687539988E-3</v>
       </c>
       <c r="D302">
-        <v>-0.003222087545951974</v>
+        <v>-7.4279442687540274E-3</v>
       </c>
       <c r="E302">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B303">
-        <v>0.005635239275531426</v>
+        <v>4.8962602367666136E-3</v>
       </c>
       <c r="C303">
-        <v>0.0210581726129914</v>
+        <v>5.1969532490541911E-3</v>
       </c>
       <c r="D303">
-        <v>-0.002250399680622908</v>
+        <v>-5.1969532490542102E-3</v>
       </c>
       <c r="E303">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -5680,60 +5740,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B305">
-        <v>-0.005228721924965988</v>
+        <v>-4.9038773945714927E-3</v>
       </c>
       <c r="C305">
-        <v>-0.01953906896542256</v>
+        <v>-5.2050381977882003E-3</v>
       </c>
       <c r="D305">
-        <v>0.00208805936619254</v>
+        <v>5.2050381977882202E-3</v>
       </c>
       <c r="E305">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B306">
-        <v>-0.007454635564615663</v>
+        <v>-6.9489183164623582E-3</v>
       </c>
       <c r="C306">
-        <v>-0.02785702519647087</v>
+        <v>-7.3756707927762491E-3</v>
       </c>
       <c r="D306">
-        <v>0.002976964894217242</v>
+        <v>7.3756707927762752E-3</v>
       </c>
       <c r="E306">
         <v>0.999</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B307">
-        <v>0.005635239275531426</v>
+        <v>4.8962602367666136E-3</v>
       </c>
       <c r="C307">
-        <v>0.0210581726129914</v>
+        <v>5.1969532490541911E-3</v>
       </c>
       <c r="D307">
-        <v>-0.002250399680622908</v>
+        <v>-5.1969532490542102E-3</v>
       </c>
       <c r="E307">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -5748,43 +5808,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B309">
-        <v>-0.005228721924965988</v>
+        <v>-4.9038773945714927E-3</v>
       </c>
       <c r="C309">
-        <v>-0.01953906896542256</v>
+        <v>-5.2050381977882003E-3</v>
       </c>
       <c r="D309">
-        <v>0.00208805936619254</v>
+        <v>5.2050381977882202E-3</v>
       </c>
       <c r="E309">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B310">
-        <v>0.004356572051575793</v>
+        <v>2.2552233474308851E-3</v>
       </c>
       <c r="C310">
-        <v>0.02325063830579957</v>
+        <v>5.8586251632461121E-3</v>
       </c>
       <c r="D310">
-        <v>-0.001504164391511112</v>
+        <v>5.25098032790747E-4</v>
       </c>
       <c r="E310">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -5799,60 +5859,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B312">
-        <v>-0.00404222955073052</v>
+        <v>-2.2593010865536948E-3</v>
       </c>
       <c r="C312">
-        <v>-0.02157302028301251</v>
+        <v>-5.8692183247000566E-3</v>
       </c>
       <c r="D312">
-        <v>0.001395633466069631</v>
+        <v>-5.2604747879309542E-4</v>
       </c>
       <c r="E312">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B313">
-        <v>0.00623764376537712</v>
+        <v>3.7273085091194518E-3</v>
       </c>
       <c r="C313">
-        <v>0.03328975105937968</v>
+        <v>9.6828118809539725E-3</v>
       </c>
       <c r="D313">
-        <v>-0.00215362939663029</v>
+        <v>8.6785300798364372E-4</v>
       </c>
       <c r="E313">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B314">
-        <v>0.004356572051575793</v>
+        <v>2.2552233474308851E-3</v>
       </c>
       <c r="C314">
-        <v>0.02325063830579957</v>
+        <v>5.8586251632461121E-3</v>
       </c>
       <c r="D314">
-        <v>-0.001504164391511112</v>
+        <v>5.25098032790747E-4</v>
       </c>
       <c r="E314">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -5867,60 +5927,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B316">
-        <v>-0.00404222955073052</v>
+        <v>-2.2593010865536948E-3</v>
       </c>
       <c r="C316">
-        <v>-0.02157302028301251</v>
+        <v>-5.8692183247000566E-3</v>
       </c>
       <c r="D316">
-        <v>0.001395633466069631</v>
+        <v>-5.2604747879309542E-4</v>
       </c>
       <c r="E316">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B317">
-        <v>-0.005763068179157585</v>
+        <v>-3.703243409125648E-3</v>
       </c>
       <c r="C317">
-        <v>-0.03075698328386175</v>
+        <v>-9.6202955006848764E-3</v>
       </c>
       <c r="D317">
-        <v>0.001989775869264953</v>
+        <v>-8.6224977729695623E-4</v>
       </c>
       <c r="E317">
         <v>0.999</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B318">
-        <v>0.004356572051575793</v>
+        <v>2.2552233474308851E-3</v>
       </c>
       <c r="C318">
-        <v>0.02325063830579957</v>
+        <v>5.8586251632461121E-3</v>
       </c>
       <c r="D318">
-        <v>-0.001504164391511112</v>
+        <v>5.25098032790747E-4</v>
       </c>
       <c r="E318">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -5935,43 +5995,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B320">
-        <v>-0.00404222955073052</v>
+        <v>-2.2593010865536948E-3</v>
       </c>
       <c r="C320">
-        <v>-0.02157302028301251</v>
+        <v>-5.8692183247000566E-3</v>
       </c>
       <c r="D320">
-        <v>0.001395633466069631</v>
+        <v>-5.2604747879309542E-4</v>
       </c>
       <c r="E320">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B321">
-        <v>0.002309571364239586</v>
+        <v>8.4160762865869779E-3</v>
       </c>
       <c r="C321">
-        <v>0.02151671742833932</v>
+        <v>1.8753164032807721E-2</v>
       </c>
       <c r="D321">
-        <v>-2.39850578289986E-05</v>
+        <v>2.7452613255652888E-3</v>
       </c>
       <c r="E321">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -5986,60 +6046,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B323">
-        <v>-0.002142853496927975</v>
+        <v>-8.4310068834615153E-3</v>
       </c>
       <c r="C323">
-        <v>-0.01996351959399555</v>
+        <v>-1.878643320988756E-2</v>
       </c>
       <c r="D323">
-        <v>2.22536812841942E-05</v>
+        <v>-2.7501315749275251E-3</v>
       </c>
       <c r="E323">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B324">
-        <v>0.003306755973284493</v>
+        <v>1.208484498850922E-2</v>
       </c>
       <c r="C324">
-        <v>0.03080681332618683</v>
+        <v>2.6928116222253731E-2</v>
       </c>
       <c r="D324">
-        <v>-3.434088873531232E-05</v>
+        <v>3.9419863179329558E-3</v>
       </c>
       <c r="E324">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B325">
-        <v>0.002309571364239586</v>
+        <v>8.4160762865869779E-3</v>
       </c>
       <c r="C325">
-        <v>0.02151671742833932</v>
+        <v>1.8753164032807721E-2</v>
       </c>
       <c r="D325">
-        <v>-2.39850578289986E-05</v>
+        <v>2.7452613255652888E-3</v>
       </c>
       <c r="E325">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6054,60 +6114,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B327">
-        <v>-0.002142853496927975</v>
+        <v>-8.4310068834615153E-3</v>
       </c>
       <c r="C327">
-        <v>-0.01996351959399555</v>
+        <v>-1.878643320988756E-2</v>
       </c>
       <c r="D327">
-        <v>2.22536812841942E-05</v>
+        <v>-2.7501315749275251E-3</v>
       </c>
       <c r="E327">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B328">
-        <v>-0.003055124778221979</v>
+        <v>-1.2000620506668679E-2</v>
       </c>
       <c r="C328">
-        <v>-0.02846253533411099</v>
+        <v>-2.6740442599801999E-2</v>
       </c>
       <c r="D328">
-        <v>3.172768142827526E-05</v>
+        <v>-3.9145129200229226E-3</v>
       </c>
       <c r="E328">
         <v>0.999</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B329">
-        <v>0.002309571364239586</v>
+        <v>8.4160762865869779E-3</v>
       </c>
       <c r="C329">
-        <v>0.02151671742833932</v>
+        <v>1.8753164032807721E-2</v>
       </c>
       <c r="D329">
-        <v>-2.39850578289986E-05</v>
+        <v>2.7452613255652888E-3</v>
       </c>
       <c r="E329">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -6122,43 +6182,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B331">
-        <v>-0.002142853496927975</v>
+        <v>-8.4310068834615153E-3</v>
       </c>
       <c r="C331">
-        <v>-0.01996351959399555</v>
+        <v>-1.878643320988756E-2</v>
       </c>
       <c r="D331">
-        <v>2.22536812841942E-05</v>
+        <v>-2.7501315749275251E-3</v>
       </c>
       <c r="E331">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B332">
-        <v>-0.002644107620207061</v>
+        <v>8.106723920998548E-3</v>
       </c>
       <c r="C332">
-        <v>0.010808449255776</v>
+        <v>1.9422304930715149E-2</v>
       </c>
       <c r="D332">
-        <v>0.004901927262498944</v>
+        <v>2.8144850844627912E-3</v>
       </c>
       <c r="E332">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -6173,60 +6233,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B334">
-        <v>0.00245293560682099</v>
+        <v>-8.1163046674946077E-3</v>
       </c>
       <c r="C334">
-        <v>-0.01002698597870785</v>
+        <v>-1.9445258738162361E-2</v>
       </c>
       <c r="D334">
-        <v>-0.004547512299551783</v>
+        <v>-2.8178113193727192E-3</v>
       </c>
       <c r="E334">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B335">
-        <v>-0.003785593230026491</v>
+        <v>1.152554037878771E-2</v>
       </c>
       <c r="C335">
-        <v>0.01547455633691124</v>
+        <v>2.761319639222547E-2</v>
       </c>
       <c r="D335">
-        <v>0.007018134404659791</v>
+        <v>4.0014266925320436E-3</v>
       </c>
       <c r="E335">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B336">
-        <v>-0.002644107620207061</v>
+        <v>8.106723920998548E-3</v>
       </c>
       <c r="C336">
-        <v>0.010808449255776</v>
+        <v>1.9422304930715149E-2</v>
       </c>
       <c r="D336">
-        <v>0.004901927262498944</v>
+        <v>2.8144850844627912E-3</v>
       </c>
       <c r="E336">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -6241,60 +6301,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B338">
-        <v>0.00245293560682099</v>
+        <v>-8.1163046674946077E-3</v>
       </c>
       <c r="C338">
-        <v>-0.01002698597870785</v>
+        <v>-1.9445258738162361E-2</v>
       </c>
       <c r="D338">
-        <v>-0.004547512299551783</v>
+        <v>-2.8178113193727192E-3</v>
       </c>
       <c r="E338">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B339">
-        <v>0.003497331741925709</v>
+        <v>-1.1457474385581709E-2</v>
       </c>
       <c r="C339">
-        <v>-0.01429621562085227</v>
+        <v>-2.745012207412335E-2</v>
       </c>
       <c r="D339">
-        <v>-0.006483724671693216</v>
+        <v>-3.9777956025252382E-3</v>
       </c>
       <c r="E339">
         <v>0.999</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B340">
-        <v>-0.002644107620207061</v>
+        <v>8.106723920998548E-3</v>
       </c>
       <c r="C340">
-        <v>0.010808449255776</v>
+        <v>1.9422304930715149E-2</v>
       </c>
       <c r="D340">
-        <v>0.004901927262498944</v>
+        <v>2.8144850844627912E-3</v>
       </c>
       <c r="E340">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -6309,43 +6369,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B342">
-        <v>0.00245293560682099</v>
+        <v>-8.1163046674946077E-3</v>
       </c>
       <c r="C342">
-        <v>-0.01002698597870785</v>
+        <v>-1.9445258738162361E-2</v>
       </c>
       <c r="D342">
-        <v>-0.004547512299551783</v>
+        <v>-2.8178113193727192E-3</v>
       </c>
       <c r="E342">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B343">
-        <v>-0.0004966336762078463</v>
+        <v>8.191488236626342E-3</v>
       </c>
       <c r="C343">
-        <v>0.0142974169055521</v>
+        <v>1.92633070057384E-2</v>
       </c>
       <c r="D343">
-        <v>0.002601743535057266</v>
+        <v>2.4402912960849992E-3</v>
       </c>
       <c r="E343">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -6360,60 +6420,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B345">
-        <v>0.0004607546973387957</v>
+        <v>-8.2017024501528698E-3</v>
       </c>
       <c r="C345">
-        <v>-0.01326450926434408</v>
+        <v>-1.9287327003728989E-2</v>
       </c>
       <c r="D345">
-        <v>-0.002413782255367603</v>
+        <v>-2.443334168838413E-3</v>
       </c>
       <c r="E345">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B346">
-        <v>-0.0007110480426469274</v>
+        <v>1.165096829611793E-2</v>
       </c>
       <c r="C346">
-        <v>0.02047011870645935</v>
+        <v>2.73987061592459E-2</v>
       </c>
       <c r="D346">
-        <v>0.003725008465389563</v>
+        <v>3.470890234188805E-3</v>
       </c>
       <c r="E346">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B347">
-        <v>-0.0004966336762078463</v>
+        <v>8.191488236626342E-3</v>
       </c>
       <c r="C347">
-        <v>0.0142974169055521</v>
+        <v>1.92633070057384E-2</v>
       </c>
       <c r="D347">
-        <v>0.002601743535057266</v>
+        <v>2.4402912960849992E-3</v>
       </c>
       <c r="E347">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -6428,60 +6488,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B349">
-        <v>0.0004607546973387957</v>
+        <v>-8.2017024501528698E-3</v>
       </c>
       <c r="C349">
-        <v>-0.01326450926434408</v>
+        <v>-1.9287327003728989E-2</v>
       </c>
       <c r="D349">
-        <v>-0.002413782255367603</v>
+        <v>-2.443334168838413E-3</v>
       </c>
       <c r="E349">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B350">
-        <v>0.000656921583166235</v>
+        <v>-1.158341761938664E-2</v>
       </c>
       <c r="C350">
-        <v>-0.01891189059207538</v>
+        <v>-2.7239852311601712E-2</v>
       </c>
       <c r="D350">
-        <v>-0.00344145305467977</v>
+        <v>-3.450766500416601E-3</v>
       </c>
       <c r="E350">
         <v>0.999</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B351">
-        <v>-0.0004966336762078463</v>
+        <v>8.191488236626342E-3</v>
       </c>
       <c r="C351">
-        <v>0.0142974169055521</v>
+        <v>1.92633070057384E-2</v>
       </c>
       <c r="D351">
-        <v>0.002601743535057266</v>
+        <v>2.4402912960849992E-3</v>
       </c>
       <c r="E351">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -6496,43 +6556,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B353">
-        <v>0.0004607546973387957</v>
+        <v>-8.2017024501528698E-3</v>
       </c>
       <c r="C353">
-        <v>-0.01326450926434408</v>
+        <v>-1.9287327003728989E-2</v>
       </c>
       <c r="D353">
-        <v>-0.002413782255367603</v>
+        <v>-2.443334168838413E-3</v>
       </c>
       <c r="E353">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B354">
-        <v>-0.0003862397371084641</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C354">
-        <v>0.01728085423805167</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D354">
-        <v>0.001360385446300635</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E354">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -6547,60 +6607,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B356">
-        <v>0.0003583471188459632</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C356">
-        <v>-0.01603290322679531</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D356">
-        <v>-0.001262144099546431</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E356">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B357">
-        <v>-0.000552998320033221</v>
+        <v>-2.5529421027486281E-2</v>
       </c>
       <c r="C357">
-        <v>0.02474184410419153</v>
+        <v>3.1264828375037697E-2</v>
       </c>
       <c r="D357">
-        <v>0.001947730370867139</v>
+        <v>6.4910452512849104E-3</v>
       </c>
       <c r="E357">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B358">
-        <v>-0.0003862397371084641</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C358">
-        <v>0.01728085423805167</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D358">
-        <v>0.001360385446300635</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E358">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -6615,60 +6675,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B360">
-        <v>0.0003583471188459632</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C360">
-        <v>-0.01603290322679531</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D360">
-        <v>-0.001262144099546431</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E360">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B361">
-        <v>0.0005109098051303452</v>
+        <v>2.5437601660464149E-2</v>
       </c>
       <c r="C361">
-        <v>-0.02285875072654558</v>
+        <v>-3.115238098548035E-2</v>
       </c>
       <c r="D361">
-        <v>-0.00179948927180539</v>
+        <v>-6.4676994940253453E-3</v>
       </c>
       <c r="E361">
         <v>0.999</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B362">
-        <v>-0.0003862397371084641</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C362">
-        <v>0.01728085423805167</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D362">
-        <v>0.001360385446300635</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E362">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -6683,43 +6743,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B364">
-        <v>0.0003583471188459632</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C364">
-        <v>-0.01603290322679531</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D364">
-        <v>-0.001262144099546431</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E364">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B365">
-        <v>-0.002238909728574158</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C365">
-        <v>0.01606986253803353</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D365">
-        <v>0.002452491080083188</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E365">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -6734,60 +6794,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B367">
-        <v>0.002077215741892762</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C367">
-        <v>-0.01490929759607339</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D367">
-        <v>-0.002275372255247066</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E367">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B368">
-        <v>-0.003205622846919459</v>
+        <v>-2.5529421027486281E-2</v>
       </c>
       <c r="C368">
-        <v>0.02300848392471002</v>
+        <v>3.1264828375037697E-2</v>
       </c>
       <c r="D368">
-        <v>0.003511424037264593</v>
+        <v>6.4910452512849104E-3</v>
       </c>
       <c r="E368">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B369">
-        <v>-0.002238909728574158</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C369">
-        <v>0.01606986253803353</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D369">
-        <v>0.002452491080083188</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E369">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -6802,60 +6862,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B371">
-        <v>0.002077215741892762</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C371">
-        <v>-0.01490929759607339</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D371">
-        <v>-0.002275372255247066</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E371">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B372">
-        <v>0.002961605934325007</v>
+        <v>2.5437601660464149E-2</v>
       </c>
       <c r="C372">
-        <v>-0.021257042947746</v>
+        <v>-3.115238098548035E-2</v>
       </c>
       <c r="D372">
-        <v>-0.003244129070482501</v>
+        <v>-6.4676994940253453E-3</v>
       </c>
       <c r="E372">
         <v>0.999</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B373">
-        <v>-0.002238909728574158</v>
+        <v>-1.847002565527979E-2</v>
       </c>
       <c r="C373">
-        <v>0.01606986253803353</v>
+        <v>2.2619478192362461E-2</v>
       </c>
       <c r="D373">
-        <v>0.002452491080083188</v>
+        <v>4.6961414515329144E-3</v>
       </c>
       <c r="E373">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -6870,34 +6930,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B375">
-        <v>0.002077215741892762</v>
+        <v>1.8468105315806071E-2</v>
       </c>
       <c r="C375">
-        <v>-0.01490929759607339</v>
+        <v>-2.2617126431858269E-2</v>
       </c>
       <c r="D375">
-        <v>-0.002275372255247066</v>
+        <v>-4.6956531909331809E-3</v>
       </c>
       <c r="E375">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B376">
+        <v>8.9188711513139493E-3</v>
+      </c>
+      <c r="C376">
+        <v>2.318848868705211E-2</v>
+      </c>
+      <c r="D376">
+        <v>4.9597117923921852E-3</v>
       </c>
       <c r="E376">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -6912,33 +6981,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B378">
+        <v>-8.940828582937925E-3</v>
+      </c>
+      <c r="C378">
+        <v>-2.3245576590461749E-2</v>
+      </c>
+      <c r="D378">
+        <v>-4.971922141741165E-3</v>
       </c>
       <c r="E378">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B379">
+        <v>1.371768543317043E-2</v>
+      </c>
+      <c r="C379">
+        <v>3.5665095737227891E-2</v>
+      </c>
+      <c r="D379">
+        <v>7.6282934300714363E-3</v>
       </c>
       <c r="E379">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B380">
+        <v>8.9188711513139493E-3</v>
+      </c>
+      <c r="C380">
+        <v>2.318848868705211E-2</v>
+      </c>
+      <c r="D380">
+        <v>4.9597117923921852E-3</v>
       </c>
       <c r="E380">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6953,33 +7049,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B382">
+        <v>-8.940828582937925E-3</v>
+      </c>
+      <c r="C382">
+        <v>-2.3245576590461749E-2</v>
+      </c>
+      <c r="D382">
+        <v>-4.971922141741165E-3</v>
       </c>
       <c r="E382">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B383">
+        <v>-1.3559437593147089E-2</v>
+      </c>
+      <c r="C383">
+        <v>-3.5253661578591E-2</v>
+      </c>
+      <c r="D383">
+        <v>-7.5402930918034338E-3</v>
       </c>
       <c r="E383">
         <v>0.999</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B384">
+        <v>8.9188711513139493E-3</v>
+      </c>
+      <c r="C384">
+        <v>2.318848868705211E-2</v>
+      </c>
+      <c r="D384">
+        <v>4.9597117923921852E-3</v>
       </c>
       <c r="E384">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -6994,34 +7117,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B386">
+        <v>-8.940828582937925E-3</v>
+      </c>
+      <c r="C386">
+        <v>-2.3245576590461749E-2</v>
+      </c>
+      <c r="D386">
+        <v>-4.971922141741165E-3</v>
       </c>
       <c r="E386">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B387">
-        <v>8.488269566154439E-31</v>
+        <v>9.3373460091829251E-3</v>
       </c>
       <c r="C387">
-        <v>2.696702525467464E-30</v>
+        <v>2.4695631716651581E-2</v>
       </c>
       <c r="D387">
-        <v>3.844890407179804E-31</v>
+        <v>5.5020591843791622E-3</v>
       </c>
       <c r="E387">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -7036,60 +7168,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B389">
-        <v>-1.947746967225885E-30</v>
+        <v>-9.3498536457248902E-3</v>
       </c>
       <c r="C389">
-        <v>-6.187944579933092E-30</v>
+        <v>-2.472871220712311E-2</v>
       </c>
       <c r="D389">
-        <v>-8.822615223909709E-31</v>
+        <v>-5.5094293467832242E-3</v>
       </c>
       <c r="E389">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B390">
-        <v>6.065851164003254E-09</v>
+        <v>1.3229608274695709E-2</v>
       </c>
       <c r="C390">
-        <v>1.927106111038382E-08</v>
+        <v>3.4989978242869132E-2</v>
       </c>
       <c r="D390">
-        <v>2.747619260921128E-09</v>
+        <v>7.7955864163052101E-3</v>
       </c>
       <c r="E390">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B391">
-        <v>8.488269566154439E-31</v>
+        <v>9.3373460091829251E-3</v>
       </c>
       <c r="C391">
-        <v>2.696702525467464E-30</v>
+        <v>2.4695631716651581E-2</v>
       </c>
       <c r="D391">
-        <v>3.844890407179804E-31</v>
+        <v>5.5020591843791622E-3</v>
       </c>
       <c r="E391">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7104,60 +7236,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B393">
-        <v>-1.947746967225885E-30</v>
+        <v>-9.3498536457248902E-3</v>
       </c>
       <c r="C393">
-        <v>-6.187944579933092E-30</v>
+        <v>-2.472871220712311E-2</v>
       </c>
       <c r="D393">
-        <v>-8.822615223909709E-31</v>
+        <v>-5.5094293467832242E-3</v>
       </c>
       <c r="E393">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B394">
-        <v>-3.715840238885817E-07</v>
+        <v>-1.3155112781501249E-2</v>
       </c>
       <c r="C394">
-        <v>-1.180513375351808E-06</v>
+        <v>-3.4792950815303383E-2</v>
       </c>
       <c r="D394">
-        <v>-1.683146179295697E-07</v>
+        <v>-7.7516897231632497E-3</v>
       </c>
       <c r="E394">
         <v>0.999</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B395">
-        <v>8.488269566154439E-31</v>
+        <v>9.3373460091829251E-3</v>
       </c>
       <c r="C395">
-        <v>2.696702525467464E-30</v>
+        <v>2.4695631716651581E-2</v>
       </c>
       <c r="D395">
-        <v>3.844890407179804E-31</v>
+        <v>5.5020591843791622E-3</v>
       </c>
       <c r="E395">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -7172,34 +7304,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B397">
-        <v>-1.947746967225885E-30</v>
+        <v>-9.3498536457248902E-3</v>
       </c>
       <c r="C397">
-        <v>-6.187944579933092E-30</v>
+        <v>-2.472871220712311E-2</v>
       </c>
       <c r="D397">
-        <v>-8.822615223909709E-31</v>
+        <v>-5.5094293467832242E-3</v>
       </c>
       <c r="E397">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B398">
+        <v>9.2921230355435484E-3</v>
+      </c>
+      <c r="C398">
+        <v>2.4004532092591159E-2</v>
+      </c>
+      <c r="D398">
+        <v>4.7964363610262049E-3</v>
       </c>
       <c r="E398">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -7214,33 +7355,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B400">
+        <v>-9.3054986141033764E-3</v>
+      </c>
+      <c r="C400">
+        <v>-2.4039085499123571E-2</v>
+      </c>
+      <c r="D400">
+        <v>-4.8033406078930099E-3</v>
       </c>
       <c r="E400">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B401">
+        <v>1.3165449580438381E-2</v>
+      </c>
+      <c r="C401">
+        <v>3.4010576028553147E-2</v>
+      </c>
+      <c r="D401">
+        <v>6.795781850425963E-3</v>
       </c>
       <c r="E401">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B402">
+        <v>9.2921230355435484E-3</v>
+      </c>
+      <c r="C402">
+        <v>2.4004532092591159E-2</v>
+      </c>
+      <c r="D402">
+        <v>4.7964363610262049E-3</v>
       </c>
       <c r="E402">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -7255,33 +7423,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B404">
+        <v>-9.3054986141033764E-3</v>
+      </c>
+      <c r="C404">
+        <v>-2.4039085499123571E-2</v>
+      </c>
+      <c r="D404">
+        <v>-4.8033406078930099E-3</v>
       </c>
       <c r="E404">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B405">
+        <v>-1.3090989810102351E-2</v>
+      </c>
+      <c r="C405">
+        <v>-3.3818222576085813E-2</v>
+      </c>
+      <c r="D405">
+        <v>-6.7573469794597399E-3</v>
       </c>
       <c r="E405">
         <v>0.999</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B406">
+        <v>9.2921230355435484E-3</v>
+      </c>
+      <c r="C406">
+        <v>2.4004532092591159E-2</v>
+      </c>
+      <c r="D406">
+        <v>4.7964363610262049E-3</v>
       </c>
       <c r="E406">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -7296,25 +7491,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="B408">
+        <v>-9.3054986141033764E-3</v>
+      </c>
+      <c r="C408">
+        <v>-2.4039085499123571E-2</v>
+      </c>
+      <c r="D408">
+        <v>-4.8033406078930099E-3</v>
       </c>
       <c r="E408">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B409">
+        <v>2.0522674372458771E-3</v>
+      </c>
+      <c r="C409">
+        <v>8.1299478036467032E-3</v>
+      </c>
+      <c r="D409">
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E409">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7329,33 +7542,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B411">
+        <v>-2.0537126932286261E-3</v>
+      </c>
+      <c r="C411">
+        <v>-8.1356731080049066E-3</v>
+      </c>
+      <c r="D411">
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E411">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B412">
+        <v>2.9034311282590359E-3</v>
+      </c>
+      <c r="C412">
+        <v>1.150178728943161E-2</v>
+      </c>
+      <c r="D412">
+        <v>-1.394839967912316E-3</v>
       </c>
       <c r="E412">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B413">
+        <v>2.0522674372458771E-3</v>
+      </c>
+      <c r="C413">
+        <v>8.1299478036467032E-3</v>
+      </c>
+      <c r="D413">
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E413">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7370,33 +7610,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B415">
+        <v>-2.0537126932286261E-3</v>
+      </c>
+      <c r="C415">
+        <v>-8.1356731080049066E-3</v>
+      </c>
+      <c r="D415">
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E415">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B416">
+        <v>-2.8895654002783129E-3</v>
+      </c>
+      <c r="C416">
+        <v>-1.144685894885719E-2</v>
+      </c>
+      <c r="D416">
+        <v>1.3881787210229121E-3</v>
       </c>
       <c r="E416">
         <v>0.999</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B417">
+        <v>2.0522674372458771E-3</v>
+      </c>
+      <c r="C417">
+        <v>8.1299478036467032E-3</v>
+      </c>
+      <c r="D417">
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E417">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -7411,34 +7678,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B419">
+        <v>-2.0537126932286261E-3</v>
+      </c>
+      <c r="C419">
+        <v>-8.1356731080049066E-3</v>
+      </c>
+      <c r="D419">
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E419">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B420">
-        <v>-0.09493823394258108</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C420">
-        <v>0.04254930120917771</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D420">
-        <v>0.03400301739059744</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E420">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -7453,60 +7729,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B422">
-        <v>0.08220995148088246</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C422">
-        <v>-0.03684475519175488</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D422">
-        <v>-0.02944426385238297</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E422">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B423">
-        <v>-0.1722225765933202</v>
+        <v>2.9034311282590359E-3</v>
       </c>
       <c r="C423">
-        <v>0.07718650307864192</v>
+        <v>1.150178728943161E-2</v>
       </c>
       <c r="D423">
-        <v>0.06168312832212517</v>
+        <v>-1.394839967912316E-3</v>
       </c>
       <c r="E423">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B424">
-        <v>-0.09493823394258108</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C424">
-        <v>0.04254930120917771</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D424">
-        <v>0.03400301739059744</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E424">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -7521,60 +7797,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B426">
-        <v>0.08220995148088246</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C426">
-        <v>-0.03684475519175488</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D426">
-        <v>-0.02944426385238297</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E426">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B427">
-        <v>0.1193067087749885</v>
+        <v>-2.8895654002783129E-3</v>
       </c>
       <c r="C427">
-        <v>-0.05347073436201545</v>
+        <v>-1.144685894885719E-2</v>
       </c>
       <c r="D427">
-        <v>-0.04273081481318092</v>
+        <v>1.3881787210229121E-3</v>
       </c>
       <c r="E427">
         <v>0.999</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B428">
-        <v>-0.09493823394258108</v>
+        <v>2.0522674372458771E-3</v>
       </c>
       <c r="C428">
-        <v>0.04254930120917771</v>
+        <v>8.1299478036467032E-3</v>
       </c>
       <c r="D428">
-        <v>0.03400301739059744</v>
+        <v>-9.8593165116060461E-4</v>
       </c>
       <c r="E428">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -7589,43 +7865,43 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B430">
-        <v>0.08220995148088246</v>
+        <v>-2.0537126932286261E-3</v>
       </c>
       <c r="C430">
-        <v>-0.03684475519175488</v>
+        <v>-8.1356731080049066E-3</v>
       </c>
       <c r="D430">
-        <v>-0.02944426385238297</v>
+        <v>9.8662596789124207E-4</v>
       </c>
       <c r="E430">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B431">
-        <v>0.2807598974247953</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C431">
-        <v>0.06822495877811957</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D431">
-        <v>0.02320791768274962</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E431">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -7640,60 +7916,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B433">
-        <v>-0.2829740916514842</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C433">
-        <v>-0.06876301037034549</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D433">
-        <v>-0.02339094537943262</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E433">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B434">
-        <v>0.4434333553768783</v>
+        <v>2.5060786688167751E-3</v>
       </c>
       <c r="C434">
-        <v>0.1077547850277814</v>
+        <v>1.171110618766486E-2</v>
       </c>
       <c r="D434">
-        <v>0.036654682181342</v>
+        <v>-1.665478465413237E-3</v>
       </c>
       <c r="E434">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B435">
-        <v>0.2807598974247953</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C435">
-        <v>0.06822495877811957</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D435">
-        <v>0.02320791768274962</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E435">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -7708,60 +7984,60 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B437">
-        <v>-0.2829740916514842</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C437">
-        <v>-0.06876301037034549</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D437">
-        <v>-0.02339094537943262</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E437">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B438">
-        <v>-0.3802676708725683</v>
+        <v>-2.4854931304792169E-3</v>
       </c>
       <c r="C438">
-        <v>-0.09240545536558273</v>
+        <v>-1.16149083194969E-2</v>
       </c>
       <c r="D438">
-        <v>-0.03143333817959321</v>
+        <v>1.6517978211354871E-3</v>
       </c>
       <c r="E438">
         <v>0.999</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B439">
-        <v>0.2807598974247953</v>
+        <v>1.7183431891190041E-3</v>
       </c>
       <c r="C439">
-        <v>0.06822495877811957</v>
+        <v>8.0299552464267159E-3</v>
       </c>
       <c r="D439">
-        <v>0.02320791768274962</v>
+        <v>-1.1419687710834761E-3</v>
       </c>
       <c r="E439">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7776,24 +8052,29 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B441">
-        <v>-0.2829740916514842</v>
+        <v>-1.7237396726159011E-3</v>
       </c>
       <c r="C441">
-        <v>-0.06876301037034549</v>
+        <v>-8.0551734457029473E-3</v>
       </c>
       <c r="D441">
-        <v>-0.02339094537943262</v>
+        <v>1.145555141760851E-3</v>
       </c>
       <c r="E441">
-        <v>0.988</v>
+        <v>0.98799999999999999</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E441" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E441">
+      <sortCondition ref="A1:A441"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>